--- a/results/Results_Durrleman.xlsx
+++ b/results/Results_Durrleman.xlsx
@@ -1122,7 +1122,7 @@
         <v>-1.963223087936787</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.475441001467011</v>
+        <v>-1.475440973826068</v>
       </c>
       <c r="BF2" t="n">
         <v>-1.559511084104866</v>
@@ -1216,10 +1216,10 @@
         <v>0.00254151919648371</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.997030776772824</v>
+        <v>0.9970307767136499</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.002969223227175966</v>
+        <v>0.002969223286350076</v>
       </c>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="n">
-        <v>-2.917555337073729e-05</v>
+        <v>-2.917555424727131e-05</v>
       </c>
       <c r="CS2" t="n">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>-1.906580591304309</v>
       </c>
       <c r="BE3" t="n">
-        <v>-1.46784288185769</v>
+        <v>-1.467842960465889</v>
       </c>
       <c r="BF3" t="n">
         <v>-1.597791305011401</v>
@@ -1530,10 +1530,10 @@
         <v>0.002968437989588679</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.9963992090870104</v>
+        <v>0.9963992092851417</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.003600790912989593</v>
+        <v>0.003600790714858304</v>
       </c>
       <c r="CK3" t="n">
         <v>2.215033876353315e-05</v>
@@ -1554,10 +1554,10 @@
         <v>3.051386590805589e-05</v>
       </c>
       <c r="CQ3" t="n">
-        <v>3.853083658863186e-05</v>
+        <v>3.853083365375383e-05</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.17800363440583e-05</v>
+        <v>1.178004221381498e-05</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>-1.764803262552995</v>
       </c>
       <c r="BE4" t="n">
-        <v>-1.450412102394598</v>
+        <v>-1.450412625001946</v>
       </c>
       <c r="BF4" t="n">
         <v>-1.692702550301585</v>
@@ -1852,10 +1852,10 @@
         <v>0.006092928461368663</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.9921488242669851</v>
+        <v>0.9921488267046434</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.007851175733014859</v>
+        <v>0.007851173295356562</v>
       </c>
       <c r="CK4" t="n">
         <v>7.069564092688357e-05</v>
@@ -1876,10 +1876,10 @@
         <v>1.410111528125382e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0001141401292045104</v>
+        <v>0.0001141400569874412</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.078836305601551e-06</v>
+        <v>1.078854359868956e-06</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>-1.722058429505305</v>
       </c>
       <c r="BE5" t="n">
-        <v>-1.444778903344927</v>
+        <v>-1.44477962399461</v>
       </c>
       <c r="BF5" t="n">
         <v>-1.72100726158395</v>
@@ -2174,10 +2174,10 @@
         <v>0.007655163615872151</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.9900074019019774</v>
+        <v>0.9900074059588262</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.009992598098022554</v>
+        <v>0.009992594041173808</v>
       </c>
       <c r="CK5" t="n">
         <v>3.220547833068799e-06</v>
@@ -2198,10 +2198,10 @@
         <v>2.530641826178662e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.478138989326541e-05</v>
+        <v>1.478135984662923e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>-1.478132811384716e-05</v>
+        <v>-1.478129806721096e-05</v>
       </c>
       <c r="CS5" t="n">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>-1.675845013352688</v>
       </c>
       <c r="BE6" t="n">
-        <v>-1.438190258484898</v>
+        <v>-1.438191234627179</v>
       </c>
       <c r="BF6" t="n">
         <v>-1.751437147982428</v>
@@ -2496,10 +2496,10 @@
         <v>0.009281879012878025</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.9876889935362139</v>
+        <v>0.987689000006072</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.01231100646378613</v>
+        <v>0.01231099999392804</v>
       </c>
       <c r="CK6" t="n">
         <v>2.028602817756141e-05</v>
@@ -2520,10 +2520,10 @@
         <v>9.942052846256447e-05</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3.19523830646087e-05</v>
+        <v>3.195233514626493e-05</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.455068182080145e-05</v>
+        <v>5.45507776574888e-05</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>-1.571763587005421</v>
       </c>
       <c r="BE7" t="n">
-        <v>-1.42069291182222</v>
+        <v>-1.420694648602643</v>
       </c>
       <c r="BF7" t="n">
         <v>-1.819273448842394</v>
@@ -2818,10 +2818,10 @@
         <v>0.01566039940232244</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.9787927353894021</v>
+        <v>0.9787927527935287</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.02120726461059785</v>
+        <v>0.02120724720647127</v>
       </c>
       <c r="CK7" t="n">
         <v>5.480318342262862e-05</v>
@@ -2842,10 +2842,10 @@
         <v>6.169635738217728e-05</v>
       </c>
       <c r="CQ7" t="n">
-        <v>7.722777425349901e-05</v>
+        <v>7.722751644972416e-05</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.061406631462316e-05</v>
+        <v>2.061419521651051e-05</v>
       </c>
       <c r="CS7" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>-1.513236656090297</v>
       </c>
       <c r="BE8" t="n">
-        <v>-1.408776433484515</v>
+        <v>-1.408778729745402</v>
       </c>
       <c r="BF8" t="n">
         <v>-1.856933798161663</v>
@@ -3140,10 +3140,10 @@
         <v>0.02051298810008928</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.9719749678295361</v>
+        <v>0.9719749961253348</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.02802503217046393</v>
+        <v>0.02802500387466522</v>
       </c>
       <c r="CK8" t="n">
         <v>2.034739399185779e-05</v>
@@ -3164,10 +3164,10 @@
         <v>8.498361363990867e-05</v>
       </c>
       <c r="CQ8" t="n">
-        <v>2.988103331526184e-05</v>
+        <v>2.988082374531624e-05</v>
       </c>
       <c r="CR8" t="n">
-        <v>2.934642589087161e-05</v>
+        <v>2.934663546081694e-05</v>
       </c>
       <c r="CS8" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>-1.449936120158189</v>
       </c>
       <c r="BE9" t="n">
-        <v>-1.393817040889576</v>
+        <v>-1.393820065782274</v>
       </c>
       <c r="BF9" t="n">
         <v>-1.897172745304966</v>
@@ -3462,10 +3462,10 @@
         <v>0.02704583191765686</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.9627827567584893</v>
+        <v>0.9627828025424653</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.03721724324151066</v>
+        <v>0.03721719745753471</v>
       </c>
       <c r="CK9" t="n">
         <v>3.244372663062031e-05</v>
@@ -3486,10 +3486,10 @@
         <v>0.0001550548207216766</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.873474727549182e-05</v>
+        <v>3.873440818114634e-05</v>
       </c>
       <c r="CR9" t="n">
-        <v>7.972130081732379e-05</v>
+        <v>7.972163991166905e-05</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>-1.381532262080411</v>
       </c>
       <c r="BE10" t="n">
-        <v>-1.374849723936463</v>
+        <v>-1.374853695380191</v>
       </c>
       <c r="BF10" t="n">
         <v>-1.939910854707166</v>
@@ -3784,10 +3784,10 @@
         <v>0.03673906614549916</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.9493187342583842</v>
+        <v>0.9493188089206586</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0506812657416158</v>
+        <v>0.05068119107934144</v>
       </c>
       <c r="CK10" t="n">
         <v>1.906814005205818e-05</v>
@@ -3808,10 +3808,10 @@
         <v>0.0002165252187315852</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.999860772925605e-05</v>
+        <v>1.999805475074064e-05</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0001132637403248159</v>
+        <v>0.0001132642933033312</v>
       </c>
       <c r="CS10" t="n">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>-1.30771865360548</v>
       </c>
       <c r="BE11" t="n">
-        <v>-1.350621486085151</v>
+        <v>-1.350626679081409</v>
       </c>
       <c r="BF11" t="n">
         <v>-1.98483610929428</v>
@@ -4106,10 +4106,10 @@
         <v>0.05006619542832658</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.9309546177946849</v>
+        <v>0.9309547380917464</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.06904538220531509</v>
+        <v>0.06904526190825355</v>
       </c>
       <c r="CK11" t="n">
         <v>3.010909881872269e-05</v>
@@ -4130,10 +4130,10 @@
         <v>0.0003251164327298382</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.274821407324476e-05</v>
+        <v>2.274732310533507e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0001845490228287532</v>
+        <v>0.0001845499137966623</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>-1.228231851086869</v>
       </c>
       <c r="BE12" t="n">
-        <v>-1.319516926851373</v>
+        <v>-1.319523675228261</v>
       </c>
       <c r="BF12" t="n">
         <v>-2.031216094731902</v>
@@ -4428,10 +4428,10 @@
         <v>0.06879756903792078</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.9055515575561658</v>
+        <v>0.9055517486834169</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.09444844244383421</v>
+        <v>0.09444825131658308</v>
       </c>
       <c r="CK12" t="n">
         <v>2.274444516914449e-05</v>
@@ -4452,10 +4452,10 @@
         <v>0.0003788746566523608</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.596150262611189e-06</v>
+        <v>3.594734698131319e-06</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0001888940806278099</v>
+        <v>0.0001888954961922895</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>-1.142875802564078</v>
       </c>
       <c r="BE13" t="n">
-        <v>-1.279482461874512</v>
+        <v>-1.279491143688355</v>
       </c>
       <c r="BF13" t="n">
         <v>-2.077565115630439</v>
@@ -4750,10 +4750,10 @@
         <v>0.092963090545229</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.873210866270431</v>
+        <v>0.8732111597270894</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.126789133729569</v>
+        <v>0.1267888402729106</v>
       </c>
       <c r="CK13" t="n">
         <v>8.483287042454317e-05</v>
@@ -4774,10 +4774,10 @@
         <v>0.0005404553376703102</v>
       </c>
       <c r="CQ13" t="n">
-        <v>5.063394877954496e-05</v>
+        <v>5.063177532275368e-05</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0002899262010167856</v>
+        <v>0.0002899283744735768</v>
       </c>
       <c r="CS13" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>-1.05155056208961</v>
       </c>
       <c r="BE14" t="n">
-        <v>-1.227971996450718</v>
+        <v>-1.227982983784164</v>
       </c>
       <c r="BF14" t="n">
         <v>-2.121052726859798</v>
@@ -5072,10 +5072,10 @@
         <v>0.1257934772160927</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.8304908771801688</v>
+        <v>0.8304913127566911</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.1695091228198312</v>
+        <v>0.1695086872433089</v>
       </c>
       <c r="CK14" t="n">
         <v>7.827513253271749e-05</v>
@@ -5096,10 +5096,10 @@
         <v>0.0006674730378787059</v>
       </c>
       <c r="CQ14" t="n">
-        <v>2.64750382977328e-05</v>
+        <v>2.647181224467356e-05</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0003436975702110485</v>
+        <v>0.0003437007962641071</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>-0.9542840453528548</v>
       </c>
       <c r="BE15" t="n">
-        <v>-1.161961815382434</v>
+        <v>-1.161975360150239</v>
       </c>
       <c r="BF15" t="n">
         <v>-2.156461738843446</v>
@@ -5394,10 +5394,10 @@
         <v>0.1682690851766905</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.7771380498314022</v>
+        <v>0.7771386627633463</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.2228619501685978</v>
+        <v>0.2228613372366537</v>
       </c>
       <c r="CK15" t="n">
         <v>0.0001210592691190228</v>
@@ -5418,10 +5418,10 @@
         <v>0.0007082490794782588</v>
       </c>
       <c r="CQ15" t="n">
-        <v>5.145470050735811e-05</v>
+        <v>5.145016088946817e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0003039125965107014</v>
+        <v>0.0003039171361285912</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>-0.8512644455028014</v>
       </c>
       <c r="BE16" t="n">
-        <v>-1.078119432540056</v>
+        <v>-1.078135457537787</v>
       </c>
       <c r="BF16" t="n">
         <v>-2.174416737908247</v>
@@ -5716,10 +5716,10 @@
         <v>0.2214087990960431</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.7135639514700032</v>
+        <v>0.7135647533567617</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.2864360485299968</v>
+        <v>0.2864352466432383</v>
       </c>
       <c r="CK16" t="n">
         <v>0.0002510181645990631</v>
@@ -5740,10 +5740,10 @@
         <v>0.0009069554520891704</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0001669424748084571</v>
+        <v>0.0001669365357160179</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0004253377656556604</v>
+        <v>0.0004253437047480992</v>
       </c>
       <c r="CS16" t="n">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>-0.7428696952733502</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0.9732481288959832</v>
+        <v>-0.9732659234862213</v>
       </c>
       <c r="BF17" t="n">
         <v>-2.158668470317459</v>
@@ -6038,10 +6038,10 @@
         <v>0.2894040136668486</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.6378782785956734</v>
+        <v>0.6378792321730847</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.3621217214043266</v>
+        <v>0.3621207678269153</v>
       </c>
       <c r="CK17" t="n">
         <v>0.0002266563636822436</v>
@@ -6062,10 +6062,10 @@
         <v>0.0009215968088757227</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0001352204462201304</v>
+        <v>0.0001352133836463529</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0003830205278838178</v>
+        <v>0.0003830275904575953</v>
       </c>
       <c r="CS17" t="n">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>-0.6296892848428964</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.8451220086118642</v>
+        <v>-0.8451399264763508</v>
       </c>
       <c r="BF18" t="n">
         <v>-2.083080479415665</v>
@@ -6360,10 +6360,10 @@
         <v>0.3729959821744413</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.5532218616485222</v>
+        <v>0.5532228516972501</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.4467781383514778</v>
+        <v>0.4467771483027499</v>
       </c>
       <c r="CK18" t="n">
         <v>0.0003321421280239574</v>
@@ -6384,10 +6384,10 @@
         <v>0.0009853096315694913</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0002439785844382866</v>
+        <v>0.0002439712517434247</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.0004388496218446247</v>
+        <v>0.0004388569545394861</v>
       </c>
       <c r="CS18" t="n">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>-0.5125332234327943</v>
       </c>
       <c r="BE19" t="n">
-        <v>-0.693690053441852</v>
+        <v>-0.6937054718321807</v>
       </c>
       <c r="BF19" t="n">
         <v>-1.912245773211461</v>
@@ -6682,10 +6682,10 @@
         <v>0.4728715505087902</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.4626600481667829</v>
+        <v>0.4626608911355332</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.5373399518332171</v>
+        <v>0.5373391088644668</v>
       </c>
       <c r="CK19" t="n">
         <v>0.000305242962772693</v>
@@ -6706,10 +6706,10 @@
         <v>0.0008094692570228038</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.0002318872072226657</v>
+        <v>0.0002318809638606474</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.0003319906220780305</v>
+        <v>0.0003319968654400488</v>
       </c>
       <c r="CS19" t="n">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>-0.3924234018874287</v>
       </c>
       <c r="BE20" t="n">
-        <v>-0.5222949548213693</v>
+        <v>-0.5223048259582952</v>
       </c>
       <c r="BF20" t="n">
         <v>-1.61584321140216</v>
@@ -7004,10 +7004,10 @@
         <v>0.584369565167138</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.3708960591013602</v>
+        <v>0.3708965696552254</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.6291039408986399</v>
+        <v>0.6291034303447746</v>
       </c>
       <c r="CK20" t="n">
         <v>0.0003974002708099916</v>
@@ -7028,10 +7028,10 @@
         <v>0.0006351777254610244</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.0003476499977591407</v>
+        <v>0.0003476462163940434</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.0003038571370708332</v>
+        <v>0.000303860918435931</v>
       </c>
       <c r="CS20" t="n">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>-0.2705643724286095</v>
       </c>
       <c r="BE21" t="n">
-        <v>-0.3381612788195638</v>
+        <v>-0.3381632925783579</v>
       </c>
       <c r="BF21" t="n">
         <v>-1.202912563177988</v>
@@ -7326,10 +7326,10 @@
         <v>0.6943429180737481</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.2840509558407059</v>
+        <v>0.2840510498012225</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.7159490441592942</v>
+        <v>0.7159489501987775</v>
       </c>
       <c r="CK21" t="n">
         <v>0.0003627122017065905</v>
@@ -7350,10 +7350,10 @@
         <v>0.0003981428506624647</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.0003393522570610424</v>
+        <v>0.0003393515611520652</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.0002381192828706212</v>
+        <v>0.0002381199787795992</v>
       </c>
       <c r="CS21" t="n">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>-0.1482935645477151</v>
       </c>
       <c r="BE22" t="n">
-        <v>-0.1514252291474505</v>
+        <v>-0.1514189459043763</v>
       </c>
       <c r="BF22" t="n">
         <v>-0.7435130640407163</v>
@@ -7648,10 +7648,10 @@
         <v>0.788384079792384</v>
       </c>
       <c r="CI22" t="n">
-        <v>0.2073206076690474</v>
+        <v>0.2073203558988245</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.7926793923309525</v>
+        <v>0.7926796441011755</v>
       </c>
       <c r="CK22" t="n">
         <v>0.0003311056102371162</v>
@@ -7672,10 +7672,10 @@
         <v>0.0002346861173973961</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.0003301762099781956</v>
+        <v>0.0003301780746886567</v>
       </c>
       <c r="CR22" t="n">
-        <v>0.0002028733234480645</v>
+        <v>0.0002028714587376029</v>
       </c>
       <c r="CS22" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>-0.02701467631873429</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.02722186140994032</v>
+        <v>0.02723480459608717</v>
       </c>
       <c r="BF23" t="n">
         <v>-0.3280801035560381</v>
@@ -7970,10 +7970,10 @@
         <v>0.8589062636218184</v>
       </c>
       <c r="CI23" t="n">
-        <v>0.1451457343934744</v>
+        <v>0.1451453086853385</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0.8548542656065257</v>
+        <v>0.8548546913146615</v>
       </c>
       <c r="CK23" t="n">
         <v>0.0002444064939111281</v>
@@ -7994,10 +7994,10 @@
         <v>6.77379159694097e-05</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.0002576185300739141</v>
+        <v>0.0002576216830377756</v>
       </c>
       <c r="CR23" t="n">
-        <v>9.774862573409902e-05</v>
+        <v>9.774547277023767e-05</v>
       </c>
       <c r="CS23" t="n">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0.09187852735906336</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.189141910163608</v>
+        <v>0.189158685419559</v>
       </c>
       <c r="BF24" t="n">
         <v>-0.006436662970235992</v>
@@ -8292,10 +8292,10 @@
         <v>0.9097719450759845</v>
       </c>
       <c r="CI24" t="n">
-        <v>0.09619790145179376</v>
+        <v>0.09619747242896021</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0.9038020985482063</v>
+        <v>0.9038025275710397</v>
       </c>
       <c r="CK24" t="n">
         <v>0.0002463551932619879</v>
@@ -8316,10 +8316,10 @@
         <v>1.675901643267454e-05</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0.0002647785034696277</v>
+        <v>0.0002647816809834595</v>
       </c>
       <c r="CR24" t="n">
-        <v>6.097407547483655e-05</v>
+        <v>6.09708979610055e-05</v>
       </c>
       <c r="CS24" t="n">
         <v>0</v>
@@ -8520,7 +8520,7 @@
         <v>0.2070785767658922</v>
       </c>
       <c r="BE25" t="n">
-        <v>0.3292816159318842</v>
+        <v>0.3292994251619739</v>
       </c>
       <c r="BF25" t="n">
         <v>0.2200269865350344</v>
@@ -8614,10 +8614,10 @@
         <v>0.9438659702304381</v>
       </c>
       <c r="CI25" t="n">
-        <v>0.06112817814416301</v>
+        <v>0.06112783993498856</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0.938871821855837</v>
+        <v>0.9388721600650114</v>
       </c>
       <c r="CK25" t="n">
         <v>0.0001815780949902327</v>
@@ -8638,10 +8638,10 @@
         <v>1.156347592213246e-06</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0.0001987662510853278</v>
+        <v>0.0001987687559970617</v>
       </c>
       <c r="CR25" t="n">
-        <v>3.814499783989182e-05</v>
+        <v>3.814249292815805e-05</v>
       </c>
       <c r="CS25" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>0.3174312197552719</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.4461874985384132</v>
+        <v>0.446204340038966</v>
       </c>
       <c r="BF26" t="n">
         <v>0.3716799783475129</v>
@@ -8936,10 +8936,10 @@
         <v>0.9657691064156174</v>
       </c>
       <c r="CI26" t="n">
-        <v>0.03759549710926073</v>
+        <v>0.03759526863653723</v>
       </c>
       <c r="CJ26" t="n">
-        <v>0.9624045028907393</v>
+        <v>0.9624047313634627</v>
       </c>
       <c r="CK26" t="n">
         <v>0.000123210537923198</v>
@@ -8960,10 +8960,10 @@
         <v>-1.299749991482812e-05</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.0001361474025655576</v>
+        <v>0.000136149094725467</v>
       </c>
       <c r="CR26" t="n">
-        <v>1.192209271016261e-05</v>
+        <v>1.192040055025389e-05</v>
       </c>
       <c r="CS26" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0.4219852525273753</v>
       </c>
       <c r="BE27" t="n">
-        <v>0.5410284483101976</v>
+        <v>0.5410432591521712</v>
       </c>
       <c r="BF27" t="n">
         <v>0.4706318750213371</v>
@@ -9258,10 +9258,10 @@
         <v>0.9798571073724029</v>
       </c>
       <c r="CI27" t="n">
-        <v>0.02210274349902941</v>
+        <v>0.02210260672101752</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0.9778972565009706</v>
+        <v>0.9778973932789825</v>
       </c>
       <c r="CK27" t="n">
         <v>9.468108590354667e-05</v>
@@ -9282,10 +9282,10 @@
         <v>1.116783243317217e-06</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.0001028234057569285</v>
+        <v>0.0001028244187893144</v>
       </c>
       <c r="CR27" t="n">
-        <v>1.563221870568704e-05</v>
+        <v>1.563120567330076e-05</v>
       </c>
       <c r="CS27" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0.5200210423042461</v>
       </c>
       <c r="BE28" t="n">
-        <v>0.61639906632603</v>
+        <v>0.6164115038746617</v>
       </c>
       <c r="BF28" t="n">
         <v>0.5340306889658604</v>
@@ -9580,10 +9580,10 @@
         <v>0.9879088066729873</v>
       </c>
       <c r="CI28" t="n">
-        <v>0.01315177421605131</v>
+        <v>0.01315169614460314</v>
       </c>
       <c r="CJ28" t="n">
-        <v>0.9868482257839487</v>
+        <v>0.9868483038553969</v>
       </c>
       <c r="CK28" t="n">
         <v>4.618155647441623e-05</v>
@@ -9604,10 +9604,10 @@
         <v>1.551745057093695e-05</v>
       </c>
       <c r="CQ28" t="n">
-        <v>5.066222177782212e-05</v>
+        <v>5.066280000603522e-05</v>
       </c>
       <c r="CR28" t="n">
-        <v>2.337253468568442e-05</v>
+        <v>2.337195645747085e-05</v>
       </c>
       <c r="CS28" t="n">
         <v>0</v>
@@ -9808,7 +9808,7 @@
         <v>0.611057397541933</v>
       </c>
       <c r="BE29" t="n">
-        <v>0.6753784533076923</v>
+        <v>0.6753886009441986</v>
       </c>
       <c r="BF29" t="n">
         <v>0.5737314077441333</v>
@@ -9902,10 +9902,10 @@
         <v>0.9920943336204389</v>
       </c>
       <c r="CI29" t="n">
-        <v>0.008470422502733855</v>
+        <v>0.008470376691886534</v>
       </c>
       <c r="CJ29" t="n">
-        <v>0.9915295774972661</v>
+        <v>0.9915296233081135</v>
       </c>
       <c r="CK29" t="n">
         <v>9.14879926460345e-06</v>
@@ -9926,10 +9926,10 @@
         <v>1.413166086217197e-05</v>
       </c>
       <c r="CQ29" t="n">
-        <v>1.129941901335474e-05</v>
+        <v>1.12997583067201e-05</v>
       </c>
       <c r="CR29" t="n">
-        <v>1.831446945102164e-05</v>
+        <v>1.831413015765566e-05</v>
       </c>
       <c r="CS29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0.6948397190876183</v>
       </c>
       <c r="BE30" t="n">
-        <v>0.720961379353981</v>
+        <v>0.7209695164969673</v>
       </c>
       <c r="BF30" t="n">
         <v>0.5976033786576881</v>
@@ -10224,10 +10224,10 @@
         <v>0.994597299124101</v>
       </c>
       <c r="CI30" t="n">
-        <v>0.005682439619844271</v>
+        <v>0.005682412465055203</v>
       </c>
       <c r="CJ30" t="n">
-        <v>0.9943175603801557</v>
+        <v>0.9943175875349448</v>
       </c>
       <c r="CK30" t="n">
         <v>1.688813313358076e-06</v>
@@ -10248,10 +10248,10 @@
         <v>1.040064653717778e-05</v>
       </c>
       <c r="CQ30" t="n">
-        <v>2.334441237354293e-06</v>
+        <v>2.334642356528186e-06</v>
       </c>
       <c r="CR30" t="n">
-        <v>1.247250299485532e-05</v>
+        <v>1.247230187568105e-05</v>
       </c>
       <c r="CS30" t="n">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0.7713143999122778</v>
       </c>
       <c r="BE31" t="n">
-        <v>0.7557899354165565</v>
+        <v>0.7557963975369122</v>
       </c>
       <c r="BF31" t="n">
         <v>0.6108227029547229</v>
@@ -10546,10 +10546,10 @@
         <v>0.9962346940732228</v>
       </c>
       <c r="CI31" t="n">
-        <v>0.003880834474118783</v>
+        <v>0.003880818379649153</v>
       </c>
       <c r="CJ31" t="n">
-        <v>0.9961191655258812</v>
+        <v>0.9961191816203508</v>
       </c>
       <c r="CK31" t="n">
         <v>1.157270185734452e-06</v>
@@ -10570,10 +10570,10 @@
         <v>2.616081085016382e-05</v>
       </c>
       <c r="CQ31" t="n">
-        <v>8.709016501953328e-07</v>
+        <v>8.710208522420918e-07</v>
       </c>
       <c r="CR31" t="n">
-        <v>2.787211164089441e-05</v>
+        <v>2.787187323680107e-05</v>
       </c>
       <c r="CS31" t="n">
         <v>0</v>
@@ -10774,7 +10774,7 @@
         <v>0.9029259724839663</v>
       </c>
       <c r="BE32" t="n">
-        <v>0.8015960260852378</v>
+        <v>0.8016000577540593</v>
       </c>
       <c r="BF32" t="n">
         <v>0.617853958591692</v>
@@ -10868,10 +10868,10 @@
         <v>0.9978660163560337</v>
       </c>
       <c r="CI32" t="n">
-        <v>0.002108540002068793</v>
+        <v>0.00210853372230127</v>
       </c>
       <c r="CJ32" t="n">
-        <v>0.9978914599979312</v>
+        <v>0.9978914662776988</v>
       </c>
       <c r="CK32" t="n">
         <v>7.184657333428206e-07</v>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="CP32" t="inlineStr"/>
       <c r="CQ32" t="n">
-        <v>-1.619475377240514e-06</v>
+        <v>-1.619382356325996e-06</v>
       </c>
       <c r="CR32" t="inlineStr"/>
       <c r="CS32" t="n">
@@ -11088,7 +11088,7 @@
         <v>-0.9682273404153275</v>
       </c>
       <c r="BE33" t="n">
-        <v>-0.9655877994962878</v>
+        <v>-0.9655875898228562</v>
       </c>
       <c r="BF33" t="n">
         <v>-0.7420625755446906</v>
@@ -11182,10 +11182,10 @@
         <v>0.01230431449819591</v>
       </c>
       <c r="CI33" t="n">
-        <v>0.9900893050888564</v>
+        <v>0.9900893027801357</v>
       </c>
       <c r="CJ33" t="n">
-        <v>0.009910694911143603</v>
+        <v>0.009910697219864262</v>
       </c>
       <c r="CK33" t="inlineStr"/>
       <c r="CL33" t="n">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="CQ33" t="inlineStr"/>
       <c r="CR33" t="n">
-        <v>-5.777108728461614e-05</v>
+        <v>-5.777112148322401e-05</v>
       </c>
       <c r="CS33" t="n">
         <v>1</v>
@@ -11402,7 +11402,7 @@
         <v>-0.9572079629716608</v>
       </c>
       <c r="BE34" t="n">
-        <v>-0.9475607108250172</v>
+        <v>-0.9475605167440329</v>
       </c>
       <c r="BF34" t="n">
         <v>-0.7358104020590762</v>
@@ -11496,10 +11496,10 @@
         <v>0.01313862223358286</v>
       </c>
       <c r="CI34" t="n">
-        <v>0.9893519525484921</v>
+        <v>0.9893519501974694</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0.01064804745150794</v>
+        <v>0.01064804980253065</v>
       </c>
       <c r="CK34" t="n">
         <v>6.696227045945372e-05</v>
@@ -11520,10 +11520,10 @@
         <v>-7.590756982337171e-05</v>
       </c>
       <c r="CQ34" t="n">
-        <v>6.869333996072785e-05</v>
+        <v>6.869337478594868e-05</v>
       </c>
       <c r="CR34" t="n">
-        <v>-3.901519393867856e-05</v>
+        <v>-3.901522876389806e-05</v>
       </c>
       <c r="CS34" t="n">
         <v>1</v>
@@ -11724,7 +11724,7 @@
         <v>-0.9466965414255901</v>
       </c>
       <c r="BE35" t="n">
-        <v>-0.9305567020118003</v>
+        <v>-0.9305565221205009</v>
       </c>
       <c r="BF35" t="n">
         <v>-0.7302272191994453</v>
@@ -11818,10 +11818,10 @@
         <v>0.01425328258531455</v>
       </c>
       <c r="CI35" t="n">
-        <v>0.9883654953113603</v>
+        <v>0.9883654928851271</v>
       </c>
       <c r="CJ35" t="n">
-        <v>0.01163450468863969</v>
+        <v>0.01163450711487291</v>
       </c>
       <c r="CK35" t="n">
         <v>5.040291153251414e-05</v>
@@ -11842,10 +11842,10 @@
         <v>-7.757973308429976e-05</v>
       </c>
       <c r="CQ35" t="n">
-        <v>5.362738364222616e-05</v>
+        <v>5.362741958152457e-05</v>
       </c>
       <c r="CR35" t="n">
-        <v>-3.878831063113989e-05</v>
+        <v>-3.878834657043727e-05</v>
       </c>
       <c r="CS35" t="n">
         <v>1</v>
@@ -12046,7 +12046,7 @@
         <v>-0.9366196502792601</v>
       </c>
       <c r="BE36" t="n">
-        <v>-0.9145009568736103</v>
+        <v>-0.9145007899655208</v>
       </c>
       <c r="BF36" t="n">
         <v>-0.7252844744418049</v>
@@ -12140,10 +12140,10 @@
         <v>0.01549667836518043</v>
       </c>
       <c r="CI36" t="n">
-        <v>0.9872514836296031</v>
+        <v>0.9872514811235942</v>
       </c>
       <c r="CJ36" t="n">
-        <v>0.01274851637039687</v>
+        <v>0.01274851887640582</v>
       </c>
       <c r="CK36" t="n">
         <v>5.03706559764408e-05</v>
@@ -12164,10 +12164,10 @@
         <v>-8.1158969481313e-05</v>
       </c>
       <c r="CQ36" t="n">
-        <v>5.528993828718062e-05</v>
+        <v>5.528997540818134e-05</v>
       </c>
       <c r="CR36" t="n">
-        <v>-4.045100679202682e-05</v>
+        <v>-4.045104391302599e-05</v>
       </c>
       <c r="CS36" t="n">
         <v>1</v>
@@ -12368,7 +12368,7 @@
         <v>-0.9269048312911117</v>
       </c>
       <c r="BE37" t="n">
-        <v>-0.8993249970788866</v>
+        <v>-0.8993248421337158</v>
       </c>
       <c r="BF37" t="n">
         <v>-0.7209574130717337</v>
@@ -12462,10 +12462,10 @@
         <v>0.01686808664975992</v>
       </c>
       <c r="CI37" t="n">
-        <v>0.9860065995786481</v>
+        <v>0.9860065969914773</v>
       </c>
       <c r="CJ37" t="n">
-        <v>0.01399340042135189</v>
+        <v>0.0139934030085227</v>
       </c>
       <c r="CK37" t="n">
         <v>5.20697853023111e-05</v>
@@ -12486,10 +12486,10 @@
         <v>-7.179535597041323e-05</v>
       </c>
       <c r="CQ37" t="n">
-        <v>5.889122014003829e-05</v>
+        <v>5.889125846327177e-05</v>
       </c>
       <c r="CR37" t="n">
-        <v>-2.921321563386609e-05</v>
+        <v>-2.921325395709921e-05</v>
       </c>
       <c r="CS37" t="n">
         <v>1</v>
@@ -12690,7 +12690,7 @@
         <v>-0.9174796677509695</v>
       </c>
       <c r="BE38" t="n">
-        <v>-0.8849656877128884</v>
+        <v>-0.8849655438998602</v>
       </c>
       <c r="BF38" t="n">
         <v>-0.7172246394562183</v>
@@ -12784,10 +12784,10 @@
         <v>0.01850187144439197</v>
       </c>
       <c r="CI38" t="n">
-        <v>0.9845100057019973</v>
+        <v>0.984510003020147</v>
       </c>
       <c r="CJ38" t="n">
-        <v>0.01548999429800269</v>
+        <v>0.01548999697985298</v>
       </c>
       <c r="CK38" t="n">
         <v>4.240056721523111e-05</v>
@@ -12808,10 +12808,10 @@
         <v>-9.599627665428899e-05</v>
       </c>
       <c r="CQ38" t="n">
-        <v>5.138195525240634e-05</v>
+        <v>5.138199497810823e-05</v>
       </c>
       <c r="CR38" t="n">
-        <v>-5.138195525232773e-05</v>
+        <v>-5.138199497802876e-05</v>
       </c>
       <c r="CS38" t="n">
         <v>1</v>
@@ -13012,7 +13012,7 @@
         <v>-0.9082708857179888</v>
       </c>
       <c r="BE39" t="n">
-        <v>-0.8713643174189505</v>
+        <v>-0.8713641840613872</v>
       </c>
       <c r="BF39" t="n">
         <v>-0.7140677103430637</v>
@@ -13106,10 +13106,10 @@
         <v>0.02012886266705993</v>
       </c>
       <c r="CI39" t="n">
-        <v>0.9829900644009023</v>
+        <v>0.9829900616470192</v>
       </c>
       <c r="CJ39" t="n">
-        <v>0.01700993559909769</v>
+        <v>0.01700993835298081</v>
       </c>
       <c r="CK39" t="n">
         <v>6.260719547810517e-05</v>
@@ -13130,10 +13130,10 @@
         <v>-7.557948802609305e-05</v>
       </c>
       <c r="CQ39" t="n">
-        <v>7.389653550345099e-05</v>
+        <v>7.389657629615874e-05</v>
       </c>
       <c r="CR39" t="n">
-        <v>-2.937945798630232e-05</v>
+        <v>-2.937949877901094e-05</v>
       </c>
       <c r="CS39" t="n">
         <v>1</v>
@@ -13334,7 +13334,7 @@
         <v>-0.899203468818674</v>
       </c>
       <c r="BE40" t="n">
-        <v>-0.8584657244088247</v>
+        <v>-0.8584656009930292</v>
       </c>
       <c r="BF40" t="n">
         <v>-0.7114707428605342</v>
@@ -13428,10 +13428,10 @@
         <v>0.02214706050747051</v>
       </c>
       <c r="CI40" t="n">
-        <v>0.9810929336475805</v>
+        <v>0.9810929308055767</v>
       </c>
       <c r="CJ40" t="n">
-        <v>0.01890706635241945</v>
+        <v>0.01890706919442331</v>
       </c>
       <c r="CK40" t="n">
         <v>4.358532805938224e-05</v>
@@ -13452,10 +13452,10 @@
         <v>-0.0001054744991769599</v>
       </c>
       <c r="CQ40" t="n">
-        <v>5.748126860351602e-05</v>
+        <v>5.7481310701539e-05</v>
       </c>
       <c r="CR40" t="n">
-        <v>-5.748112708765872e-05</v>
+        <v>-5.748116918568175e-05</v>
       </c>
       <c r="CS40" t="n">
         <v>1</v>
@@ -13656,7 +13656,7 @@
         <v>-0.8901997758092413</v>
       </c>
       <c r="BE41" t="n">
-        <v>-0.846217439838075</v>
+        <v>-0.8462173260209358</v>
       </c>
       <c r="BF41" t="n">
         <v>-0.7094200182161823</v>
@@ -13750,10 +13750,10 @@
         <v>0.02416582624477936</v>
       </c>
       <c r="CI41" t="n">
-        <v>0.9791565814839585</v>
+        <v>0.9791565785854842</v>
       </c>
       <c r="CJ41" t="n">
-        <v>0.02084341851604155</v>
+        <v>0.02084342141451578</v>
       </c>
       <c r="CK41" t="n">
         <v>6.957274239722394e-05</v>
@@ -13774,10 +13774,10 @@
         <v>-6.02697077605914e-05</v>
       </c>
       <c r="CQ41" t="n">
-        <v>8.616391645008617e-05</v>
+        <v>8.616395938459281e-05</v>
       </c>
       <c r="CR41" t="n">
-        <v>-3.566263399332827e-05</v>
+        <v>-3.566265546058189e-05</v>
       </c>
       <c r="CS41" t="n">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>-0.8856966268499992</v>
       </c>
       <c r="BE42" t="n">
-        <v>-0.8403212899460815</v>
+        <v>-0.8403211808515827</v>
       </c>
       <c r="BF42" t="n">
         <v>-0.7085956984931937</v>
@@ -14072,10 +14072,10 @@
         <v>0.0252429297786142</v>
       </c>
       <c r="CI42" t="n">
-        <v>0.9781123986562257</v>
+        <v>0.9781123957365575</v>
       </c>
       <c r="CJ42" t="n">
-        <v>0.02188760134377432</v>
+        <v>0.02188760426344249</v>
       </c>
       <c r="CK42" t="n">
         <v>3.440217099775003e-05</v>
@@ -14096,10 +14096,10 @@
         <v>-6.824716515776267e-05</v>
       </c>
       <c r="CQ42" t="n">
-        <v>4.33962675406201e-05</v>
+        <v>4.339628916484421e-05</v>
       </c>
       <c r="CR42" t="n">
-        <v>-4.339626754055014e-05</v>
+        <v>-4.33962891647745e-05</v>
       </c>
       <c r="CS42" t="n">
         <v>1</v>
@@ -14300,7 +14300,7 @@
         <v>-0.8811786527333744</v>
       </c>
       <c r="BE43" t="n">
-        <v>-0.8345688186961273</v>
+        <v>-0.8345687143067838</v>
       </c>
       <c r="BF43" t="n">
         <v>-0.7079035589084998</v>
@@ -14394,10 +14394,10 @@
         <v>0.02632542976206376</v>
       </c>
       <c r="CI43" t="n">
-        <v>0.97705236236689</v>
+        <v>0.977052359435676</v>
       </c>
       <c r="CJ43" t="n">
-        <v>0.02294763763311003</v>
+        <v>0.02294764056432397</v>
       </c>
       <c r="CK43" t="n">
         <v>4.155392232806435e-05</v>
@@ -14418,10 +14418,10 @@
         <v>-0.0001100811883364646</v>
       </c>
       <c r="CQ43" t="n">
-        <v>5.124731813313521e-05</v>
+        <v>5.124733984287165e-05</v>
       </c>
       <c r="CR43" t="n">
-        <v>-3.502937031120879e-05</v>
+        <v>-3.502943544041941e-05</v>
       </c>
       <c r="CS43" t="n">
         <v>1</v>
@@ -14622,7 +14622,7 @@
         <v>-0.8674256826233853</v>
       </c>
       <c r="BE44" t="n">
-        <v>-0.8181114645627665</v>
+        <v>-0.8181113744102948</v>
       </c>
       <c r="BF44" t="n">
         <v>-0.7066073923782937</v>
@@ -14716,10 +14716,10 @@
         <v>0.03059366029646737</v>
       </c>
       <c r="CI44" t="n">
-        <v>0.9728661908308976</v>
+        <v>0.9728661878623844</v>
       </c>
       <c r="CJ44" t="n">
-        <v>0.02713380916910235</v>
+        <v>0.02713381213761556</v>
       </c>
       <c r="CK44" t="n">
         <v>9.196312058686387e-05</v>
@@ -14740,10 +14740,10 @@
         <v>-6.335958562453517e-05</v>
       </c>
       <c r="CQ44" t="n">
-        <v>0.0001280427270682963</v>
+        <v>0.000128042793026268</v>
       </c>
       <c r="CR44" t="n">
-        <v>-3.77345513524286e-05</v>
+        <v>-3.773457333841878e-05</v>
       </c>
       <c r="CS44" t="n">
         <v>1</v>
@@ -14944,7 +14944,7 @@
         <v>-0.8627365330430073</v>
       </c>
       <c r="BE45" t="n">
-        <v>-0.8128715353395772</v>
+        <v>-0.8128714500630708</v>
       </c>
       <c r="BF45" t="n">
         <v>-0.7064312843204981</v>
@@ -15038,10 +15038,10 @@
         <v>0.03206956467933642</v>
       </c>
       <c r="CI45" t="n">
-        <v>0.9713915520865198</v>
+        <v>0.9713915491347623</v>
       </c>
       <c r="CJ45" t="n">
-        <v>0.02860844791348016</v>
+        <v>0.02860845086523767</v>
       </c>
       <c r="CK45" t="n">
         <v>3.587268475117346e-05</v>
@@ -15062,10 +15062,10 @@
         <v>-4.461285781929002e-05</v>
       </c>
       <c r="CQ45" t="n">
-        <v>4.865631271520725e-05</v>
+        <v>4.865633457709802e-05</v>
       </c>
       <c r="CR45" t="n">
-        <v>-1.897844972486527e-05</v>
+        <v>-1.897847158675598e-05</v>
       </c>
       <c r="CS45" t="n">
         <v>1</v>
@@ -15266,7 +15266,7 @@
         <v>-0.8579747417941975</v>
       </c>
       <c r="BE46" t="n">
-        <v>-0.8077439110519059</v>
+        <v>-0.8077438307644415</v>
       </c>
       <c r="BF46" t="n">
         <v>-0.7063810707582977</v>
@@ -15360,10 +15360,10 @@
         <v>0.03379688236896572</v>
       </c>
       <c r="CI46" t="n">
-        <v>0.9696675449233653</v>
+        <v>0.9696675419922915</v>
       </c>
       <c r="CJ46" t="n">
-        <v>0.03033245507663473</v>
+        <v>0.03033245800770845</v>
       </c>
       <c r="CK46" t="n">
         <v>1.816536201149598e-05</v>
@@ -15384,10 +15384,10 @@
         <v>-5.7405918486416e-05</v>
       </c>
       <c r="CQ46" t="n">
-        <v>3.174713283141724e-05</v>
+        <v>3.174715454011545e-05</v>
       </c>
       <c r="CR46" t="n">
-        <v>-3.174699131551961e-05</v>
+        <v>-3.174701302421795e-05</v>
       </c>
       <c r="CS46" t="n">
         <v>1</v>
@@ -15588,7 +15588,7 @@
         <v>-0.8531275169075048</v>
       </c>
       <c r="BE47" t="n">
-        <v>-0.8027220091484706</v>
+        <v>-0.8027219340104202</v>
       </c>
       <c r="BF47" t="n">
         <v>-0.7064554404029304</v>
@@ -15682,10 +15682,10 @@
         <v>0.03553419049030482</v>
       </c>
       <c r="CI47" t="n">
-        <v>0.9679153532709903</v>
+        <v>0.9679153503841652</v>
       </c>
       <c r="CJ47" t="n">
-        <v>0.03208464672900968</v>
+        <v>0.03208464961583479</v>
       </c>
       <c r="CK47" t="n">
         <v>3.038123528789106e-05</v>
@@ -15706,10 +15706,10 @@
         <v>-5.543404077127583e-05</v>
       </c>
       <c r="CQ47" t="n">
-        <v>4.47244199650431e-05</v>
+        <v>4.472444134601909e-05</v>
       </c>
       <c r="CR47" t="n">
-        <v>-2.988534695402454e-05</v>
+        <v>-2.988536833500009e-05</v>
       </c>
       <c r="CS47" t="n">
         <v>1</v>
@@ -15910,7 +15910,7 @@
         <v>-0.8481815894917306</v>
       </c>
       <c r="BE48" t="n">
-        <v>-0.7977990447541096</v>
+        <v>-0.7977989749588746</v>
       </c>
       <c r="BF48" t="n">
         <v>-0.7066529939564571</v>
@@ -16004,10 +16004,10 @@
         <v>0.03740267717681345</v>
       </c>
       <c r="CI48" t="n">
-        <v>0.9660208867949768</v>
+        <v>0.9660208839721721</v>
       </c>
       <c r="CJ48" t="n">
-        <v>0.03397911320502323</v>
+        <v>0.03397911602782788</v>
       </c>
       <c r="CK48" t="n">
         <v>2.882467920299614e-05</v>
@@ -16028,10 +16028,10 @@
         <v>-3.959493373207343e-05</v>
       </c>
       <c r="CQ48" t="n">
-        <v>4.391651956471999e-05</v>
+        <v>4.391654047153446e-05</v>
       </c>
       <c r="CR48" t="n">
-        <v>-1.423865657436608e-05</v>
+        <v>-1.423867748118066e-05</v>
       </c>
       <c r="CS48" t="n">
         <v>0</v>
@@ -16232,7 +16232,7 @@
         <v>-0.8431231852501332</v>
       </c>
       <c r="BE49" t="n">
-        <v>-0.7929679797340813</v>
+        <v>-0.7929679155091468</v>
       </c>
       <c r="BF49" t="n">
         <v>-0.7069722050004399</v>
@@ -16326,10 +16326,10 @@
         <v>0.03952116639454029</v>
       </c>
       <c r="CI49" t="n">
-        <v>0.96387001872459</v>
+        <v>0.9638700159845197</v>
       </c>
       <c r="CJ49" t="n">
-        <v>0.03612998127541001</v>
+        <v>0.03612998401548029</v>
       </c>
       <c r="CK49" t="n">
         <v>1.432059957985708e-05</v>
@@ -16350,10 +16350,10 @@
         <v>-5.528530791609011e-05</v>
       </c>
       <c r="CQ49" t="n">
-        <v>3.016884142605352e-05</v>
+        <v>3.016886172010468e-05</v>
       </c>
       <c r="CR49" t="n">
-        <v>-3.016884142611315e-05</v>
+        <v>-3.016886172016404e-05</v>
       </c>
       <c r="CS49" t="n">
         <v>1</v>
@@ -16554,7 +16554,7 @@
         <v>-0.8379379964988417</v>
       </c>
       <c r="BE50" t="n">
-        <v>-0.7882214664284606</v>
+        <v>-0.7882214080553797</v>
       </c>
       <c r="BF50" t="n">
         <v>-0.7074113746998246</v>
@@ -16648,10 +16648,10 @@
         <v>0.04165698989141831</v>
       </c>
       <c r="CI50" t="n">
-        <v>0.96167893367777</v>
+        <v>0.9616789310566152</v>
       </c>
       <c r="CJ50" t="n">
-        <v>0.03832106632222998</v>
+        <v>0.03832106894338483</v>
       </c>
       <c r="CK50" t="n">
         <v>2.98625096103091e-05</v>
@@ -16672,10 +16672,10 @@
         <v>-4.142577913157311e-05</v>
       </c>
       <c r="CQ50" t="n">
-        <v>4.639688920943328e-05</v>
+        <v>4.639690862274972e-05</v>
       </c>
       <c r="CR50" t="n">
-        <v>-1.671860167140208e-05</v>
+        <v>-1.671862108471798e-05</v>
       </c>
       <c r="CS50" t="n">
         <v>1</v>
@@ -16876,7 +16876,7 @@
         <v>-0.8326111549278965</v>
       </c>
       <c r="BE51" t="n">
-        <v>-0.7835517852174153</v>
+        <v>-0.7835517330447982</v>
       </c>
       <c r="BF51" t="n">
         <v>-0.7079685791428784</v>
@@ -16970,10 +16970,10 @@
         <v>0.04404433642278749</v>
       </c>
       <c r="CI51" t="n">
-        <v>0.9592242695120698</v>
+        <v>0.9592242670426531</v>
       </c>
       <c r="CJ51" t="n">
-        <v>0.04077573048793015</v>
+        <v>0.04077573295734693</v>
       </c>
       <c r="CK51" t="n">
         <v>1.770070961404791e-05</v>
@@ -16994,10 +16994,10 @@
         <v>-4.427004274987196e-05</v>
       </c>
       <c r="CQ51" t="n">
-        <v>3.489882129845568e-05</v>
+        <v>3.489883958793932e-05</v>
       </c>
       <c r="CR51" t="n">
-        <v>-2.006144647812447e-05</v>
+        <v>-2.006146476760785e-05</v>
       </c>
       <c r="CS51" t="n">
         <v>1</v>
@@ -17198,7 +17198,7 @@
         <v>-0.8271272053959653</v>
       </c>
       <c r="BE52" t="n">
-        <v>-0.7789507749651229</v>
+        <v>-0.778950729369502</v>
       </c>
       <c r="BF52" t="n">
         <v>-0.7086416079173599</v>
@@ -17292,10 +17292,10 @@
         <v>0.0465687160796312</v>
       </c>
       <c r="CI52" t="n">
-        <v>0.9566114117930756</v>
+        <v>0.9566114095196674</v>
       </c>
       <c r="CJ52" t="n">
-        <v>0.04338858820692437</v>
+        <v>0.04338859048033261</v>
       </c>
       <c r="CK52" t="n">
         <v>2.16224907311326e-05</v>
@@ -17316,10 +17316,10 @@
         <v>-4.812427517069588e-05</v>
       </c>
       <c r="CQ52" t="n">
-        <v>3.941331051290475e-05</v>
+        <v>3.941332735067117e-05</v>
       </c>
       <c r="CR52" t="n">
-        <v>-2.457098263644239e-05</v>
+        <v>-2.457099947420849e-05</v>
       </c>
       <c r="CS52" t="n">
         <v>1</v>
@@ -17520,7 +17520,7 @@
         <v>-0.8214700811074144</v>
       </c>
       <c r="BE53" t="n">
-        <v>-0.7744097552570293</v>
+        <v>-0.7744097167146907</v>
       </c>
       <c r="BF53" t="n">
         <v>-0.7094278922583779</v>
@@ -17614,10 +17614,10 @@
         <v>0.04923422395023003</v>
       </c>
       <c r="CI53" t="n">
-        <v>0.9538340181448655</v>
+        <v>0.9538340161218445</v>
       </c>
       <c r="CJ53" t="n">
-        <v>0.04616598185513454</v>
+        <v>0.04616598387815551</v>
       </c>
       <c r="CK53" t="n">
         <v>2.68468071515553e-05</v>
@@ -17638,10 +17638,10 @@
         <v>-3.819034692802083e-05</v>
       </c>
       <c r="CQ53" t="n">
-        <v>4.51414652388937e-05</v>
+        <v>4.514148022219215e-05</v>
       </c>
       <c r="CR53" t="n">
-        <v>-1.546572498689678e-05</v>
+        <v>-1.546573997019519e-05</v>
       </c>
       <c r="CS53" t="n">
         <v>0</v>
@@ -17842,7 +17842,7 @@
         <v>-0.8156230805857924</v>
       </c>
       <c r="BE54" t="n">
-        <v>-0.7699194392026558</v>
+        <v>-0.7699194082451745</v>
       </c>
       <c r="BF54" t="n">
         <v>-0.7103244207857977</v>
@@ -17936,10 +17936,10 @@
         <v>0.05215618861157711</v>
       </c>
       <c r="CI54" t="n">
-        <v>0.9507784323527682</v>
+        <v>0.9507784306411302</v>
       </c>
       <c r="CJ54" t="n">
-        <v>0.04922156764723185</v>
+        <v>0.04922156935886979</v>
       </c>
       <c r="CK54" t="n">
         <v>1.938099294199452e-05</v>
@@ -17960,10 +17960,10 @@
         <v>1.34129261574929e-05</v>
       </c>
       <c r="CQ54" t="n">
-        <v>3.809660931154528e-05</v>
+        <v>3.809662198861734e-05</v>
       </c>
       <c r="CR54" t="n">
-        <v>7.861783817715703e-05</v>
+        <v>7.86178001459417e-05</v>
       </c>
       <c r="CS54" t="n">
         <v>0</v>
@@ -18164,7 +18164,7 @@
         <v>-0.7967658717173138</v>
       </c>
       <c r="BE55" t="n">
-        <v>-0.7566485995392503</v>
+        <v>-0.7566485954048093</v>
       </c>
       <c r="BF55" t="n">
         <v>-0.7136365121731302</v>
@@ -18258,10 +18258,10 @@
         <v>0.06258462373889651</v>
       </c>
       <c r="CI55" t="n">
-        <v>0.9397819594264606</v>
+        <v>0.939781959158869</v>
       </c>
       <c r="CJ55" t="n">
-        <v>0.06021804057353941</v>
+        <v>0.06021804084113103</v>
       </c>
       <c r="CK55" t="n">
         <v>0.000108022961690827</v>
@@ -18282,10 +18282,10 @@
         <v>-6.28713741807093e-05</v>
       </c>
       <c r="CQ55" t="n">
-        <v>0.0001657149252011943</v>
+        <v>0.0001657149311468653</v>
       </c>
       <c r="CR55" t="n">
-        <v>-4.534351749334612e-05</v>
+        <v>-4.534351947523615e-05</v>
       </c>
       <c r="CS55" t="n">
         <v>1</v>
@@ -18486,7 +18486,7 @@
         <v>-0.7899789966388222</v>
       </c>
       <c r="BE56" t="n">
-        <v>-0.752252395005842</v>
+        <v>-0.752252401537516</v>
       </c>
       <c r="BF56" t="n">
         <v>-0.7149311913786228</v>
@@ -18580,10 +18580,10 @@
         <v>0.06624086754182035</v>
       </c>
       <c r="CI56" t="n">
-        <v>0.9358598150006201</v>
+        <v>0.935859815444396</v>
       </c>
       <c r="CJ56" t="n">
-        <v>0.0641401849993799</v>
+        <v>0.064140184555604</v>
       </c>
       <c r="CK56" t="n">
         <v>5.540820629241789e-05</v>
@@ -18604,10 +18604,10 @@
         <v>1.391716271249832e-05</v>
       </c>
       <c r="CQ56" t="n">
-        <v>7.439247990025447e-05</v>
+        <v>7.43924766134739e-05</v>
       </c>
       <c r="CR56" t="n">
-        <v>2.947565357330295e-05</v>
+        <v>2.94756568600839e-05</v>
       </c>
       <c r="CS56" t="n">
         <v>0</v>
@@ -18808,7 +18808,7 @@
         <v>-0.7829086064133449</v>
       </c>
       <c r="BE57" t="n">
-        <v>-0.7478474575052509</v>
+        <v>-0.7478474757855631</v>
       </c>
       <c r="BF57" t="n">
         <v>-0.7163102611665308</v>
@@ -18902,10 +18902,10 @@
         <v>0.07069966368497682</v>
       </c>
       <c r="CI57" t="n">
-        <v>0.9311047139680508</v>
+        <v>0.9311047152773316</v>
       </c>
       <c r="CJ57" t="n">
-        <v>0.06889528603194917</v>
+        <v>0.06889528472266837</v>
       </c>
       <c r="CK57" t="n">
         <v>-1.285617335600696e-05</v>
@@ -18926,10 +18926,10 @@
         <v>-1.910192736112365e-05</v>
       </c>
       <c r="CQ57" t="n">
-        <v>5.742516932083497e-06</v>
+        <v>5.742507235028706e-06</v>
       </c>
       <c r="CR57" t="n">
-        <v>-5.737988423707373e-06</v>
+        <v>-5.737978726652799e-06</v>
       </c>
       <c r="CS57" t="n">
         <v>1</v>
@@ -19130,7 +19130,7 @@
         <v>-0.7755338813829697</v>
       </c>
       <c r="BE58" t="n">
-        <v>-0.7434183002965874</v>
+        <v>-0.7434183315591618</v>
       </c>
       <c r="BF58" t="n">
         <v>-0.7177652263974466</v>
@@ -19224,10 +19224,10 @@
         <v>0.07523154012478117</v>
       </c>
       <c r="CI58" t="n">
-        <v>0.9262280107268753</v>
+        <v>0.9262280130809463</v>
       </c>
       <c r="CJ58" t="n">
-        <v>0.07377198927312467</v>
+        <v>0.07377198691905373</v>
       </c>
       <c r="CK58" t="n">
         <v>2.394588393303358e-05</v>
@@ -19248,10 +19248,10 @@
         <v>3.636819642788096e-05</v>
       </c>
       <c r="CQ58" t="n">
-        <v>4.1856793276813e-05</v>
+        <v>4.185677584162689e-05</v>
       </c>
       <c r="CR58" t="n">
-        <v>4.717821085300003e-05</v>
+        <v>4.717822828818625e-05</v>
       </c>
       <c r="CS58" t="n">
         <v>0</v>
@@ -19452,7 +19452,7 @@
         <v>-0.7678333091385651</v>
       </c>
       <c r="BE59" t="n">
-        <v>-0.7389478120473895</v>
+        <v>-0.7389478576986009</v>
       </c>
       <c r="BF59" t="n">
         <v>-0.7192859429834576</v>
@@ -19546,10 +19546,10 @@
         <v>0.08045945302656099</v>
       </c>
       <c r="CI59" t="n">
-        <v>0.9206102445929</v>
+        <v>0.920610248214084</v>
       </c>
       <c r="CJ59" t="n">
-        <v>0.07938975540710003</v>
+        <v>0.07938975178591601</v>
       </c>
       <c r="CK59" t="n">
         <v>-2.254092947497066e-05</v>
@@ -19570,10 +19570,10 @@
         <v>9.916451960758276e-05</v>
       </c>
       <c r="CQ59" t="n">
-        <v>-5.570799315200714e-06</v>
+        <v>-5.570826135130671e-06</v>
       </c>
       <c r="CR59" t="n">
-        <v>0.0001150097321039678</v>
+        <v>0.0001150097857438275</v>
       </c>
       <c r="CS59" t="n">
         <v>1</v>
@@ -19774,7 +19774,7 @@
         <v>-0.751365223227764</v>
       </c>
       <c r="BE60" t="n">
-        <v>-0.7298048572020015</v>
+        <v>-0.7298049366644039</v>
       </c>
       <c r="BF60" t="n">
         <v>-0.722473824422738</v>
@@ -19868,10 +19868,10 @@
         <v>0.09191064926714154</v>
       </c>
       <c r="CI60" t="n">
-        <v>0.9082132240474828</v>
+        <v>0.9082132310150648</v>
       </c>
       <c r="CJ60" t="n">
-        <v>0.09178677595251716</v>
+        <v>0.09178676898493521</v>
       </c>
       <c r="CK60" t="n">
         <v>4.0621221980933e-05</v>
@@ -19892,10 +19892,10 @@
         <v>0.0001372878752680714</v>
       </c>
       <c r="CQ60" t="n">
-        <v>6.862480282487059e-05</v>
+        <v>6.862469961550072e-05</v>
       </c>
       <c r="CR60" t="n">
-        <v>0.0001391227853932747</v>
+        <v>0.0001391228886026441</v>
       </c>
       <c r="CS60" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>-0.733319315486735</v>
       </c>
       <c r="BE61" t="n">
-        <v>-0.7202396455985542</v>
+        <v>-0.7202397672161935</v>
       </c>
       <c r="BF61" t="n">
         <v>-0.725745987533741</v>
@@ -20190,10 +20190,10 @@
         <v>0.1052248529750225</v>
       </c>
       <c r="CI61" t="n">
-        <v>0.8937084968822437</v>
+        <v>0.8937085086315631</v>
       </c>
       <c r="CJ61" t="n">
-        <v>0.1062915031177563</v>
+        <v>0.1062914913684369</v>
       </c>
       <c r="CK61" t="n">
         <v>5.701518608824084e-05</v>
@@ -20214,10 +20214,10 @@
         <v>9.616392756928692e-05</v>
       </c>
       <c r="CQ61" t="n">
-        <v>7.573277748166608e-05</v>
+        <v>7.573260344139604e-05</v>
       </c>
       <c r="CR61" t="n">
-        <v>8.826389214645729e-05</v>
+        <v>8.826397916659242e-05</v>
       </c>
       <c r="CS61" t="n">
         <v>0</v>
@@ -20418,7 +20418,7 @@
         <v>-0.7236443944918837</v>
       </c>
       <c r="BE62" t="n">
-        <v>-0.7152310056447131</v>
+        <v>-0.7152311522100961</v>
       </c>
       <c r="BF62" t="n">
         <v>-0.7273594280693292</v>
@@ -20512,10 +20512,10 @@
         <v>0.1129117479483175</v>
       </c>
       <c r="CI62" t="n">
-        <v>0.8853234938323873</v>
+        <v>0.8853235086893509</v>
       </c>
       <c r="CJ62" t="n">
-        <v>0.1146765061676127</v>
+        <v>0.1146764913106491</v>
       </c>
       <c r="CK62" t="n">
         <v>-3.247772511217814e-05</v>
@@ -20536,10 +20536,10 @@
         <v>8.375149077167923e-05</v>
       </c>
       <c r="CQ62" t="n">
-        <v>-2.616122280764237e-05</v>
+        <v>-2.616133284422811e-05</v>
       </c>
       <c r="CR62" t="n">
-        <v>7.068098912675364e-05</v>
+        <v>7.068109916333874e-05</v>
       </c>
       <c r="CS62" t="n">
         <v>1</v>
@@ -20740,7 +20740,7 @@
         <v>-0.713501772412136</v>
       </c>
       <c r="BE63" t="n">
-        <v>-0.7100290007241665</v>
+        <v>-0.7100291752580985</v>
       </c>
       <c r="BF63" t="n">
         <v>-0.7289202560964367</v>
@@ -20834,10 +20834,10 @@
         <v>0.1210571078330536</v>
       </c>
       <c r="CI63" t="n">
-        <v>0.8764088250737919</v>
+        <v>0.8764088436042131</v>
       </c>
       <c r="CJ63" t="n">
-        <v>0.1235911749262081</v>
+        <v>0.1235911563957869</v>
       </c>
       <c r="CK63" t="n">
         <v>-7.386197226217847e-06</v>
@@ -20858,10 +20858,10 @@
         <v>0.0001421340339121274</v>
       </c>
       <c r="CQ63" t="n">
-        <v>-4.65540477234596e-06</v>
+        <v>-4.655542016018983e-06</v>
       </c>
       <c r="CR63" t="n">
-        <v>0.0001233657246064733</v>
+        <v>0.0001233658618501468</v>
       </c>
       <c r="CS63" t="n">
         <v>1</v>
@@ -21062,7 +21062,7 @@
         <v>-0.7028662589839051</v>
       </c>
       <c r="BE64" t="n">
-        <v>-0.7045967453373158</v>
+        <v>-0.7045969512624465</v>
       </c>
       <c r="BF64" t="n">
         <v>-0.7303935169595555</v>
@@ -21156,10 +21156,10 @@
         <v>0.1301177179683131</v>
       </c>
       <c r="CI64" t="n">
-        <v>0.8665015272349886</v>
+        <v>0.8665015501292103</v>
       </c>
       <c r="CJ64" t="n">
-        <v>0.1334984727650114</v>
+        <v>0.1334984498707897</v>
       </c>
       <c r="CK64" t="n">
         <v>-4.856341010222448e-05</v>
@@ -21180,10 +21180,10 @@
         <v>0.0001195427874565492</v>
       </c>
       <c r="CQ64" t="n">
-        <v>-4.998833427444834e-05</v>
+        <v>-4.998850383816471e-05</v>
       </c>
       <c r="CR64" t="n">
-        <v>9.450357208517558e-05</v>
+        <v>9.450374164889151e-05</v>
       </c>
       <c r="CS64" t="n">
         <v>1</v>
@@ -21384,7 +21384,7 @@
         <v>-0.6917124944134299</v>
       </c>
       <c r="BE65" t="n">
-        <v>-0.6988928489089711</v>
+        <v>-0.6988930900679479</v>
       </c>
       <c r="BF65" t="n">
         <v>-0.7317375660725951</v>
@@ -21478,10 +21478,10 @@
         <v>0.1396762035241912</v>
       </c>
       <c r="CI65" t="n">
-        <v>0.8560230621374803</v>
+        <v>0.8560230901529657</v>
       </c>
       <c r="CJ65" t="n">
-        <v>0.1439769378625197</v>
+        <v>0.1439769098470343</v>
       </c>
       <c r="CK65" t="n">
         <v>-1.071789336424493e-05</v>
@@ -21502,10 +21502,10 @@
         <v>0.0001823013458939083</v>
       </c>
       <c r="CQ65" t="n">
-        <v>-1.689588974329841e-05</v>
+        <v>-1.689609723713216e-05</v>
       </c>
       <c r="CR65" t="n">
-        <v>0.0001504483959379867</v>
+        <v>0.0001504486034318209</v>
       </c>
       <c r="CS65" t="n">
         <v>1</v>
@@ -21706,7 +21706,7 @@
         <v>-0.680015101878413</v>
       </c>
       <c r="BE66" t="n">
-        <v>-0.6928708602657249</v>
+        <v>-0.6928711409480039</v>
       </c>
       <c r="BF66" t="n">
         <v>-0.7329028243961013</v>
@@ -21800,10 +21800,10 @@
         <v>0.1502549274232065</v>
       </c>
       <c r="CI66" t="n">
-        <v>0.8444453563544697</v>
+        <v>0.8444453904028008</v>
       </c>
       <c r="CJ66" t="n">
-        <v>0.1555546436455303</v>
+        <v>0.1555546095971992</v>
       </c>
       <c r="CK66" t="n">
         <v>-5.314920403145466e-05</v>
@@ -21824,10 +21824,10 @@
         <v>0.000178148453248455</v>
       </c>
       <c r="CQ66" t="n">
-        <v>-6.469929964436801e-05</v>
+        <v>-6.469955181985683e-05</v>
       </c>
       <c r="CR66" t="n">
-        <v>0.000138896645922018</v>
+        <v>0.0001388968980975071</v>
       </c>
       <c r="CS66" t="n">
         <v>1</v>
@@ -22028,7 +22028,7 @@
         <v>-0.6677488672386651</v>
       </c>
       <c r="BE67" t="n">
-        <v>-0.6864786703944726</v>
+        <v>-0.6864789953767869</v>
       </c>
       <c r="BF67" t="n">
         <v>-0.7338303225191215</v>
@@ -22122,10 +22122,10 @@
         <v>0.1615422822687256</v>
       </c>
       <c r="CI67" t="n">
-        <v>0.832087568491922</v>
+        <v>0.8320876095745374</v>
       </c>
       <c r="CJ67" t="n">
-        <v>0.167912431508078</v>
+        <v>0.1679123904254626</v>
       </c>
       <c r="CK67" t="n">
         <v>-2.983362522385007e-05</v>
@@ -22146,10 +22146,10 @@
         <v>0.0002132578671208648</v>
       </c>
       <c r="CQ67" t="n">
-        <v>-4.736995131931088e-05</v>
+        <v>-4.737025559350874e-05</v>
       </c>
       <c r="CR67" t="n">
-        <v>0.0001660780068992026</v>
+        <v>0.0001660783111734009</v>
       </c>
       <c r="CS67" t="n">
         <v>1</v>
@@ -22350,7 +22350,7 @@
         <v>-0.6548889483770097</v>
       </c>
       <c r="BE68" t="n">
-        <v>-0.6796578825071979</v>
+        <v>-0.679658257055389</v>
       </c>
       <c r="BF68" t="n">
         <v>-0.7344500101267638</v>
@@ -22444,10 +22444,10 @@
         <v>0.1737981994803348</v>
       </c>
       <c r="CI68" t="n">
-        <v>0.818691569666597</v>
+        <v>0.8186916189324135</v>
       </c>
       <c r="CJ68" t="n">
-        <v>0.181308430333403</v>
+        <v>0.1813083810675865</v>
       </c>
       <c r="CK68" t="n">
         <v>-4.273218542023317e-05</v>
@@ -22468,10 +22468,10 @@
         <v>0.0002263628575880758</v>
       </c>
       <c r="CQ68" t="n">
-        <v>-6.686190875756365e-05</v>
+        <v>-6.686227363980612e-05</v>
       </c>
       <c r="CR68" t="n">
-        <v>0.0001707390992479669</v>
+        <v>0.0001707394641302091</v>
       </c>
       <c r="CS68" t="n">
         <v>1</v>
@@ -22672,7 +22672,7 @@
         <v>-0.6414111164252442</v>
       </c>
       <c r="BE69" t="n">
-        <v>-0.6723431652214303</v>
+        <v>-0.6723435950875613</v>
       </c>
       <c r="BF69" t="n">
         <v>-0.7346788131510454</v>
@@ -22766,10 +22766,10 @@
         <v>0.1869692329735608</v>
       </c>
       <c r="CI69" t="n">
-        <v>0.8043206045191288</v>
+        <v>0.8043206632332339</v>
       </c>
       <c r="CJ69" t="n">
-        <v>0.1956793954808712</v>
+        <v>0.1956793367667661</v>
       </c>
       <c r="CK69" t="n">
         <v>-3.301061598586473e-05</v>
@@ -22790,10 +22790,10 @@
         <v>0.0002178456820948957</v>
       </c>
       <c r="CQ69" t="n">
-        <v>-6.430201254373127e-05</v>
+        <v>-6.430244740375946e-05</v>
       </c>
       <c r="CR69" t="n">
-        <v>0.0001533347524193074</v>
+        <v>0.0001533351872793349</v>
       </c>
       <c r="CS69" t="n">
         <v>1</v>
@@ -22994,7 +22994,7 @@
         <v>-0.6272920308319851</v>
       </c>
       <c r="BE70" t="n">
-        <v>-0.6644616140967406</v>
+        <v>-0.6644621054849018</v>
       </c>
       <c r="BF70" t="n">
         <v>-0.7344184325189352</v>
@@ -23088,10 +23088,10 @@
         <v>0.2010256479670453</v>
       </c>
       <c r="CI70" t="n">
-        <v>0.789017614856499</v>
+        <v>0.7890176843934771</v>
       </c>
       <c r="CJ70" t="n">
-        <v>0.210982385143501</v>
+        <v>0.2109823156065229</v>
       </c>
       <c r="CK70" t="n">
         <v>-1.037689551419176e-06</v>
@@ -23112,10 +23112,10 @@
         <v>0.0002769661009030661</v>
       </c>
       <c r="CQ70" t="n">
-        <v>-3.999472126332924e-05</v>
+        <v>-3.999523628186053e-05</v>
       </c>
       <c r="CR70" t="n">
-        <v>0.0002032225431623754</v>
+        <v>0.0002032230581809067</v>
       </c>
       <c r="CS70" t="n">
         <v>1</v>
@@ -23316,7 +23316,7 @@
         <v>-0.6125095497698299</v>
       </c>
       <c r="BE71" t="n">
-        <v>-0.6559321595540791</v>
+        <v>-0.6559327190488338</v>
       </c>
       <c r="BF71" t="n">
         <v>-0.733552899477248</v>
@@ -23410,10 +23410,10 @@
         <v>0.2163327039264843</v>
       </c>
       <c r="CI71" t="n">
-        <v>0.772427979979748</v>
+        <v>0.7724280618542573</v>
       </c>
       <c r="CJ71" t="n">
-        <v>0.227572020020252</v>
+        <v>0.2275719381457427</v>
       </c>
       <c r="CK71" t="n">
         <v>-3.329053381748246e-05</v>
@@ -23434,10 +23434,10 @@
         <v>0.0002674708793709208</v>
       </c>
       <c r="CQ71" t="n">
-        <v>-8.035310553943659e-05</v>
+        <v>-8.035371193463366e-05</v>
       </c>
       <c r="CR71" t="n">
-        <v>0.0001842280317755722</v>
+        <v>0.0001842286381707695</v>
       </c>
       <c r="CS71" t="n">
         <v>1</v>
@@ -23638,7 +23638,7 @@
         <v>-0.5970430767275131</v>
       </c>
       <c r="BE72" t="n">
-        <v>-0.6466650761075711</v>
+        <v>-0.646665710538231</v>
       </c>
       <c r="BF72" t="n">
         <v>-0.7319459376537183</v>
@@ -23732,10 +23732,10 @@
         <v>0.2326655320523283</v>
       </c>
       <c r="CI72" t="n">
-        <v>0.7548023440204108</v>
+        <v>0.7548024397829262</v>
       </c>
       <c r="CJ72" t="n">
-        <v>0.2451976559795892</v>
+        <v>0.2451975602170738</v>
       </c>
       <c r="CK72" t="n">
         <v>1.788851125690723e-06</v>
@@ -23756,10 +23756,10 @@
         <v>0.000265213774573732</v>
       </c>
       <c r="CQ72" t="n">
-        <v>-5.36855578658138e-05</v>
+        <v>-5.368626712111066e-05</v>
       </c>
       <c r="CR72" t="n">
-        <v>0.0001723958776999666</v>
+        <v>0.0001723965869552635</v>
       </c>
       <c r="CS72" t="n">
         <v>0</v>
@@ -23960,7 +23960,7 @@
         <v>-0.5808739432582225</v>
       </c>
       <c r="BE73" t="n">
-        <v>-0.6365616695017263</v>
+        <v>-0.6365623857253027</v>
       </c>
       <c r="BF73" t="n">
         <v>-0.7294382374980003</v>
@@ -24054,10 +24054,10 @@
         <v>0.250141167251994</v>
       </c>
       <c r="CI73" t="n">
-        <v>0.7360489442530639</v>
+        <v>0.7360490554777606</v>
       </c>
       <c r="CJ73" t="n">
-        <v>0.2639510557469361</v>
+        <v>0.2639509445222394</v>
       </c>
       <c r="CK73" t="n">
         <v>3.054926550202959e-05</v>
@@ -24078,10 +24078,10 @@
         <v>0.0002990100878807681</v>
       </c>
       <c r="CQ73" t="n">
-        <v>-3.350073624260388e-05</v>
+        <v>-3.350156001696858e-05</v>
       </c>
       <c r="CR73" t="n">
-        <v>0.0001967285581415457</v>
+        <v>0.0001967293819159104</v>
       </c>
       <c r="CS73" t="n">
         <v>0</v>
@@ -24282,7 +24282,7 @@
         <v>-0.5639858267311869</v>
       </c>
       <c r="BE74" t="n">
-        <v>-0.6255142451038888</v>
+        <v>-0.6255150496820728</v>
       </c>
       <c r="BF74" t="n">
         <v>-0.7258448322007407</v>
@@ -24376,10 +24376,10 @@
         <v>0.2689668591861877</v>
       </c>
       <c r="CI74" t="n">
-        <v>0.7159907301480529</v>
+        <v>0.715990858363434</v>
       </c>
       <c r="CJ74" t="n">
-        <v>0.2840092698519471</v>
+        <v>0.284009141636566</v>
       </c>
       <c r="CK74" t="n">
         <v>2.445029412956237e-05</v>
@@ -24400,10 +24400,10 @@
         <v>0.0003228141365293762</v>
       </c>
       <c r="CQ74" t="n">
-        <v>-4.816944245795377e-05</v>
+        <v>-4.817039207208849e-05</v>
       </c>
       <c r="CR74" t="n">
-        <v>0.0002114040571197604</v>
+        <v>0.0002114050067338951</v>
       </c>
       <c r="CS74" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>-0.5463652005402779</v>
       </c>
       <c r="BE75" t="n">
-        <v>-0.6134064924524072</v>
+        <v>-0.6134073912644916</v>
       </c>
       <c r="BF75" t="n">
         <v>-0.7209528840702356</v>
@@ -24698,10 +24698,10 @@
         <v>0.2891670232429536</v>
       </c>
       <c r="CI75" t="n">
-        <v>0.6946427028573029</v>
+        <v>0.6946428494224085</v>
       </c>
       <c r="CJ75" t="n">
-        <v>0.3053572971426971</v>
+        <v>0.3053571505775915</v>
       </c>
       <c r="CK75" t="n">
         <v>2.767549725307857e-05</v>
@@ -24722,10 +24722,10 @@
         <v>0.0003067493964471445</v>
       </c>
       <c r="CQ75" t="n">
-        <v>-5.329207171075271e-05</v>
+        <v>-5.329315723024992e-05</v>
       </c>
       <c r="CR75" t="n">
-        <v>0.0001868377851427325</v>
+        <v>0.0001868388706622293</v>
       </c>
       <c r="CS75" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>-0.5280018125525544</v>
       </c>
       <c r="BE76" t="n">
-        <v>-0.6001144555634158</v>
+        <v>-0.6001154531448227</v>
       </c>
       <c r="BF76" t="n">
         <v>-0.7145203539635523</v>
@@ -25020,10 +25020,10 @@
         <v>0.3107008239799443</v>
       </c>
       <c r="CI76" t="n">
-        <v>0.672091422400894</v>
+        <v>0.6720915883448677</v>
       </c>
       <c r="CJ76" t="n">
-        <v>0.327908577599106</v>
+        <v>0.3279084116551323</v>
       </c>
       <c r="CK76" t="n">
         <v>6.903068634292898e-05</v>
@@ -25044,10 +25044,10 @@
         <v>0.0003104938493755415</v>
       </c>
       <c r="CQ76" t="n">
-        <v>-1.981402796288282e-05</v>
+        <v>-1.981525700998823e-05</v>
       </c>
       <c r="CR76" t="n">
-        <v>0.0001830463783703907</v>
+        <v>0.0001830476074174961</v>
       </c>
       <c r="CS76" t="n">
         <v>0</v>
@@ -25248,7 +25248,7 @@
         <v>-0.5088891856402434</v>
       </c>
       <c r="BE77" t="n">
-        <v>-0.5855082928714151</v>
+        <v>-0.5855093916539157</v>
       </c>
       <c r="BF77" t="n">
         <v>-0.706276235745137</v>
@@ -25342,10 +25342,10 @@
         <v>0.3336996091057276</v>
       </c>
       <c r="CI77" t="n">
-        <v>0.6482542995317475</v>
+        <v>0.648254485390228</v>
       </c>
       <c r="CJ77" t="n">
-        <v>0.3517457004682525</v>
+        <v>0.351745514609772</v>
       </c>
       <c r="CK77" t="n">
         <v>8.948836097657457e-05</v>
@@ -25366,10 +25366,10 @@
         <v>0.0007996746989758557</v>
       </c>
       <c r="CQ77" t="n">
-        <v>-6.499160590111609e-06</v>
+        <v>-6.500537131979081e-06</v>
       </c>
       <c r="CR77" t="n">
-        <v>0.0005323616310899245</v>
+        <v>0.0005323643841736603</v>
       </c>
       <c r="CS77" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>-0.4684122703152288</v>
       </c>
       <c r="BE78" t="n">
-        <v>-0.5518227405035322</v>
+        <v>-0.5518240357074844</v>
       </c>
       <c r="BF78" t="n">
         <v>-0.6831443922941114</v>
@@ -25664,10 +25664,10 @@
         <v>0.3842652207419101</v>
       </c>
       <c r="CI78" t="n">
-        <v>0.5967621250989613</v>
+        <v>0.5967623492745586</v>
       </c>
       <c r="CJ78" t="n">
-        <v>0.4032378749010387</v>
+        <v>0.4032376507254414</v>
       </c>
       <c r="CK78" t="n">
         <v>0.0004442307135784414</v>
@@ -25688,10 +25688,10 @@
         <v>0.0002998498845506051</v>
       </c>
       <c r="CQ78" t="n">
-        <v>0.0002303814384885354</v>
+        <v>0.0002303781178211693</v>
       </c>
       <c r="CR78" t="n">
-        <v>0.0001593308578170007</v>
+        <v>0.0001593325181506833</v>
       </c>
       <c r="CS78" t="n">
         <v>0</v>
@@ -25892,7 +25892,7 @@
         <v>-0.4470585334119004</v>
       </c>
       <c r="BE79" t="n">
-        <v>-0.5324857873131856</v>
+        <v>-0.5324871665986861</v>
       </c>
       <c r="BF79" t="n">
         <v>-0.6676140006442796</v>
@@ -25986,10 +25986,10 @@
         <v>0.4118641991827489</v>
       </c>
       <c r="CI79" t="n">
-        <v>0.5691778820160805</v>
+        <v>0.5691781221408305</v>
       </c>
       <c r="CJ79" t="n">
-        <v>0.4308221179839195</v>
+        <v>0.4308218778591695</v>
       </c>
       <c r="CK79" t="n">
         <v>0.0001551194652598285</v>
@@ -26010,10 +26010,10 @@
         <v>0.0003055023696044434</v>
       </c>
       <c r="CQ79" t="n">
-        <v>4.496902340571114e-05</v>
+        <v>4.496724494625678e-05</v>
       </c>
       <c r="CR79" t="n">
-        <v>0.0001650924787957061</v>
+        <v>0.0001650942572551601</v>
       </c>
       <c r="CS79" t="n">
         <v>0</v>
@@ -26214,7 +26214,7 @@
         <v>-0.4249776496064072</v>
       </c>
       <c r="BE80" t="n">
-        <v>-0.5113322394129102</v>
+        <v>-0.5113336888262573</v>
       </c>
       <c r="BF80" t="n">
         <v>-0.6490157701503447</v>
@@ -26308,10 +26308,10 @@
         <v>0.4409717762517936</v>
       </c>
       <c r="CI80" t="n">
-        <v>0.5404599213550374</v>
+        <v>0.540460174130543</v>
       </c>
       <c r="CJ80" t="n">
-        <v>0.4595400786449626</v>
+        <v>0.459539825869457</v>
       </c>
       <c r="CK80" t="n">
         <v>0.0001591453370572453</v>
@@ -26332,10 +26332,10 @@
         <v>0.0002970788789688809</v>
       </c>
       <c r="CQ80" t="n">
-        <v>4.760416596562202e-05</v>
+        <v>4.76022938096371e-05</v>
       </c>
       <c r="CR80" t="n">
-        <v>0.0001595546423228452</v>
+        <v>0.0001595565144788301</v>
       </c>
       <c r="CS80" t="n">
         <v>0</v>
@@ -26536,7 +26536,7 @@
         <v>-0.402189581347481</v>
       </c>
       <c r="BE81" t="n">
-        <v>-0.4882724833448742</v>
+        <v>-0.4882739768531583</v>
       </c>
       <c r="BF81" t="n">
         <v>-0.6270674711299822</v>
@@ -26630,10 +26630,10 @@
         <v>0.4714776263799605</v>
       </c>
       <c r="CI81" t="n">
-        <v>0.5107414104593941</v>
+        <v>0.5107416702578894</v>
       </c>
       <c r="CJ81" t="n">
-        <v>0.4892585895406059</v>
+        <v>0.4892583297421106</v>
       </c>
       <c r="CK81" t="n">
         <v>0.000171457938228055</v>
@@ -26654,10 +26654,10 @@
         <v>0.0002640526079567894</v>
       </c>
       <c r="CQ81" t="n">
-        <v>6.055247563769564e-05</v>
+        <v>6.055055146665439e-05</v>
       </c>
       <c r="CR81" t="n">
-        <v>0.0001323597189828011</v>
+        <v>0.0001323616431538424</v>
       </c>
       <c r="CS81" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>-0.3787209009319416</v>
       </c>
       <c r="BE82" t="n">
-        <v>-0.4632493696355666</v>
+        <v>-0.4632508742771951</v>
       </c>
       <c r="BF82" t="n">
         <v>-0.6015529112689372</v>
@@ -26952,10 +26952,10 @@
         <v>0.5032460311097755</v>
       </c>
       <c r="CI82" t="n">
-        <v>0.4801572694502569</v>
+        <v>0.4801575293276235</v>
       </c>
       <c r="CJ82" t="n">
-        <v>0.5198427305497431</v>
+        <v>0.5198424706723765</v>
       </c>
       <c r="CK82" t="n">
         <v>0.0002022884072063048</v>
@@ -26976,10 +26976,10 @@
         <v>0.0002513438780814828</v>
       </c>
       <c r="CQ82" t="n">
-        <v>9.415860006954614e-05</v>
+        <v>9.415667531435324e-05</v>
       </c>
       <c r="CR82" t="n">
-        <v>0.0001284221174920547</v>
+        <v>0.0001284240422472472</v>
       </c>
       <c r="CS82" t="n">
         <v>0</v>
@@ -27180,7 +27180,7 @@
         <v>-0.3546050829839199</v>
       </c>
       <c r="BE83" t="n">
-        <v>-0.4362491323423238</v>
+        <v>-0.4362506069290625</v>
       </c>
       <c r="BF83" t="n">
         <v>-0.5723590466978944</v>
@@ -27274,10 +27274,10 @@
         <v>0.5360382344494569</v>
       </c>
       <c r="CI83" t="n">
-        <v>0.4489154629187677</v>
+        <v>0.4489157145903862</v>
       </c>
       <c r="CJ83" t="n">
-        <v>0.5510845370812323</v>
+        <v>0.5510842854096138</v>
       </c>
       <c r="CK83" t="n">
         <v>0.000206170888748026</v>
@@ -27298,10 +27298,10 @@
         <v>0.0002310592810510128</v>
       </c>
       <c r="CQ83" t="n">
-        <v>0.0001029671341320902</v>
+        <v>0.0001029652701519334</v>
       </c>
       <c r="CR83" t="n">
-        <v>0.0001196203761923047</v>
+        <v>0.0001196222401724616</v>
       </c>
       <c r="CS83" t="n">
         <v>0</v>
@@ -27502,7 +27502,7 @@
         <v>-0.3298826928403547</v>
       </c>
       <c r="BE84" t="n">
-        <v>-0.4073121571999854</v>
+        <v>-0.4073135533551003</v>
       </c>
       <c r="BF84" t="n">
         <v>-0.5395140506557018</v>
@@ -27596,10 +27596,10 @@
         <v>0.5695531571756394</v>
       </c>
       <c r="CI84" t="n">
-        <v>0.4172536746729612</v>
+        <v>0.4172539089639593</v>
       </c>
       <c r="CJ84" t="n">
-        <v>0.5827463253270388</v>
+        <v>0.5827460910360407</v>
       </c>
       <c r="CK84" t="n">
         <v>0.0002111149097240943</v>
@@ -27620,10 +27620,10 @@
         <v>0.0006037424823817691</v>
       </c>
       <c r="CQ84" t="n">
-        <v>0.0001148794271367665</v>
+        <v>0.0001148776918843998</v>
       </c>
       <c r="CR84" t="n">
-        <v>0.0004083147754707171</v>
+        <v>0.0004083182459754513</v>
       </c>
       <c r="CS84" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>-0.2788161547296344</v>
       </c>
       <c r="BE85" t="n">
-        <v>-0.3441129513417175</v>
+        <v>-0.3441140298409911</v>
       </c>
       <c r="BF85" t="n">
         <v>-0.4638695846097561</v>
@@ -27918,10 +27918,10 @@
         <v>0.6373683921040041</v>
       </c>
       <c r="CI85" t="n">
-        <v>0.3536551410713078</v>
+        <v>0.3536553132761997</v>
       </c>
       <c r="CJ85" t="n">
-        <v>0.6463448589286922</v>
+        <v>0.6463446867238003</v>
       </c>
       <c r="CK85" t="n">
         <v>0.0006881954540897631</v>
@@ -27942,10 +27942,10 @@
         <v>0.0001186437038531935</v>
       </c>
       <c r="CQ85" t="n">
-        <v>0.0005337573213939142</v>
+        <v>0.0005337547705580002</v>
       </c>
       <c r="CR85" t="n">
-        <v>5.216041842922084e-05</v>
+        <v>5.216169384717785e-05</v>
       </c>
       <c r="CS85" t="n">
         <v>1</v>
@@ -28146,7 +28146,7 @@
         <v>-0.2525884454238212</v>
       </c>
       <c r="BE86" t="n">
-        <v>-0.3102688806010732</v>
+        <v>-0.3102697219058638</v>
       </c>
       <c r="BF86" t="n">
         <v>-0.4220461897591218</v>
@@ -28240,10 +28240,10 @@
         <v>0.6708444965453071</v>
       </c>
       <c r="CI86" t="n">
-        <v>0.322298447540049</v>
+        <v>0.3222985774803309</v>
       </c>
       <c r="CJ86" t="n">
-        <v>0.677701552459951</v>
+        <v>0.6777014225196691</v>
       </c>
       <c r="CK86" t="n">
         <v>0.0002460618138502759</v>
@@ -28264,10 +28264,10 @@
         <v>0.0001081315209627972</v>
       </c>
       <c r="CQ86" t="n">
-        <v>0.0001800797320336686</v>
+        <v>0.0001800787696442318</v>
       </c>
       <c r="CR86" t="n">
-        <v>5.73454361429233e-05</v>
+        <v>5.734639853235968e-05</v>
       </c>
       <c r="CS86" t="n">
         <v>1</v>
@@ -28468,7 +28468,7 @@
         <v>-0.2259864070406782</v>
       </c>
       <c r="BE87" t="n">
-        <v>-0.2753215278361058</v>
+        <v>-0.2753220891184298</v>
       </c>
       <c r="BF87" t="n">
         <v>-0.3784912735160921</v>
@@ -28562,10 +28562,10 @@
         <v>0.703305317910097</v>
       </c>
       <c r="CI87" t="n">
-        <v>0.2917989917390112</v>
+        <v>0.291799075132814</v>
       </c>
       <c r="CJ87" t="n">
-        <v>0.7082010082609889</v>
+        <v>0.708200924867186</v>
       </c>
       <c r="CK87" t="n">
         <v>0.0002228351467493911</v>
@@ -28586,10 +28586,10 @@
         <v>4.578150439051541e-05</v>
       </c>
       <c r="CQ87" t="n">
-        <v>0.0001685456705583679</v>
+        <v>0.0001685450529106784</v>
       </c>
       <c r="CR87" t="n">
-        <v>9.522073447089212e-06</v>
+        <v>9.52269109477915e-06</v>
       </c>
       <c r="CS87" t="n">
         <v>1</v>
@@ -28790,7 +28790,7 @@
         <v>-0.1990839971199571</v>
       </c>
       <c r="BE88" t="n">
-        <v>-0.2396382749469392</v>
+        <v>-0.2396385262585631</v>
       </c>
       <c r="BF88" t="n">
         <v>-0.3340524008419037</v>
@@ -28884,10 +28884,10 @@
         <v>0.7346347868338216</v>
       </c>
       <c r="CI88" t="n">
-        <v>0.2621757800362345</v>
+        <v>0.2621758157340764</v>
       </c>
       <c r="CJ88" t="n">
-        <v>0.7378242199637655</v>
+        <v>0.7378241842659236</v>
       </c>
       <c r="CK88" t="n">
         <v>0.0002525443535081782</v>
@@ -28908,10 +28908,10 @@
         <v>3.632823627515783e-05</v>
       </c>
       <c r="CQ88" t="n">
-        <v>0.0002098792207674486</v>
+        <v>0.0002098789563750255</v>
       </c>
       <c r="CR88" t="n">
-        <v>1.270602530284697e-05</v>
+        <v>1.270628969526986e-05</v>
       </c>
       <c r="CS88" t="n">
         <v>1</v>
@@ -29112,7 +29112,7 @@
         <v>-0.1719603108499495</v>
       </c>
       <c r="BE89" t="n">
-        <v>-0.2036255502541831</v>
+        <v>-0.2036254779639295</v>
       </c>
       <c r="BF89" t="n">
         <v>-0.2896130017480748</v>
@@ -29206,10 +29206,10 @@
         <v>0.7641867580362608</v>
       </c>
       <c r="CI89" t="n">
-        <v>0.2340056827906492</v>
+        <v>0.2340056730288622</v>
       </c>
       <c r="CJ89" t="n">
-        <v>0.7659943172093509</v>
+        <v>0.7659943269711378</v>
       </c>
       <c r="CK89" t="n">
         <v>0.0002276022929973173</v>
@@ -29230,10 +29230,10 @@
         <v>-4.477678438839089e-06</v>
       </c>
       <c r="CQ89" t="n">
-        <v>0.000195932924985303</v>
+        <v>0.0001959329972849818</v>
       </c>
       <c r="CR89" t="n">
-        <v>-1.786518097990006e-05</v>
+        <v>-1.786525327957932e-05</v>
       </c>
       <c r="CS89" t="n">
         <v>1</v>
@@ -29434,7 +29434,7 @@
         <v>-0.1446986903537081</v>
       </c>
       <c r="BE90" t="n">
-        <v>-0.167707571971117</v>
+        <v>-0.1677071802377976</v>
       </c>
       <c r="BF90" t="n">
         <v>-0.2460188993452062</v>
@@ -29528,10 +29528,10 @@
         <v>0.7919197994105998</v>
       </c>
       <c r="CI90" t="n">
-        <v>0.2073033216426313</v>
+        <v>0.2073032716687703</v>
       </c>
       <c r="CJ90" t="n">
-        <v>0.7926966783573687</v>
+        <v>0.7926967283312297</v>
       </c>
       <c r="CK90" t="n">
         <v>0.0002373732636328906</v>
@@ -29552,10 +29552,10 @@
         <v>2.754554915536476e-05</v>
       </c>
       <c r="CQ90" t="n">
-        <v>0.0002156334936544598</v>
+        <v>0.0002156338637807613</v>
       </c>
       <c r="CR90" t="n">
-        <v>2.179167452221169e-05</v>
+        <v>2.179130439591056e-05</v>
       </c>
       <c r="CS90" t="n">
         <v>0</v>
@@ -29756,7 +29756,7 @@
         <v>-0.1173856979695541</v>
       </c>
       <c r="BE91" t="n">
-        <v>-0.1323031626163519</v>
+        <v>-0.1323024726778913</v>
       </c>
       <c r="BF91" t="n">
         <v>-0.2040145725884466</v>
@@ -29850,10 +29850,10 @@
         <v>0.817095271054283</v>
       </c>
       <c r="CI91" t="n">
-        <v>0.1828147913352043</v>
+        <v>0.1828147085507212</v>
       </c>
       <c r="CJ91" t="n">
-        <v>0.8171852086647957</v>
+        <v>0.8171852914492788</v>
       </c>
       <c r="CK91" t="n">
         <v>0.0001728369852507564</v>
@@ -29874,10 +29874,10 @@
         <v>-4.020142814713246e-05</v>
       </c>
       <c r="CQ91" t="n">
-        <v>0.0001595801259688938</v>
+        <v>0.0001595807391037197</v>
       </c>
       <c r="CR91" t="n">
-        <v>-4.086754188061415e-05</v>
+        <v>-4.086815501543918e-05</v>
       </c>
       <c r="CS91" t="n">
         <v>1</v>
@@ -30078,7 +30078,7 @@
         <v>-0.09010997974258714</v>
       </c>
       <c r="BE92" t="n">
-        <v>-0.09780347577488213</v>
+        <v>-0.09780252322668979</v>
       </c>
       <c r="BF92" t="n">
         <v>-0.1641989770671167</v>
@@ -30172,10 +30172,10 @@
         <v>0.8404699357174167</v>
       </c>
       <c r="CI92" t="n">
-        <v>0.1598219411397018</v>
+        <v>0.1598218344124846</v>
       </c>
       <c r="CJ92" t="n">
-        <v>0.8401780588602983</v>
+        <v>0.8401781655875155</v>
       </c>
       <c r="CK92" t="n">
         <v>0.0002175461243403608</v>
@@ -30196,10 +30196,10 @@
         <v>-5.580436712006656e-06</v>
       </c>
       <c r="CQ92" t="n">
-        <v>0.0002111617402676511</v>
+        <v>0.0002111625307318929</v>
       </c>
       <c r="CR92" t="n">
-        <v>-3.418680557894585e-06</v>
+        <v>-3.41947102213639e-06</v>
       </c>
       <c r="CS92" t="n">
         <v>1</v>
@@ -30400,7 +30400,7 @@
         <v>-0.06296105159443195</v>
       </c>
       <c r="BE93" t="n">
-        <v>-0.06455324851249045</v>
+        <v>-0.06455207914964799</v>
       </c>
       <c r="BF93" t="n">
         <v>-0.1270049040651081</v>
@@ -30494,10 +30494,10 @@
         <v>0.861152538787093</v>
       </c>
       <c r="CI93" t="n">
-        <v>0.1392721858768946</v>
+        <v>0.1392720639713712</v>
       </c>
       <c r="CJ93" t="n">
-        <v>0.8607278141231054</v>
+        <v>0.8607279360286287</v>
       </c>
       <c r="CK93" t="n">
         <v>0.000156847702370062</v>
@@ -30518,10 +30518,10 @@
         <v>-4.004917719644362e-05</v>
       </c>
       <c r="CQ93" t="n">
-        <v>0.0001556183456613675</v>
+        <v>0.0001556192485421854</v>
       </c>
       <c r="CR93" t="n">
-        <v>-3.690349731883067e-05</v>
+        <v>-3.690440019964766e-05</v>
       </c>
       <c r="CS93" t="n">
         <v>1</v>
@@ -30722,7 +30722,7 @@
         <v>-0.0360280453082899</v>
       </c>
       <c r="BE94" t="n">
-        <v>-0.0328374386786326</v>
+        <v>-0.03283610371224848</v>
       </c>
       <c r="BF94" t="n">
         <v>-0.09270010674402136</v>
@@ -30816,10 +30816,10 @@
         <v>0.8798737841479151</v>
       </c>
       <c r="CI94" t="n">
-        <v>0.1204975347837487</v>
+        <v>0.1204974061208967</v>
       </c>
       <c r="CJ94" t="n">
-        <v>0.8795024652162513</v>
+        <v>0.8795025938791032</v>
       </c>
       <c r="CK94" t="n">
         <v>0.0001736785095652396</v>
@@ -30840,10 +30840,10 @@
         <v>-1.547834842443446e-05</v>
       </c>
       <c r="CQ94" t="n">
-        <v>0.0001759560345518783</v>
+        <v>0.000175956987480161</v>
       </c>
       <c r="CR94" t="n">
-        <v>-1.272821265283722e-05</v>
+        <v>-1.272916558111951e-05</v>
       </c>
       <c r="CS94" t="n">
         <v>1</v>
@@ -31044,7 +31044,7 @@
         <v>-0.009398454133384485</v>
       </c>
       <c r="BE95" t="n">
-        <v>-0.002874065451935787</v>
+        <v>-0.002872616919317227</v>
       </c>
       <c r="BF95" t="n">
         <v>-0.06140460773734636</v>
@@ -31138,10 +31138,10 @@
         <v>0.8961644979713462</v>
       </c>
       <c r="CI95" t="n">
-        <v>0.1040303126544789</v>
+        <v>0.1040301839610412</v>
       </c>
       <c r="CJ95" t="n">
-        <v>0.8959696873455211</v>
+        <v>0.8959698160389588</v>
       </c>
       <c r="CK95" t="n">
         <v>0.0001303978733472688</v>
@@ -31162,10 +31162,10 @@
         <v>5.419330585570287e-05</v>
       </c>
       <c r="CQ95" t="n">
-        <v>0.0001346910127546853</v>
+        <v>0.0001346919659094973</v>
       </c>
       <c r="CR95" t="n">
-        <v>5.707899589239666e-05</v>
+        <v>5.707708958277262e-05</v>
       </c>
       <c r="CS95" t="n">
         <v>0</v>
@@ -31366,7 +31366,7 @@
         <v>0.0426159118029113</v>
       </c>
       <c r="BE96" t="n">
-        <v>0.05126003842076964</v>
+        <v>0.05126157262663469</v>
       </c>
       <c r="BF96" t="n">
         <v>-0.007745581630801828</v>
@@ -31460,10 +31460,10 @@
         <v>0.9231301545738934</v>
       </c>
       <c r="CI96" t="n">
-        <v>0.07654615326387697</v>
+        <v>0.07654603899473934</v>
       </c>
       <c r="CJ96" t="n">
-        <v>0.9234538467361231</v>
+        <v>0.9234539610052607</v>
       </c>
       <c r="CK96" t="n">
         <v>0.0003405014298032193</v>
@@ -31484,10 +31484,10 @@
         <v>-2.4231991160268e-05</v>
       </c>
       <c r="CQ96" t="n">
-        <v>0.0003500382472478231</v>
+        <v>0.0003500399398932348</v>
       </c>
       <c r="CR96" t="n">
-        <v>-2.662938412470624e-05</v>
+        <v>-2.66302304474126e-05</v>
       </c>
       <c r="CS96" t="n">
         <v>1</v>
@@ -31688,7 +31688,7 @@
         <v>0.06784439889650477</v>
       </c>
       <c r="BE97" t="n">
-        <v>0.0753165007675943</v>
+        <v>0.07531801996896799</v>
       </c>
       <c r="BF97" t="n">
         <v>0.01486631130764276</v>
@@ -31782,10 +31782,10 @@
         <v>0.9340332673619943</v>
       </c>
       <c r="CI97" t="n">
-        <v>0.06537638960001105</v>
+        <v>0.06537628654736422</v>
       </c>
       <c r="CJ97" t="n">
-        <v>0.934623610399989</v>
+        <v>0.9346237134526358</v>
       </c>
       <c r="CK97" t="n">
         <v>0.0001056031042337801</v>
@@ -31806,10 +31806,10 @@
         <v>-1.111555238632669e-06</v>
       </c>
       <c r="CQ97" t="n">
-        <v>0.0001093570987463107</v>
+        <v>0.0001093578619952222</v>
       </c>
       <c r="CR97" t="n">
-        <v>-5.483870700782011e-06</v>
+        <v>-5.484633949694e-06</v>
       </c>
       <c r="CS97" t="n">
         <v>1</v>
@@ -32010,7 +32010,7 @@
         <v>0.09245880294972807</v>
       </c>
       <c r="BE98" t="n">
-        <v>0.09737525033421919</v>
+        <v>0.09737672610135628</v>
       </c>
       <c r="BF98" t="n">
         <v>0.03491310924192141</v>
@@ -32104,10 +32104,10 @@
         <v>0.9432015851714718</v>
       </c>
       <c r="CI98" t="n">
-        <v>0.05596515206415204</v>
+        <v>0.05596506085916859</v>
       </c>
       <c r="CJ98" t="n">
-        <v>0.944034847935848</v>
+        <v>0.9440349391408314</v>
       </c>
       <c r="CK98" t="n">
         <v>7.293684385935187e-05</v>
@@ -32128,10 +32128,10 @@
         <v>-9.659897905212392e-06</v>
       </c>
       <c r="CQ98" t="n">
-        <v>7.518724102556718e-05</v>
+        <v>7.518791652596894e-05</v>
       </c>
       <c r="CR98" t="n">
-        <v>-1.583137352909915e-05</v>
+        <v>-1.583204902950042e-05</v>
       </c>
       <c r="CS98" t="n">
         <v>1</v>
@@ -32332,7 +32332,7 @@
         <v>0.1163960023052696</v>
       </c>
       <c r="BE99" t="n">
-        <v>0.1174926704440156</v>
+        <v>0.1174940817825284</v>
       </c>
       <c r="BF99" t="n">
         <v>0.0526092194322387</v>
@@ -32426,10 +32426,10 @@
         <v>0.9512072469793117</v>
       </c>
       <c r="CI99" t="n">
-        <v>0.04775484865246188</v>
+        <v>0.04775476948694092</v>
       </c>
       <c r="CJ99" t="n">
-        <v>0.9522451513475381</v>
+        <v>0.9522452305130591</v>
       </c>
       <c r="CK99" t="n">
         <v>7.61845442237941e-05</v>
@@ -32450,10 +32450,10 @@
         <v>-9.596723005380128e-06</v>
       </c>
       <c r="CQ99" t="n">
-        <v>7.664014782719146e-05</v>
+        <v>7.664073415854304e-05</v>
       </c>
       <c r="CR99" t="n">
-        <v>-1.728385578303373e-05</v>
+        <v>-1.728444211438612e-05</v>
       </c>
       <c r="CS99" t="n">
         <v>1</v>
@@ -32654,7 +32654,7 @@
         <v>0.1396000403062099</v>
       </c>
       <c r="BE100" t="n">
-        <v>0.1357528704981775</v>
+        <v>0.1357542031126801</v>
       </c>
       <c r="BF100" t="n">
         <v>0.06817445748209101</v>
@@ -32748,10 +32748,10 @@
         <v>0.9581009615444844</v>
       </c>
       <c r="CI100" t="n">
-        <v>0.04069939565038481</v>
+        <v>0.04069932796177458</v>
       </c>
       <c r="CJ100" t="n">
-        <v>0.9593006043496152</v>
+        <v>0.9593006720382254</v>
       </c>
       <c r="CK100" t="n">
         <v>7.098665137747728e-05</v>
@@ -32772,10 +32772,10 @@
         <v>4.192017975208732e-05</v>
       </c>
       <c r="CQ100" t="n">
-        <v>6.953934838309871e-05</v>
+        <v>6.953984971188221e-05</v>
       </c>
       <c r="CR100" t="n">
-        <v>2.415011574405899e-05</v>
+        <v>2.414911308649091e-05</v>
       </c>
       <c r="CS100" t="n">
         <v>0</v>
@@ -32976,7 +32976,7 @@
         <v>0.1836226525708018</v>
       </c>
       <c r="BE101" t="n">
-        <v>0.1671253891457243</v>
+        <v>0.1671265428912647</v>
       </c>
       <c r="BF101" t="n">
         <v>0.09376268766519923</v>
@@ -33070,10 +33070,10 @@
         <v>0.9689114871360607</v>
       </c>
       <c r="CI101" t="n">
-        <v>0.02968580750581515</v>
+        <v>0.02968575948568939</v>
       </c>
       <c r="CJ101" t="n">
-        <v>0.9703141924941848</v>
+        <v>0.9703142405143106</v>
       </c>
       <c r="CK101" t="n">
         <v>0.0001491628834752883</v>
@@ -33094,10 +33094,10 @@
         <v>2.250772466091695e-05</v>
       </c>
       <c r="CQ101" t="n">
-        <v>0.0001389919174095122</v>
+        <v>0.0001389926287218334</v>
       </c>
       <c r="CR101" t="n">
-        <v>1.211873058215313e-05</v>
+        <v>1.211837492599236e-05</v>
       </c>
       <c r="CS101" t="n">
         <v>0</v>
@@ -33298,7 +33298,7 @@
         <v>0.2043675602790979</v>
       </c>
       <c r="BE102" t="n">
-        <v>0.1804723996664458</v>
+        <v>0.1804734613088777</v>
       </c>
       <c r="BF102" t="n">
         <v>0.1041799441325159</v>
@@ -33392,10 +33392,10 @@
         <v>0.9728973019559443</v>
       </c>
       <c r="CI102" t="n">
-        <v>0.02564104085012253</v>
+        <v>0.02564100057120943</v>
       </c>
       <c r="CJ102" t="n">
-        <v>0.9743589591498775</v>
+        <v>0.9743589994287906</v>
       </c>
       <c r="CK102" t="n">
         <v>2.455296404277582e-05</v>
@@ -33416,10 +33416,10 @@
         <v>0.0001125125314555449</v>
       </c>
       <c r="CQ102" t="n">
-        <v>1.783842085568388e-05</v>
+        <v>1.7838719177343e-05</v>
       </c>
       <c r="CR102" t="n">
-        <v>8.003568695287219e-05</v>
+        <v>8.003479198789507e-05</v>
       </c>
       <c r="CS102" t="n">
         <v>0</v>
@@ -33620,7 +33620,7 @@
         <v>0.2612536021410199</v>
       </c>
       <c r="BE103" t="n">
-        <v>0.2125920927949733</v>
+        <v>0.2125928962801122</v>
       </c>
       <c r="BF103" t="n">
         <v>0.1279548321551063</v>
@@ -33714,10 +33714,10 @@
         <v>0.9820427255172643</v>
       </c>
       <c r="CI103" t="n">
-        <v>0.01648550087878988</v>
+        <v>0.016485477987424</v>
       </c>
       <c r="CJ103" t="n">
-        <v>0.9835144991212101</v>
+        <v>0.9835145220125761</v>
       </c>
       <c r="CK103" t="n">
         <v>0.0001541970740040499</v>
@@ -33738,10 +33738,10 @@
         <v>0.0001461804000206443</v>
       </c>
       <c r="CQ103" t="n">
-        <v>0.0001233930302737927</v>
+        <v>0.0001233935389014881</v>
       </c>
       <c r="CR103" t="n">
-        <v>0.0001025782360505254</v>
+        <v>0.0001025775578802658</v>
       </c>
       <c r="CS103" t="n">
         <v>0</v>
@@ -33942,7 +33942,7 @@
         <v>0.3243767693801644</v>
       </c>
       <c r="BE104" t="n">
-        <v>0.2409769047469189</v>
+        <v>0.2409774388102171</v>
       </c>
       <c r="BF104" t="n">
         <v>0.1470407507140782</v>
@@ -34036,10 +34036,10 @@
         <v>0.9891323699885186</v>
       </c>
       <c r="CI104" t="n">
-        <v>0.009563000346265602</v>
+        <v>0.009562989741495108</v>
       </c>
       <c r="CJ104" t="n">
-        <v>0.9904369996537344</v>
+        <v>0.9904370102585049</v>
       </c>
       <c r="CK104" t="n">
         <v>0.0001515664498626388</v>
@@ -34060,10 +34060,10 @@
         <v>0.0002729445038296766</v>
       </c>
       <c r="CQ104" t="n">
-        <v>0.0001025049387619351</v>
+        <v>0.0001025052529345366</v>
       </c>
       <c r="CR104" t="n">
-        <v>0.0001956436520811275</v>
+        <v>0.0001956430237359252</v>
       </c>
       <c r="CS104" t="n">
         <v>0</v>
@@ -34264,7 +34264,7 @@
         <v>0.4101335586513724</v>
       </c>
       <c r="BE105" t="n">
-        <v>0.2674480242024508</v>
+        <v>0.267448253597393</v>
       </c>
       <c r="BF105" t="n">
         <v>0.1614950148848834</v>
@@ -34358,10 +34358,10 @@
         <v>0.9955831026696516</v>
       </c>
       <c r="CI105" t="n">
-        <v>0.003571785063866441</v>
+        <v>0.003571782749080138</v>
       </c>
       <c r="CJ105" t="n">
-        <v>0.9964282149361335</v>
+        <v>0.9964282172509199</v>
       </c>
       <c r="CK105" t="n">
         <v>0.0002446537496014465</v>
@@ -34382,10 +34382,10 @@
         <v>6.272867823620826e-05</v>
       </c>
       <c r="CQ105" t="n">
-        <v>0.0001593429442582664</v>
+        <v>0.0001593430814120945</v>
       </c>
       <c r="CR105" t="n">
-        <v>2.517325172476936e-05</v>
+        <v>2.517314885939342e-05</v>
       </c>
       <c r="CS105" t="n">
         <v>1</v>
@@ -34586,7 +34586,7 @@
         <v>0.4456935503801568</v>
       </c>
       <c r="BE106" t="n">
-        <v>0.2730340329804871</v>
+        <v>0.2730341558325621</v>
       </c>
       <c r="BF106" t="n">
         <v>0.162329266327565</v>
@@ -34680,10 +34680,10 @@
         <v>0.9976977988786896</v>
       </c>
       <c r="CI106" t="n">
-        <v>0.001750050083109452</v>
+        <v>0.001750049340577291</v>
       </c>
       <c r="CJ106" t="n">
-        <v>0.9982499499168905</v>
+        <v>0.9982499506594227</v>
       </c>
       <c r="CK106" t="n">
         <v>0.0001021564643814143</v>
@@ -34698,7 +34698,7 @@
       </c>
       <c r="CP106" t="inlineStr"/>
       <c r="CQ106" t="n">
-        <v>5.578171355803026e-05</v>
+        <v>5.578174655496231e-05</v>
       </c>
       <c r="CR106" t="inlineStr"/>
       <c r="CS106" t="n">
@@ -34900,7 +34900,7 @@
         <v>-0.7232959910906575</v>
       </c>
       <c r="BE107" t="n">
-        <v>-0.7210665939272015</v>
+        <v>-0.7210664315448543</v>
       </c>
       <c r="BF107" t="n">
         <v>-0.5748539483471534</v>
@@ -34994,10 +34994,10 @@
         <v>0.03680086371941493</v>
       </c>
       <c r="CI107" t="n">
-        <v>0.9687748386500227</v>
+        <v>0.9687748325909344</v>
       </c>
       <c r="CJ107" t="n">
-        <v>0.03122516134997733</v>
+        <v>0.03122516740906556</v>
       </c>
       <c r="CK107" t="inlineStr"/>
       <c r="CL107" t="n">
@@ -35013,7 +35013,7 @@
       </c>
       <c r="CQ107" t="inlineStr"/>
       <c r="CR107" t="n">
-        <v>0.0001466798153180494</v>
+        <v>0.0001466789177976772</v>
       </c>
       <c r="CS107" t="n">
         <v>0</v>
@@ -35214,7 +35214,7 @@
         <v>-0.6383652119101441</v>
       </c>
       <c r="BE108" t="n">
-        <v>-0.6053099844498644</v>
+        <v>-0.6053099153080291</v>
       </c>
       <c r="BF108" t="n">
         <v>-0.5304111887021045</v>
@@ -35308,10 +35308,10 @@
         <v>0.06728521071803573</v>
       </c>
       <c r="CI108" t="n">
-        <v>0.9390797874766312</v>
+        <v>0.9390797818602372</v>
       </c>
       <c r="CJ108" t="n">
-        <v>0.06092021252336877</v>
+        <v>0.06092021813976278</v>
       </c>
       <c r="CK108" t="n">
         <v>0.003854252471095054</v>
@@ -35332,10 +35332,10 @@
         <v>-0.0003356177089017666</v>
       </c>
       <c r="CQ108" t="n">
-        <v>0.004251987503120253</v>
+        <v>0.004251988335065238</v>
       </c>
       <c r="CR108" t="n">
-        <v>-5.276745169236581e-05</v>
+        <v>-5.27677012758603e-05</v>
       </c>
       <c r="CS108" t="n">
         <v>0</v>
@@ -35536,7 +35536,7 @@
         <v>-0.6148194730460503</v>
       </c>
       <c r="BE109" t="n">
-        <v>-0.5795830975143329</v>
+        <v>-0.579583049858807</v>
       </c>
       <c r="BF109" t="n">
         <v>-0.5235988583272636</v>
@@ -35630,10 +35630,10 @@
         <v>0.08382722110099872</v>
       </c>
       <c r="CI109" t="n">
-        <v>0.9222489997088043</v>
+        <v>0.9222489948573179</v>
       </c>
       <c r="CJ109" t="n">
-        <v>0.07775100029119575</v>
+        <v>0.07775100514268207</v>
       </c>
       <c r="CK109" t="n">
         <v>0.0006412921727270773</v>
@@ -35654,10 +35654,10 @@
         <v>-0.0001014074483811035</v>
       </c>
       <c r="CQ109" t="n">
-        <v>0.0008007005230882616</v>
+        <v>0.0008007007386804862</v>
       </c>
       <c r="CR109" t="n">
-        <v>0.0001686100074531965</v>
+        <v>0.0001686097918609667</v>
       </c>
       <c r="CS109" t="n">
         <v>0</v>
@@ -35858,7 +35858,7 @@
         <v>-0.589603538261518</v>
       </c>
       <c r="BE110" t="n">
-        <v>-0.5561058985808001</v>
+        <v>-0.5561058750045196</v>
       </c>
       <c r="BF110" t="n">
         <v>-0.5186992447689065</v>
@@ -35952,10 +35952,10 @@
         <v>0.1061460780470876</v>
       </c>
       <c r="CI110" t="n">
-        <v>0.8991005250057426</v>
+        <v>0.8991005220243086</v>
       </c>
       <c r="CJ110" t="n">
-        <v>0.1008994749942574</v>
+        <v>0.1008994779756914</v>
       </c>
       <c r="CK110" t="n">
         <v>0.000671826339374168</v>
@@ -35976,10 +35976,10 @@
         <v>-7.03594130146278e-05</v>
       </c>
       <c r="CQ110" t="n">
-        <v>0.0008600708850649563</v>
+        <v>0.0008600710175550794</v>
       </c>
       <c r="CR110" t="n">
-        <v>-3.150098295746407e-05</v>
+        <v>-3.15010050391506e-05</v>
       </c>
       <c r="CS110" t="n">
         <v>1</v>
@@ -36180,7 +36180,7 @@
         <v>-0.5851221295228962</v>
       </c>
       <c r="BE111" t="n">
-        <v>-0.5523339861815466</v>
+        <v>-0.552333967165657</v>
       </c>
       <c r="BF111" t="n">
         <v>-0.5180114565685084</v>
@@ -36274,10 +36274,10 @@
         <v>0.1105369719839849</v>
       </c>
       <c r="CI111" t="n">
-        <v>0.894502318413595</v>
+        <v>0.8945023159236604</v>
       </c>
       <c r="CJ111" t="n">
-        <v>0.105497681586405</v>
+        <v>0.1054976840763396</v>
       </c>
       <c r="CK111" t="n">
         <v>3.375947120993171e-05</v>
@@ -36298,10 +36298,10 @@
         <v>-5.513051303577187e-05</v>
       </c>
       <c r="CQ111" t="n">
-        <v>6.555713080213122e-05</v>
+        <v>6.555714924357751e-05</v>
       </c>
       <c r="CR111" t="n">
-        <v>5.68384570656345e-05</v>
+        <v>5.683840174129521e-05</v>
       </c>
       <c r="CS111" t="n">
         <v>0</v>
@@ -36502,7 +36502,7 @@
         <v>-0.5710316951438811</v>
       </c>
       <c r="BE112" t="n">
-        <v>-0.5411428512243673</v>
+        <v>-0.5411428473208949</v>
       </c>
       <c r="BF112" t="n">
         <v>-0.5160675661621758</v>
@@ -36596,10 +36596,10 @@
         <v>0.1252003827442948</v>
       </c>
       <c r="CI112" t="n">
-        <v>0.879081410821643</v>
+        <v>0.8790814102554645</v>
       </c>
       <c r="CJ112" t="n">
-        <v>0.120918589178357</v>
+        <v>0.1209185897445355</v>
       </c>
       <c r="CK112" t="n">
         <v>0.0001894765366846525</v>
@@ -36620,10 +36620,10 @@
         <v>8.135115269300441e-05</v>
       </c>
       <c r="CQ112" t="n">
-        <v>0.0002858016777297287</v>
+        <v>0.0002858016903097595</v>
       </c>
       <c r="CR112" t="n">
-        <v>0.000176489153867759</v>
+        <v>0.0001764891412877278</v>
       </c>
       <c r="CS112" t="n">
         <v>0</v>
@@ -36824,7 +36824,7 @@
         <v>-0.5557816585886274</v>
       </c>
       <c r="BE113" t="n">
-        <v>-0.529995190592661</v>
+        <v>-0.5299952046230156</v>
       </c>
       <c r="BF113" t="n">
         <v>-0.5141604505730746</v>
@@ -36918,10 +36918,10 @@
         <v>0.1425144600889892</v>
       </c>
       <c r="CI113" t="n">
-        <v>0.8607886535192129</v>
+        <v>0.8607886557654866</v>
       </c>
       <c r="CJ113" t="n">
-        <v>0.1392113464807871</v>
+        <v>0.1392113442345134</v>
       </c>
       <c r="CK113" t="n">
         <v>0.0001382305765369671</v>
@@ -36942,10 +36942,10 @@
         <v>1.818107984822149e-05</v>
       </c>
       <c r="CQ113" t="n">
-        <v>0.0002299611662907423</v>
+        <v>0.0002299611163803505</v>
       </c>
       <c r="CR113" t="n">
-        <v>4.264525368084023e-05</v>
+        <v>4.264527031763721e-05</v>
       </c>
       <c r="CS113" t="n">
         <v>0</v>
@@ -37146,7 +37146,7 @@
         <v>-0.5503965479120499</v>
       </c>
       <c r="BE114" t="n">
-        <v>-0.5262532421749258</v>
+        <v>-0.5262532629775687</v>
       </c>
       <c r="BF114" t="n">
         <v>-0.5134943724036414</v>
@@ -37240,10 +37240,10 @@
         <v>0.1489552890845477</v>
       </c>
       <c r="CI114" t="n">
-        <v>0.8539690138960767</v>
+        <v>0.8539690173347058</v>
       </c>
       <c r="CJ114" t="n">
-        <v>0.1460309861039233</v>
+        <v>0.1460309826652942</v>
       </c>
       <c r="CK114" t="n">
         <v>-2.169398598872961e-05</v>
@@ -37264,10 +37264,10 @@
         <v>-1.461112334713273e-05</v>
       </c>
       <c r="CQ114" t="n">
-        <v>7.863711194595717e-06</v>
+        <v>7.863685726740462e-06</v>
       </c>
       <c r="CR114" t="n">
-        <v>7.047428232684599e-06</v>
+        <v>7.047453700539637e-06</v>
       </c>
       <c r="CS114" t="n">
         <v>1</v>
@@ -37468,7 +37468,7 @@
         <v>-0.5448442228885841</v>
       </c>
       <c r="BE115" t="n">
-        <v>-0.5224838450906841</v>
+        <v>-0.5224838731384038</v>
       </c>
       <c r="BF115" t="n">
         <v>-0.5127962951760738</v>
@@ -37562,10 +37562,10 @@
         <v>0.1555525377593876</v>
       </c>
       <c r="CI115" t="n">
-        <v>0.8469644810506365</v>
+        <v>0.8469644858317201</v>
       </c>
       <c r="CJ115" t="n">
-        <v>0.1530355189493635</v>
+        <v>0.1530355141682799</v>
       </c>
       <c r="CK115" t="n">
         <v>1.660066365120894e-05</v>
@@ -37586,10 +37586,10 @@
         <v>2.600524154105794e-05</v>
       </c>
       <c r="CQ115" t="n">
-        <v>4.483092942403344e-05</v>
+        <v>4.483089401342583e-05</v>
       </c>
       <c r="CR115" t="n">
-        <v>4.464728447760671e-05</v>
+        <v>4.464731988821475e-05</v>
       </c>
       <c r="CS115" t="n">
         <v>0</v>
@@ -37790,7 +37790,7 @@
         <v>-0.5391146538320101</v>
       </c>
       <c r="BE116" t="n">
-        <v>-0.5186774576338443</v>
+        <v>-0.518677493429738</v>
       </c>
       <c r="BF116" t="n">
         <v>-0.5120544481561996</v>
@@ -37884,10 +37884,10 @@
         <v>0.1626199574020497</v>
       </c>
       <c r="CI116" t="n">
-        <v>0.8394640356645086</v>
+        <v>0.8394640419551678</v>
       </c>
       <c r="CJ116" t="n">
-        <v>0.1605359643354914</v>
+        <v>0.1605359580448322</v>
       </c>
       <c r="CK116" t="n">
         <v>-1.569659324266587e-05</v>
@@ -37908,10 +37908,10 @@
         <v>0.0001113584249830997</v>
       </c>
       <c r="CQ116" t="n">
-        <v>1.090399880029382e-05</v>
+        <v>1.090395220916876e-05</v>
       </c>
       <c r="CR116" t="n">
-        <v>0.0001422281889050282</v>
+        <v>0.0001422282820872792</v>
       </c>
       <c r="CS116" t="n">
         <v>1</v>
@@ -38112,7 +38112,7 @@
         <v>-0.5270830510598074</v>
       </c>
       <c r="BE117" t="n">
-        <v>-0.5109120942506381</v>
+        <v>-0.5109121472913695</v>
       </c>
       <c r="BF117" t="n">
         <v>-0.5103856433890025</v>
@@ -38206,10 +38206,10 @@
         <v>0.1777571784761789</v>
       </c>
       <c r="CI117" t="n">
-        <v>0.8233820604177329</v>
+        <v>0.8233820703004835</v>
       </c>
       <c r="CJ117" t="n">
-        <v>0.1766179395822671</v>
+        <v>0.1766179296995165</v>
       </c>
       <c r="CK117" t="n">
         <v>5.135936824966075e-05</v>
@@ -38230,10 +38230,10 @@
         <v>7.03207164706014e-05</v>
       </c>
       <c r="CQ117" t="n">
-        <v>9.599082786267144e-05</v>
+        <v>9.599068147150489e-05</v>
       </c>
       <c r="CR117" t="n">
-        <v>7.875837307082614e-05</v>
+        <v>7.875844626641006e-05</v>
       </c>
       <c r="CS117" t="n">
         <v>0</v>
@@ -38434,7 +38434,7 @@
         <v>-0.5207604205849504</v>
       </c>
       <c r="BE118" t="n">
-        <v>-0.5069303877424106</v>
+        <v>-0.506930450391383</v>
       </c>
       <c r="BF118" t="n">
         <v>-0.5094279486266191</v>
@@ -38528,10 +38528,10 @@
         <v>0.1860089429821518</v>
       </c>
       <c r="CI118" t="n">
-        <v>0.8146211322275221</v>
+        <v>0.8146211442355374</v>
       </c>
       <c r="CJ118" t="n">
-        <v>0.1853788677724779</v>
+        <v>0.1853788557644626</v>
       </c>
       <c r="CK118" t="n">
         <v>-3.35044918203754e-05</v>
@@ -38552,10 +38552,10 @@
         <v>6.88562489210261e-05</v>
       </c>
       <c r="CQ118" t="n">
-        <v>-1.387145254580502e-05</v>
+        <v>-1.387154148194472e-05</v>
       </c>
       <c r="CR118" t="n">
-        <v>7.352283665776295e-05</v>
+        <v>7.35229255939033e-05</v>
       </c>
       <c r="CS118" t="n">
         <v>1</v>
@@ -38756,7 +38756,7 @@
         <v>-0.5142194142306781</v>
       </c>
       <c r="BE119" t="n">
-        <v>-0.5028660907679948</v>
+        <v>-0.5028661637396917</v>
       </c>
       <c r="BF119" t="n">
         <v>-0.5083646586251842</v>
@@ -38850,10 +38850,10 @@
         <v>0.1946291867851111</v>
       </c>
       <c r="CI119" t="n">
-        <v>0.8054690346553897</v>
+        <v>0.80546904902965</v>
       </c>
       <c r="CJ119" t="n">
-        <v>0.1945309653446103</v>
+        <v>0.19453095097035</v>
       </c>
       <c r="CK119" t="n">
         <v>-2.230260333568358e-05</v>
@@ -38874,10 +38874,10 @@
         <v>0.0002337101565222936</v>
       </c>
       <c r="CQ119" t="n">
-        <v>-5.738760027219902e-06</v>
+        <v>-5.738866488712302e-06</v>
       </c>
       <c r="CR119" t="n">
-        <v>0.0002351650906720205</v>
+        <v>0.0002351653035950049</v>
       </c>
       <c r="CS119" t="n">
         <v>1</v>
@@ -39078,7 +39078,7 @@
         <v>-0.5004407891341575</v>
       </c>
       <c r="BE120" t="n">
-        <v>-0.4944342766748922</v>
+        <v>-0.4944343726992781</v>
       </c>
       <c r="BF120" t="n">
         <v>-0.5058389871511659</v>
@@ -39172,10 +39172,10 @@
         <v>0.2131726173780105</v>
       </c>
       <c r="CI120" t="n">
-        <v>0.7858041131067199</v>
+        <v>0.78580413303025</v>
       </c>
       <c r="CJ120" t="n">
-        <v>0.2141958868932801</v>
+        <v>0.21419586696975</v>
       </c>
       <c r="CK120" t="n">
         <v>3.766684811726782e-05</v>
@@ -39196,10 +39196,10 @@
         <v>9.136111284173951e-05</v>
       </c>
       <c r="CQ120" t="n">
-        <v>5.612737833471035e-05</v>
+        <v>5.612708321152751e-05</v>
       </c>
       <c r="CR120" t="n">
-        <v>8.378237160891824e-05</v>
+        <v>8.37825191705101e-05</v>
       </c>
       <c r="CS120" t="n">
         <v>0</v>
@@ -39400,7 +39400,7 @@
         <v>-0.4931825791205415</v>
       </c>
       <c r="BE121" t="n">
-        <v>-0.4900363849902873</v>
+        <v>-0.4900364938603782</v>
       </c>
       <c r="BF121" t="n">
         <v>-0.5043296704752652</v>
@@ -39494,10 +39494,10 @@
         <v>0.2231131843584108</v>
       </c>
       <c r="CI121" t="n">
-        <v>0.7752805543628267</v>
+        <v>0.7752805775112747</v>
       </c>
       <c r="CJ121" t="n">
-        <v>0.2247194456371733</v>
+        <v>0.2247194224887253</v>
       </c>
       <c r="CK121" t="n">
         <v>-1.079527644014255e-05</v>
@@ -39518,10 +39518,10 @@
         <v>7.738642665209303e-05</v>
       </c>
       <c r="CQ121" t="n">
-        <v>-5.840707777223127e-06</v>
+        <v>-5.840879223840446e-06</v>
       </c>
       <c r="CR121" t="n">
-        <v>6.548981642146901e-05</v>
+        <v>6.548998786808612e-05</v>
       </c>
       <c r="CS121" t="n">
         <v>1</v>
@@ -39722,7 +39722,7 @@
         <v>-0.4856649166446343</v>
       </c>
       <c r="BE122" t="n">
-        <v>-0.4854950025445205</v>
+        <v>-0.4854951252042274</v>
       </c>
       <c r="BF122" t="n">
         <v>-0.502620441028497</v>
@@ -39816,10 +39816,10 @@
         <v>0.2334705172248394</v>
       </c>
       <c r="CI122" t="n">
-        <v>0.7643311970008878</v>
+        <v>0.7643312236975383</v>
       </c>
       <c r="CJ122" t="n">
-        <v>0.2356688029991122</v>
+        <v>0.2356687763024617</v>
       </c>
       <c r="CK122" t="n">
         <v>1.533158187090253e-05</v>
@@ -39840,10 +39840,10 @@
         <v>0.0003294241686460008</v>
       </c>
       <c r="CQ122" t="n">
-        <v>1.560548141895778e-05</v>
+        <v>1.56052836929408e-05</v>
       </c>
       <c r="CR122" t="n">
-        <v>0.000296861410173484</v>
+        <v>0.0002968618056255179</v>
       </c>
       <c r="CS122" t="n">
         <v>0</v>
@@ -40044,7 +40044,7 @@
         <v>-0.469811932965262</v>
       </c>
       <c r="BE123" t="n">
-        <v>-0.4759077515555901</v>
+        <v>-0.4759079048504709</v>
       </c>
       <c r="BF123" t="n">
         <v>-0.4984780705057848</v>
@@ -40138,10 +40138,10 @@
         <v>0.2559255183955974</v>
       </c>
       <c r="CI123" t="n">
-        <v>0.7406855029888324</v>
+        <v>0.7406855378431749</v>
       </c>
       <c r="CJ123" t="n">
-        <v>0.2593144970111676</v>
+        <v>0.2593144621568251</v>
       </c>
       <c r="CK123" t="n">
         <v>7.392787153095819e-05</v>
@@ -40162,10 +40162,10 @@
         <v>0.0003099663287441539</v>
       </c>
       <c r="CQ123" t="n">
-        <v>5.339742880039466e-05</v>
+        <v>5.339691251013412e-05</v>
       </c>
       <c r="CR123" t="n">
-        <v>0.0002597660802510569</v>
+        <v>0.0002597665965413183</v>
       </c>
       <c r="CS123" t="n">
         <v>0</v>
@@ -40366,7 +40366,7 @@
         <v>-0.4528064841752786</v>
       </c>
       <c r="BE124" t="n">
-        <v>-0.4655109820181316</v>
+        <v>-0.4655111702688377</v>
       </c>
       <c r="BF124" t="n">
         <v>-0.4931311040138831</v>
@@ -40460,10 +40460,10 @@
         <v>0.2804165103157035</v>
       </c>
       <c r="CI124" t="n">
-        <v>0.7150411692623613</v>
+        <v>0.7150412137587226</v>
       </c>
       <c r="CJ124" t="n">
-        <v>0.2849588307376387</v>
+        <v>0.2849587862412774</v>
       </c>
       <c r="CK124" t="n">
         <v>0.0001645800084927752</v>
@@ -40484,10 +40484,10 @@
         <v>0.0003796479907358158</v>
       </c>
       <c r="CQ124" t="n">
-        <v>0.0001200982008613041</v>
+        <v>0.0001200975417457867</v>
       </c>
       <c r="CR124" t="n">
-        <v>0.0003123635254787061</v>
+        <v>0.0003123641845942252</v>
       </c>
       <c r="CS124" t="n">
         <v>0</v>
@@ -40688,7 +40688,7 @@
         <v>-0.4345802789121854</v>
       </c>
       <c r="BE125" t="n">
-        <v>-0.4541206213280414</v>
+        <v>-0.4541208488438437</v>
       </c>
       <c r="BF125" t="n">
         <v>-0.4862431718150623</v>
@@ -40782,10 +40782,10 @@
         <v>0.3073512429088949</v>
       </c>
       <c r="CI125" t="n">
-        <v>0.6870562593063745</v>
+        <v>0.6870563149302087</v>
       </c>
       <c r="CJ125" t="n">
-        <v>0.3129437406936255</v>
+        <v>0.3129436850697913</v>
       </c>
       <c r="CK125" t="n">
         <v>0.0001729362422012177</v>
@@ -40806,10 +40806,10 @@
         <v>0.0003534819122955309</v>
       </c>
       <c r="CQ125" t="n">
-        <v>0.0001021712335761739</v>
+        <v>0.000102170409631671</v>
       </c>
       <c r="CR125" t="n">
-        <v>0.0002706413841196582</v>
+        <v>0.0002706422080641611</v>
       </c>
       <c r="CS125" t="n">
         <v>0</v>
@@ -41010,7 +41010,7 @@
         <v>-0.4150750797358674</v>
       </c>
       <c r="BE126" t="n">
-        <v>-0.4415298705630553</v>
+        <v>-0.4415301413588478</v>
       </c>
       <c r="BF126" t="n">
         <v>-0.4774200533240699</v>
@@ -41104,10 +41104,10 @@
         <v>0.3366968213725197</v>
       </c>
       <c r="CI126" t="n">
-        <v>0.6568444804075804</v>
+        <v>0.6568445484995077</v>
       </c>
       <c r="CJ126" t="n">
-        <v>0.3431555195924196</v>
+        <v>0.3431554515004923</v>
       </c>
       <c r="CK126" t="n">
         <v>0.0002754155655160725</v>
@@ -41128,10 +41128,10 @@
         <v>0.0001308910936052509</v>
       </c>
       <c r="CQ126" t="n">
-        <v>0.0001768795300489696</v>
+        <v>0.0001768785214171474</v>
       </c>
       <c r="CR126" t="n">
-        <v>8.305540439622469e-05</v>
+        <v>8.30559087121349e-05</v>
       </c>
       <c r="CS126" t="n">
         <v>0</v>
@@ -41332,7 +41332,7 @@
         <v>-0.404828235986422</v>
       </c>
       <c r="BE127" t="n">
-        <v>-0.4347139555122482</v>
+        <v>-0.4347142491276457</v>
       </c>
       <c r="BF127" t="n">
         <v>-0.4721447567676213</v>
@@ -41426,10 +41426,10 @@
         <v>0.3523677586070737</v>
       </c>
       <c r="CI127" t="n">
-        <v>0.6408371465249735</v>
+        <v>0.64083722123137</v>
       </c>
       <c r="CJ127" t="n">
-        <v>0.3591628534750265</v>
+        <v>0.35916277876863</v>
       </c>
       <c r="CK127" t="n">
         <v>9.181960422029786e-05</v>
@@ -41450,10 +41450,10 @@
         <v>0.0001639486679200662</v>
       </c>
       <c r="CQ127" t="n">
-        <v>3.550128034163214e-05</v>
+        <v>3.550072703633039e-05</v>
       </c>
       <c r="CR127" t="n">
-        <v>0.0001136214912689365</v>
+        <v>0.0001136220445742383</v>
       </c>
       <c r="CS127" t="n">
         <v>0</v>
@@ -41654,7 +41654,7 @@
         <v>-0.3942460994749094</v>
       </c>
       <c r="BE128" t="n">
-        <v>-0.4275112864059376</v>
+        <v>-0.427511603375566</v>
       </c>
       <c r="BF128" t="n">
         <v>-0.4662145278205999</v>
@@ -41748,10 +41748,10 @@
         <v>0.3687573751271769</v>
       </c>
       <c r="CI128" t="n">
-        <v>0.6241910412457371</v>
+        <v>0.6241911227219621</v>
       </c>
       <c r="CJ128" t="n">
-        <v>0.3758089587542629</v>
+        <v>0.3758088772780379</v>
       </c>
       <c r="CK128" t="n">
         <v>7.299630103710028e-05</v>
@@ -41772,10 +41772,10 @@
         <v>0.0001618634140663441</v>
       </c>
       <c r="CQ128" t="n">
-        <v>9.666188626800999e-06</v>
+        <v>9.665585181455223e-06</v>
       </c>
       <c r="CR128" t="n">
-        <v>0.0001096365795972202</v>
+        <v>0.0001096371830425656</v>
       </c>
       <c r="CS128" t="n">
         <v>0</v>
@@ -41976,7 +41976,7 @@
         <v>-0.3833257844166463</v>
       </c>
       <c r="BE129" t="n">
-        <v>-0.4198911327845019</v>
+        <v>-0.4198914733624339</v>
       </c>
       <c r="BF129" t="n">
         <v>-0.4595679615539657</v>
@@ -42070,10 +42070,10 @@
         <v>0.3858174963055157</v>
       </c>
       <c r="CI129" t="n">
-        <v>0.6069657762538915</v>
+        <v>0.6069658645487243</v>
       </c>
       <c r="CJ129" t="n">
-        <v>0.3930342237461085</v>
+        <v>0.3930341354512757</v>
       </c>
       <c r="CK129" t="n">
         <v>8.81500329960273e-05</v>
@@ -42094,10 +42094,10 @@
         <v>6.533392198926086e-05</v>
       </c>
       <c r="CQ129" t="n">
-        <v>1.794058760255703e-05</v>
+        <v>1.793993365588938e-05</v>
       </c>
       <c r="CR129" t="n">
-        <v>1.188396671951289e-05</v>
+        <v>1.188462066618098e-05</v>
       </c>
       <c r="CS129" t="n">
         <v>1</v>
@@ -42298,7 +42298,7 @@
         <v>-0.3720657225879068</v>
       </c>
       <c r="BE130" t="n">
-        <v>-0.4118224539164004</v>
+        <v>-0.4118228179769014</v>
       </c>
       <c r="BF130" t="n">
         <v>-0.4521434303268458</v>
@@ -42392,10 +42392,10 @@
         <v>0.4034777957482163</v>
       </c>
       <c r="CI130" t="n">
-        <v>0.5892421642566708</v>
+        <v>0.5892422592823512</v>
       </c>
       <c r="CJ130" t="n">
-        <v>0.4107578357433292</v>
+        <v>0.4107577407176488</v>
       </c>
       <c r="CK130" t="n">
         <v>0.000196241459537257</v>
@@ -42416,10 +42416,10 @@
         <v>0.0003438394054363428</v>
       </c>
       <c r="CQ130" t="n">
-        <v>0.0001193841567156692</v>
+        <v>0.0001193834529176659</v>
       </c>
       <c r="CR130" t="n">
-        <v>0.0002360016589497468</v>
+        <v>0.0002360030665457553</v>
       </c>
       <c r="CS130" t="n">
         <v>0</v>
@@ -42620,7 +42620,7 @@
         <v>-0.3485274137713638</v>
       </c>
       <c r="BE131" t="n">
-        <v>-0.3942168613792364</v>
+        <v>-0.3942172700168431</v>
       </c>
       <c r="BF131" t="n">
         <v>-0.434723100124927</v>
@@ -42714,10 +42714,10 @@
         <v>0.4409661721262698</v>
       </c>
       <c r="CI131" t="n">
-        <v>0.5519674856505135</v>
+        <v>0.5519675931706317</v>
       </c>
       <c r="CJ131" t="n">
-        <v>0.4480325143494865</v>
+        <v>0.4480324068293683</v>
       </c>
       <c r="CK131" t="n">
         <v>0.0004942161187021371</v>
@@ -42738,10 +42738,10 @@
         <v>0.0001438775513941414</v>
       </c>
       <c r="CQ131" t="n">
-        <v>0.0003161405469445169</v>
+        <v>0.000316138954270951</v>
       </c>
       <c r="CR131" t="n">
-        <v>9.154140888899525e-05</v>
+        <v>9.154220522577779e-05</v>
       </c>
       <c r="CS131" t="n">
         <v>0</v>
@@ -42942,7 +42942,7 @@
         <v>-0.336253719002902</v>
       </c>
       <c r="BE132" t="n">
-        <v>-0.3846213302144276</v>
+        <v>-0.3846217587882621</v>
       </c>
       <c r="BF132" t="n">
         <v>-0.424619768062609</v>
@@ -43036,10 +43036,10 @@
         <v>0.4607191219655771</v>
       </c>
       <c r="CI132" t="n">
-        <v>0.5325031633329276</v>
+        <v>0.5325032762178868</v>
       </c>
       <c r="CJ132" t="n">
-        <v>0.4674968366670724</v>
+        <v>0.4674967237821132</v>
       </c>
       <c r="CK132" t="n">
         <v>0.0001469756700638414</v>
@@ -43060,10 +43060,10 @@
         <v>0.0007085341631540842</v>
       </c>
       <c r="CQ132" t="n">
-        <v>5.261910788194844e-05</v>
+        <v>5.261827181101807e-05</v>
       </c>
       <c r="CR132" t="n">
-        <v>0.0005579388064879866</v>
+        <v>0.0005579413147007769</v>
       </c>
       <c r="CS132" t="n">
         <v>0</v>
@@ -43264,7 +43264,7 @@
         <v>-0.2974793207319874</v>
       </c>
       <c r="BE133" t="n">
-        <v>-0.3523634704880151</v>
+        <v>-0.352363939793344</v>
       </c>
       <c r="BF133" t="n">
         <v>-0.3882787770315819</v>
@@ -43358,10 +43358,10 @@
         <v>0.5235387555166697</v>
       </c>
       <c r="CI133" t="n">
-        <v>0.4712725242581406</v>
+        <v>0.4712726466773959</v>
       </c>
       <c r="CJ133" t="n">
-        <v>0.5287274757418594</v>
+        <v>0.5287273533226041</v>
       </c>
       <c r="CK133" t="n">
         <v>0.001120660891907493</v>
@@ -43382,10 +43382,10 @@
         <v>0.0006548534218229728</v>
       </c>
       <c r="CQ133" t="n">
-        <v>0.0008025566313513109</v>
+        <v>0.0008025539112941488</v>
       </c>
       <c r="CR133" t="n">
-        <v>0.0005395642414181591</v>
+        <v>0.0005395669614753212</v>
       </c>
       <c r="CS133" t="n">
         <v>0</v>
@@ -43586,7 +43586,7 @@
         <v>-0.2559814760787715</v>
       </c>
       <c r="BE134" t="n">
-        <v>-0.3145899521686604</v>
+        <v>-0.3145904143527152</v>
       </c>
       <c r="BF134" t="n">
         <v>-0.3428072248972517</v>
@@ -43680,10 +43680,10 @@
         <v>0.5903633891418185</v>
       </c>
       <c r="CI134" t="n">
-        <v>0.4068966792994086</v>
+        <v>0.4068967961835995</v>
       </c>
       <c r="CJ134" t="n">
-        <v>0.5931033207005914</v>
+        <v>0.5931032038164006</v>
       </c>
       <c r="CK134" t="n">
         <v>0.001220143807592227</v>
@@ -43704,10 +43704,10 @@
         <v>6.634422528367309e-05</v>
       </c>
       <c r="CQ134" t="n">
-        <v>0.0008908151355867307</v>
+        <v>0.0008908125385142397</v>
       </c>
       <c r="CR134" t="n">
-        <v>4.605120182336886e-05</v>
+        <v>4.605206751419951e-05</v>
       </c>
       <c r="CS134" t="n">
         <v>1</v>
@@ -43908,7 +43908,7 @@
         <v>-0.2416090730639162</v>
       </c>
       <c r="BE135" t="n">
-        <v>-0.3007698697625237</v>
+        <v>-0.3007703147228371</v>
       </c>
       <c r="BF135" t="n">
         <v>-0.3257979671003994</v>
@@ -44002,10 +44002,10 @@
         <v>0.6130062580321451</v>
       </c>
       <c r="CI135" t="n">
-        <v>0.3851654523774669</v>
+        <v>0.3851655631895905</v>
       </c>
       <c r="CJ135" t="n">
-        <v>0.6148345476225331</v>
+        <v>0.6148344368104095</v>
       </c>
       <c r="CK135" t="n">
         <v>0.0002240195908973655</v>
@@ -44026,10 +44026,10 @@
         <v>0.0001104477644817518</v>
       </c>
       <c r="CQ135" t="n">
-        <v>0.0001148989125457928</v>
+        <v>0.0001148980918271084</v>
       </c>
       <c r="CR135" t="n">
-        <v>8.336568395957318e-05</v>
+        <v>8.336732539694115e-05</v>
       </c>
       <c r="CS135" t="n">
         <v>1</v>
@@ -44230,7 +44230,7 @@
         <v>-0.2121674494211669</v>
       </c>
       <c r="BE136" t="n">
-        <v>-0.271408410845083</v>
+        <v>-0.271408795437687</v>
       </c>
       <c r="BF136" t="n">
         <v>-0.2895531655320329</v>
@@ -44324,10 +44324,10 @@
         <v>0.6586036824441707</v>
       </c>
       <c r="CI136" t="n">
-        <v>0.3413631608345747</v>
+        <v>0.3413632529075524</v>
       </c>
       <c r="CJ136" t="n">
-        <v>0.6586368391654254</v>
+        <v>0.6586367470924477</v>
       </c>
       <c r="CK136" t="n">
         <v>0.0007755514716185283</v>
@@ -44348,10 +44348,10 @@
         <v>-6.611091774494371e-06</v>
       </c>
       <c r="CQ136" t="n">
-        <v>0.0005654687199867208</v>
+        <v>0.0005654673561284957</v>
       </c>
       <c r="CR136" t="n">
-        <v>-6.856663646585132e-06</v>
+        <v>-6.855981717472127e-06</v>
       </c>
       <c r="CS136" t="n">
         <v>1</v>
@@ -44552,7 +44552,7 @@
         <v>-0.1971430978620403</v>
       </c>
       <c r="BE137" t="n">
-        <v>-0.2559465696883039</v>
+        <v>-0.2559469108678766</v>
       </c>
       <c r="BF137" t="n">
         <v>-0.2705810055153952</v>
@@ -44646,10 +44646,10 @@
         <v>0.6809996891713015</v>
       </c>
       <c r="CI137" t="n">
-        <v>0.3197893857393536</v>
+        <v>0.3197894654943374</v>
       </c>
       <c r="CJ137" t="n">
-        <v>0.6802106142606463</v>
+        <v>0.6802105345056626</v>
       </c>
       <c r="CK137" t="n">
         <v>0.0002684493104852643</v>
@@ -44670,10 +44670,10 @@
         <v>-3.826864680657547e-05</v>
       </c>
       <c r="CQ137" t="n">
-        <v>0.0001666406271302614</v>
+        <v>0.0001666400364331135</v>
       </c>
       <c r="CR137" t="n">
-        <v>-3.242444401158496e-05</v>
+        <v>-3.242385331443751e-05</v>
       </c>
       <c r="CS137" t="n">
         <v>1</v>
@@ -44874,7 +44874,7 @@
         <v>-0.1819495271769522</v>
       </c>
       <c r="BE138" t="n">
-        <v>-0.2400363049062646</v>
+        <v>-0.2400365942857126</v>
       </c>
       <c r="BF138" t="n">
         <v>-0.2512468782824899</v>
@@ -44968,10 +44968,10 @@
         <v>0.7030791367324098</v>
       </c>
       <c r="CI138" t="n">
-        <v>0.2984447886034297</v>
+        <v>0.2984448544547082</v>
       </c>
       <c r="CJ138" t="n">
-        <v>0.7015552113965703</v>
+        <v>0.7015551455452917</v>
       </c>
       <c r="CK138" t="n">
         <v>0.0002884106103764007</v>
@@ -44992,10 +44992,10 @@
         <v>5.868836159196589e-05</v>
       </c>
       <c r="CQ138" t="n">
-        <v>0.0001905110243289473</v>
+        <v>0.0001905105366081738</v>
       </c>
       <c r="CR138" t="n">
-        <v>8.126195653664764e-05</v>
+        <v>8.126293197819635e-05</v>
       </c>
       <c r="CS138" t="n">
         <v>1</v>
@@ -45196,7 +45196,7 @@
         <v>-0.151164630330642</v>
       </c>
       <c r="BE139" t="n">
-        <v>-0.2071529436312675</v>
+        <v>-0.2071531079561902</v>
       </c>
       <c r="BF139" t="n">
         <v>-0.2121649776612464</v>
@@ -45290,10 +45290,10 @@
         <v>0.74554547802807</v>
       </c>
       <c r="CI139" t="n">
-        <v>0.2571017898127171</v>
+        <v>0.2571018249324873</v>
       </c>
       <c r="CJ139" t="n">
-        <v>0.742898210187283</v>
+        <v>0.7428981750675127</v>
       </c>
       <c r="CK139" t="n">
         <v>0.0007083919799495508</v>
@@ -45314,10 +45314,10 @@
         <v>0.0001957967109526247</v>
       </c>
       <c r="CQ139" t="n">
-        <v>0.0005311434458486839</v>
+        <v>0.0005311429256266952</v>
       </c>
       <c r="CR139" t="n">
-        <v>0.0002546168682227533</v>
+        <v>0.000254617648555739</v>
       </c>
       <c r="CS139" t="n">
         <v>1</v>
@@ -45518,7 +45518,7 @@
         <v>-0.1044420893842545</v>
       </c>
       <c r="BE140" t="n">
-        <v>-0.1564534077593721</v>
+        <v>-0.156453353969773</v>
       </c>
       <c r="BF140" t="n">
         <v>-0.1549892856327358</v>
@@ -45612,10 +45612,10 @@
         <v>0.8035669803303667</v>
       </c>
       <c r="CI140" t="n">
-        <v>0.1997543245224009</v>
+        <v>0.1997543143019178</v>
       </c>
       <c r="CJ140" t="n">
-        <v>0.8002456754775992</v>
+        <v>0.8002456856980822</v>
       </c>
       <c r="CK140" t="n">
         <v>0.001239180862646076</v>
@@ -45636,10 +45636,10 @@
         <v>0.0008768419544216526</v>
       </c>
       <c r="CQ140" t="n">
-        <v>0.001019597578630072</v>
+        <v>0.001019597805720966</v>
       </c>
       <c r="CR140" t="n">
-        <v>0.0009998364815663775</v>
+        <v>0.0009998361030815577</v>
       </c>
       <c r="CS140" t="n">
         <v>0</v>
@@ -45840,7 +45840,7 @@
         <v>-0.02726547200874566</v>
       </c>
       <c r="BE141" t="n">
-        <v>-0.07456660349040289</v>
+        <v>-0.0745662314333817</v>
       </c>
       <c r="BF141" t="n">
         <v>-0.0720792510170495</v>
@@ -45934,10 +45934,10 @@
         <v>0.8792854296387302</v>
       </c>
       <c r="CI141" t="n">
-        <v>0.1229920778282463</v>
+        <v>0.1229920228631347</v>
       </c>
       <c r="CJ141" t="n">
-        <v>0.8770079221717537</v>
+        <v>0.8770079771368653</v>
       </c>
       <c r="CK141" t="n">
         <v>0.002101599553928631</v>
@@ -45958,10 +45958,10 @@
         <v>-9.085621219484877e-05</v>
       </c>
       <c r="CQ141" t="n">
-        <v>0.00184282224843465</v>
+        <v>0.0018428242839021</v>
       </c>
       <c r="CR141" t="n">
-        <v>-5.71199589585996e-05</v>
+        <v>-5.712077314557959e-05</v>
       </c>
       <c r="CS141" t="n">
         <v>1</v>
@@ -46162,7 +46162,7 @@
         <v>0.002603107058895857</v>
       </c>
       <c r="BE142" t="n">
-        <v>-0.04469757028527858</v>
+        <v>-0.04469712043790458</v>
       </c>
       <c r="BF142" t="n">
         <v>-0.04484227372675482</v>
@@ -46256,10 +46256,10 @@
         <v>0.9026443862321565</v>
       </c>
       <c r="CI142" t="n">
-        <v>0.09886588426646403</v>
+        <v>0.09886582545140578</v>
       </c>
       <c r="CJ142" t="n">
-        <v>0.901134115733536</v>
+        <v>0.9011341745485942</v>
       </c>
       <c r="CK142" t="n">
         <v>0.0005061031454901717</v>
@@ -46280,10 +46280,10 @@
         <v>1.050747292121595e-05</v>
       </c>
       <c r="CQ142" t="n">
-        <v>0.0004144963396856666</v>
+        <v>0.0004144972109011197</v>
       </c>
       <c r="CR142" t="n">
-        <v>3.287880154932178e-05</v>
+        <v>3.287793033386957e-05</v>
       </c>
       <c r="CS142" t="n">
         <v>1</v>
@@ -46484,7 +46484,7 @@
         <v>0.03153382829511781</v>
       </c>
       <c r="BE143" t="n">
-        <v>-0.01718358292368738</v>
+        <v>-0.01718308878228948</v>
       </c>
       <c r="BF143" t="n">
         <v>-0.02113642085944527</v>
@@ -46578,10 +46578,10 @@
         <v>0.921339884792024</v>
       </c>
       <c r="CI143" t="n">
-        <v>0.07942166854247469</v>
+        <v>0.0794216115205973</v>
       </c>
       <c r="CJ143" t="n">
-        <v>0.9205783314575253</v>
+        <v>0.9205783884794027</v>
       </c>
       <c r="CK143" t="n">
         <v>0.0003384187973300872</v>
@@ -46596,7 +46596,7 @@
       </c>
       <c r="CP143" t="inlineStr"/>
       <c r="CQ143" t="n">
-        <v>0.000255144397125697</v>
+        <v>0.0002551452417791278</v>
       </c>
       <c r="CR143" t="inlineStr"/>
       <c r="CS143" t="n">
@@ -46798,7 +46798,7 @@
         <v>-0.4252481502320126</v>
       </c>
       <c r="BE144" t="n">
-        <v>-0.489889393527619</v>
+        <v>-0.4898893276672568</v>
       </c>
       <c r="BF144" t="n">
         <v>-0.4608481912733937</v>
@@ -46892,10 +46892,10 @@
         <v>0.09239208423638401</v>
       </c>
       <c r="CI144" t="n">
-        <v>0.9114889484810892</v>
+        <v>0.9114889409291016</v>
       </c>
       <c r="CJ144" t="n">
-        <v>0.08851105151891081</v>
+        <v>0.0885110590708984</v>
       </c>
       <c r="CK144" t="inlineStr"/>
       <c r="CL144" t="n">
@@ -46911,7 +46911,7 @@
       </c>
       <c r="CQ144" t="inlineStr"/>
       <c r="CR144" t="n">
-        <v>-0.0002732057116281803</v>
+        <v>-0.0002732061590923832</v>
       </c>
       <c r="CS144" t="n">
         <v>1</v>
@@ -47112,7 +47112,7 @@
         <v>-0.4123281668889728</v>
       </c>
       <c r="BE145" t="n">
-        <v>-0.4605288632553669</v>
+        <v>-0.4605288180657838</v>
       </c>
       <c r="BF145" t="n">
         <v>-0.4483008573965767</v>
@@ -47206,10 +47206,10 @@
         <v>0.1181223412859157</v>
       </c>
       <c r="CI145" t="n">
-        <v>0.8844261171159081</v>
+        <v>0.8844261103808607</v>
       </c>
       <c r="CJ145" t="n">
-        <v>0.1155738828840919</v>
+        <v>0.1155738896191393</v>
       </c>
       <c r="CK145" t="n">
         <v>0.002302360528258232</v>
@@ -47230,10 +47230,10 @@
         <v>-0.0002027992349884604</v>
       </c>
       <c r="CQ145" t="n">
-        <v>0.00187671050002336</v>
+        <v>0.001876710899082888</v>
       </c>
       <c r="CR145" t="n">
-        <v>-0.0001650494408593072</v>
+        <v>-0.0001650495406241897</v>
       </c>
       <c r="CS145" t="n">
         <v>1</v>
@@ -47434,7 +47434,7 @@
         <v>-0.4095519661181835</v>
       </c>
       <c r="BE146" t="n">
-        <v>-0.4538498622519926</v>
+        <v>-0.4538498219345937</v>
       </c>
       <c r="BF146" t="n">
         <v>-0.4455811566729173</v>
@@ -47528,10 +47528,10 @@
         <v>0.1260042198484145</v>
       </c>
       <c r="CI146" t="n">
-        <v>0.8760833955180197</v>
+        <v>0.876083389122123</v>
       </c>
       <c r="CJ146" t="n">
-        <v>0.1239166044819803</v>
+        <v>0.123916610877877</v>
       </c>
       <c r="CK146" t="n">
         <v>0.0003927232811010428</v>
@@ -47552,10 +47552,10 @@
         <v>-0.0001994044111152699</v>
       </c>
       <c r="CQ146" t="n">
-        <v>0.0002886284730192097</v>
+        <v>0.0002886285677603222</v>
       </c>
       <c r="CR146" t="n">
-        <v>-0.0001684809908046425</v>
+        <v>-0.0001684810855457548</v>
       </c>
       <c r="CS146" t="n">
         <v>1</v>
@@ -47756,7 +47756,7 @@
         <v>-0.4069233787315361</v>
       </c>
       <c r="BE147" t="n">
-        <v>-0.4473832640073887</v>
+        <v>-0.447383228571001</v>
       </c>
       <c r="BF147" t="n">
         <v>-0.4429744806547634</v>
@@ -47850,10 +47850,10 @@
         <v>0.1344672245698676</v>
       </c>
       <c r="CI147" t="n">
-        <v>0.8671034054515554</v>
+        <v>0.8671033994791657</v>
       </c>
       <c r="CJ147" t="n">
-        <v>0.1328965945484446</v>
+        <v>0.1328966005208343</v>
       </c>
       <c r="CK147" t="n">
         <v>0.0004025088230165189</v>
@@ -47874,10 +47874,10 @@
         <v>-0.0001388920875225802</v>
       </c>
       <c r="CQ147" t="n">
-        <v>0.0003014997507138264</v>
+        <v>0.000301499839181615</v>
       </c>
       <c r="CR147" t="n">
-        <v>-9.236124368431839e-05</v>
+        <v>-9.236142061989742e-05</v>
       </c>
       <c r="CS147" t="n">
         <v>1</v>
@@ -48078,7 +48078,7 @@
         <v>-0.402037395919718</v>
       </c>
       <c r="BE148" t="n">
-        <v>-0.4349840540980234</v>
+        <v>-0.4349840286707963</v>
       </c>
       <c r="BF148" t="n">
         <v>-0.4379704461992303</v>
@@ -48172,10 +48172,10 @@
         <v>0.1537745789650435</v>
       </c>
       <c r="CI148" t="n">
-        <v>0.8465962241083205</v>
+        <v>0.8465962192924171</v>
       </c>
       <c r="CJ148" t="n">
-        <v>0.1534037758916795</v>
+        <v>0.1534037807075829</v>
       </c>
       <c r="CK148" t="n">
         <v>0.0008847646771949318</v>
@@ -48196,10 +48196,10 @@
         <v>2.503204571305088e-05</v>
       </c>
       <c r="CQ148" t="n">
-        <v>0.0006998986265369204</v>
+        <v>0.0006998987692109042</v>
       </c>
       <c r="CR148" t="n">
-        <v>3.601730619203717e-05</v>
+        <v>3.601716351805083e-05</v>
       </c>
       <c r="CS148" t="n">
         <v>1</v>
@@ -48400,7 +48400,7 @@
         <v>-0.3975158923463029</v>
       </c>
       <c r="BE149" t="n">
-        <v>-0.4231192430412722</v>
+        <v>-0.4231192284423307</v>
       </c>
       <c r="BF149" t="n">
         <v>-0.4329844851957915</v>
@@ -48494,10 +48494,10 @@
         <v>0.1765013985734476</v>
       </c>
       <c r="CI149" t="n">
-        <v>0.8224625241630017</v>
+        <v>0.8224625210791278</v>
       </c>
       <c r="CJ149" t="n">
-        <v>0.1775374758369983</v>
+        <v>0.1775374789208722</v>
       </c>
       <c r="CK149" t="n">
         <v>0.0008391860876743873</v>
@@ -48518,10 +48518,10 @@
         <v>-1.232494096966782e-06</v>
       </c>
       <c r="CQ149" t="n">
-        <v>0.0006789578363164891</v>
+        <v>0.0006789579276780776</v>
       </c>
       <c r="CR149" t="n">
-        <v>-1.657969512365185e-05</v>
+        <v>-1.657974080444737e-05</v>
       </c>
       <c r="CS149" t="n">
         <v>1</v>
@@ -48722,7 +48722,7 @@
         <v>-0.3953367692724951</v>
       </c>
       <c r="BE150" t="n">
-        <v>-0.4173166400634936</v>
+        <v>-0.4173166313700246</v>
       </c>
       <c r="BF150" t="n">
         <v>-0.4303777158941446</v>
@@ -48816,10 +48816,10 @@
         <v>0.1893411726312941</v>
       </c>
       <c r="CI150" t="n">
-        <v>0.8088565319464877</v>
+        <v>0.8088565300132431</v>
       </c>
       <c r="CJ150" t="n">
-        <v>0.1911434680535123</v>
+        <v>0.1911434699867569</v>
       </c>
       <c r="CK150" t="n">
         <v>0.0002905253621956379</v>
@@ -48840,10 +48840,10 @@
         <v>1.883493910854713e-05</v>
       </c>
       <c r="CQ150" t="n">
-        <v>0.0002181224806479202</v>
+        <v>0.0002181225092846781</v>
       </c>
       <c r="CR150" t="n">
-        <v>-7.862095106318627e-06</v>
+        <v>-7.862123743075655e-06</v>
       </c>
       <c r="CS150" t="n">
         <v>1</v>
@@ -49044,7 +49044,7 @@
         <v>-0.3931781665707416</v>
       </c>
       <c r="BE151" t="n">
-        <v>-0.4115596556115051</v>
+        <v>-0.4115596532729827</v>
       </c>
       <c r="BF151" t="n">
         <v>-0.4276148620047802</v>
@@ -49138,10 +49138,10 @@
         <v>0.2031702865744149</v>
       </c>
       <c r="CI151" t="n">
-        <v>0.7942342286162529</v>
+        <v>0.7942342280701831</v>
       </c>
       <c r="CJ151" t="n">
-        <v>0.2057657713837471</v>
+        <v>0.2057657719298169</v>
       </c>
       <c r="CK151" t="n">
         <v>0.0002880398455816589</v>
@@ -49162,10 +49162,10 @@
         <v>0.0009137954480956945</v>
       </c>
       <c r="CQ151" t="n">
-        <v>0.0002244592897143686</v>
+        <v>0.0002244592978031899</v>
       </c>
       <c r="CR151" t="n">
-        <v>0.0007984562879812755</v>
+        <v>0.0007984562637148116</v>
       </c>
       <c r="CS151" t="n">
         <v>0</v>
@@ -49366,7 +49366,7 @@
         <v>-0.3865135083891173</v>
       </c>
       <c r="BE152" t="n">
-        <v>-0.3942124594593522</v>
+        <v>-0.3942124798474066</v>
       </c>
       <c r="BF152" t="n">
         <v>-0.4175955674525372</v>
@@ -49460,10 +49460,10 @@
         <v>0.2515434363599331</v>
       </c>
       <c r="CI152" t="n">
-        <v>0.7435065863810483</v>
+        <v>0.7435065918035033</v>
       </c>
       <c r="CJ152" t="n">
-        <v>0.2564934136189517</v>
+        <v>0.2564934081964967</v>
       </c>
       <c r="CK152" t="n">
         <v>0.001546791770750414</v>
@@ -49484,10 +49484,10 @@
         <v>0.0001187174350285136</v>
       </c>
       <c r="CQ152" t="n">
-        <v>0.001455798342581881</v>
+        <v>0.001455798101616723</v>
       </c>
       <c r="CR152" t="n">
-        <v>4.539443225232056e-05</v>
+        <v>4.539451257404032e-05</v>
       </c>
       <c r="CS152" t="n">
         <v>0</v>
@@ -49688,7 +49688,7 @@
         <v>-0.3841027015700793</v>
       </c>
       <c r="BE153" t="n">
-        <v>-0.3882715095004247</v>
+        <v>-0.38827153904696</v>
       </c>
       <c r="BF153" t="n">
         <v>-0.4133435425111005</v>
@@ -49782,10 +49782,10 @@
         <v>0.2701992489413862</v>
       </c>
       <c r="CI153" t="n">
-        <v>0.7241642367170655</v>
+        <v>0.7241642448737857</v>
       </c>
       <c r="CJ153" t="n">
-        <v>0.2758357632829345</v>
+        <v>0.2758357551262143</v>
       </c>
       <c r="CK153" t="n">
         <v>0.0002581672362992737</v>
@@ -49806,10 +49806,10 @@
         <v>0.0001127068178284479</v>
       </c>
       <c r="CQ153" t="n">
-        <v>0.0002411198452681243</v>
+        <v>0.0002411197244442925</v>
       </c>
       <c r="CR153" t="n">
-        <v>2.921428138084881e-05</v>
+        <v>2.921440220468065e-05</v>
       </c>
       <c r="CS153" t="n">
         <v>0</v>
@@ -50010,7 +50010,7 @@
         <v>-0.3815198012294155</v>
       </c>
       <c r="BE154" t="n">
-        <v>-0.3821744811480653</v>
+        <v>-0.3821745208316314</v>
       </c>
       <c r="BF154" t="n">
         <v>-0.4084255171650377</v>
@@ -50104,10 +50104,10 @@
         <v>0.2902207692767137</v>
       </c>
       <c r="CI154" t="n">
-        <v>0.7035657654580787</v>
+        <v>0.7035657767907736</v>
       </c>
       <c r="CJ154" t="n">
-        <v>0.2964342345419213</v>
+        <v>0.2964342232092264</v>
       </c>
       <c r="CK154" t="n">
         <v>0.0002786760872778311</v>
@@ -50128,10 +50128,10 @@
         <v>0.0001465445748709817</v>
       </c>
       <c r="CQ154" t="n">
-        <v>0.0002759066689338417</v>
+        <v>0.0002759065010649441</v>
       </c>
       <c r="CR154" t="n">
-        <v>5.450578215520935e-05</v>
+        <v>5.450595002410522e-05</v>
       </c>
       <c r="CS154" t="n">
         <v>0</v>
@@ -50332,7 +50332,7 @@
         <v>-0.3787074576571087</v>
       </c>
       <c r="BE155" t="n">
-        <v>-0.3758679214075215</v>
+        <v>-0.3758679723120836</v>
       </c>
       <c r="BF155" t="n">
         <v>-0.4026869466178498</v>
@@ -50426,10 +50426,10 @@
         <v>0.3117968273912949</v>
       </c>
       <c r="CI155" t="n">
-        <v>0.6815674885124617</v>
+        <v>0.6815675034975275</v>
       </c>
       <c r="CJ155" t="n">
-        <v>0.3184325114875383</v>
+        <v>0.3184324965024725</v>
       </c>
       <c r="CK155" t="n">
         <v>0.0002589683294481268</v>
@@ -50450,10 +50450,10 @@
         <v>0.0001723725705365655</v>
       </c>
       <c r="CQ155" t="n">
-        <v>0.0002713502040750868</v>
+        <v>0.0002713499821043672</v>
       </c>
       <c r="CR155" t="n">
-        <v>7.407953645760437e-05</v>
+        <v>7.407975842832482e-05</v>
       </c>
       <c r="CS155" t="n">
         <v>0</v>
@@ -50654,7 +50654,7 @@
         <v>-0.3755992668776411</v>
       </c>
       <c r="BE156" t="n">
-        <v>-0.3692926844964102</v>
+        <v>-0.3692927477916428</v>
       </c>
       <c r="BF156" t="n">
         <v>-0.3959535340829186</v>
@@ -50748,10 +50748,10 @@
         <v>0.3349994454772487</v>
       </c>
       <c r="CI156" t="n">
-        <v>0.6581487346967925</v>
+        <v>0.6581487538304865</v>
       </c>
       <c r="CJ156" t="n">
-        <v>0.3418512653032075</v>
+        <v>0.3418512461695135</v>
       </c>
       <c r="CK156" t="n">
         <v>0.0002445780580060623</v>
@@ -50772,10 +50772,10 @@
         <v>0.0002041389525712133</v>
       </c>
       <c r="CQ156" t="n">
-        <v>0.0002728176837089764</v>
+        <v>0.0002728174002854713</v>
       </c>
       <c r="CR156" t="n">
-        <v>0.0001026443440443926</v>
+        <v>0.0001026446274678978</v>
       </c>
       <c r="CS156" t="n">
         <v>0</v>
@@ -50976,7 +50976,7 @@
         <v>-0.3721182658537832</v>
       </c>
       <c r="BE157" t="n">
-        <v>-0.3623834879411935</v>
+        <v>-0.3623835648463974</v>
       </c>
       <c r="BF157" t="n">
         <v>-0.388032972620411</v>
@@ -51070,10 +51070,10 @@
         <v>0.3599140350563034</v>
       </c>
       <c r="CI157" t="n">
-        <v>0.6332790647698189</v>
+        <v>0.6332790885455024</v>
       </c>
       <c r="CJ157" t="n">
-        <v>0.3667209352301811</v>
+        <v>0.3667209114544976</v>
       </c>
       <c r="CK157" t="n">
         <v>0.0002211649689244817</v>
@@ -51094,10 +51094,10 @@
         <v>0.0007214978728317337</v>
       </c>
       <c r="CQ157" t="n">
-        <v>0.0002657450003260495</v>
+        <v>0.0002657446481417036</v>
       </c>
       <c r="CR157" t="n">
-        <v>0.0005198394270531509</v>
+        <v>0.0005198401314218445</v>
       </c>
       <c r="CS157" t="n">
         <v>0</v>
@@ -51298,7 +51298,7 @@
         <v>-0.3636671575460406</v>
       </c>
       <c r="BE158" t="n">
-        <v>-0.3472701402455863</v>
+        <v>-0.3472702478678741</v>
       </c>
       <c r="BF158" t="n">
         <v>-0.3678029488681626</v>
@@ -51392,10 +51392,10 @@
         <v>0.4149219032245697</v>
       </c>
       <c r="CI158" t="n">
-        <v>0.5793610145848576</v>
+        <v>0.5793610489173382</v>
       </c>
       <c r="CJ158" t="n">
-        <v>0.4206389854151424</v>
+        <v>0.4206389510826618</v>
       </c>
       <c r="CK158" t="n">
         <v>0.0009225492772552586</v>
@@ -51416,10 +51416,10 @@
         <v>0.0001616856053201707</v>
       </c>
       <c r="CQ158" t="n">
-        <v>0.001077514716825358</v>
+        <v>0.001077513699705303</v>
       </c>
       <c r="CR158" t="n">
-        <v>7.699963377002985e-05</v>
+        <v>7.700014233005727e-05</v>
       </c>
       <c r="CS158" t="n">
         <v>0</v>
@@ -51620,7 +51620,7 @@
         <v>-0.358474966498333</v>
       </c>
       <c r="BE159" t="n">
-        <v>-0.3389040527167027</v>
+        <v>-0.338904177203824</v>
       </c>
       <c r="BF159" t="n">
         <v>-0.3550819735434193</v>
@@ -51714,10 +51714,10 @@
         <v>0.4451362006948796</v>
       </c>
       <c r="CI159" t="n">
-        <v>0.5502811370818996</v>
+        <v>0.5502811771233391</v>
       </c>
       <c r="CJ159" t="n">
-        <v>0.4497188629181004</v>
+        <v>0.4497188228766609</v>
       </c>
       <c r="CK159" t="n">
         <v>0.0002605079713395384</v>
@@ -51738,10 +51738,10 @@
         <v>0.0001901363718301002</v>
       </c>
       <c r="CQ159" t="n">
-        <v>0.0003537546560594875</v>
+        <v>0.0003537540629338174</v>
       </c>
       <c r="CR159" t="n">
-        <v>0.0001222543317048906</v>
+        <v>0.0001222549248305616</v>
       </c>
       <c r="CS159" t="n">
         <v>0</v>
@@ -51942,7 +51942,7 @@
         <v>-0.3524622713510671</v>
       </c>
       <c r="BE160" t="n">
-        <v>-0.3298817745075541</v>
+        <v>-0.3298819164144245</v>
       </c>
       <c r="BF160" t="n">
         <v>-0.340384674674081</v>
@@ -52036,10 +52036,10 @@
         <v>0.4771044513226165</v>
       </c>
       <c r="CI160" t="n">
-        <v>0.5198715535570116</v>
+        <v>0.5198715993281058</v>
       </c>
       <c r="CJ160" t="n">
-        <v>0.4801284464429884</v>
+        <v>0.4801284006718942</v>
       </c>
       <c r="CK160" t="n">
         <v>0.0002203122833591966</v>
@@ -52060,10 +52060,10 @@
         <v>1.297621238926161e-05</v>
       </c>
       <c r="CQ160" t="n">
-        <v>0.0003281966220152954</v>
+        <v>0.0003281959440174205</v>
       </c>
       <c r="CR160" t="n">
-        <v>-9.420698849294841e-06</v>
+        <v>-9.420359850357413e-06</v>
       </c>
       <c r="CS160" t="n">
         <v>0</v>
@@ -52264,7 +52264,7 @@
         <v>-0.3491004485944549</v>
       </c>
       <c r="BE161" t="n">
-        <v>-0.3250960599058075</v>
+        <v>-0.3250962105065054</v>
       </c>
       <c r="BF161" t="n">
         <v>-0.3322553446310922</v>
@@ -52358,10 +52358,10 @@
         <v>0.4937023489483353</v>
       </c>
       <c r="CI161" t="n">
-        <v>0.5042096229883594</v>
+        <v>0.5042096715248759</v>
       </c>
       <c r="CJ161" t="n">
-        <v>0.4957903770116406</v>
+        <v>0.4957903284751241</v>
       </c>
       <c r="CK161" t="n">
         <v>6.812120901502879e-05</v>
@@ -52382,10 +52382,10 @@
         <v>0.0003760112115203697</v>
       </c>
       <c r="CQ161" t="n">
-        <v>0.0001254191891932213</v>
+        <v>0.0001254188297124645</v>
       </c>
       <c r="CR161" t="n">
-        <v>0.0003296169112626569</v>
+        <v>0.0003296179897049282</v>
       </c>
       <c r="CS161" t="n">
         <v>0</v>
@@ -52586,7 +52586,7 @@
         <v>-0.3373340697844947</v>
       </c>
       <c r="BE162" t="n">
-        <v>-0.309503929213257</v>
+        <v>-0.3095041047931054</v>
       </c>
       <c r="BF162" t="n">
         <v>-0.3046760631154596</v>
@@ -52680,10 +52680,10 @@
         <v>0.545673248774338</v>
       </c>
       <c r="CI162" t="n">
-        <v>0.4556024375846881</v>
+        <v>0.4556024935084608</v>
       </c>
       <c r="CJ162" t="n">
-        <v>0.5443975624153119</v>
+        <v>0.5443975064915392</v>
       </c>
       <c r="CK162" t="n">
         <v>0.0005534412525720952</v>
@@ -52704,10 +52704,10 @@
         <v>0.0007238709561651728</v>
       </c>
       <c r="CQ162" t="n">
-        <v>0.0007503955626743265</v>
+        <v>0.0007503943200931826</v>
       </c>
       <c r="CR162" t="n">
-        <v>0.0007616639194657632</v>
+        <v>0.0007616655762406228</v>
       </c>
       <c r="CS162" t="n">
         <v>0</v>
@@ -52908,7 +52908,7 @@
         <v>-0.3168046167068364</v>
       </c>
       <c r="BE163" t="n">
-        <v>-0.2854406766277277</v>
+        <v>-0.2854408773270874</v>
       </c>
       <c r="BF163" t="n">
         <v>-0.2609063075033372</v>
@@ -53002,10 +53002,10 @@
         <v>0.6184492393254907</v>
       </c>
       <c r="CI163" t="n">
-        <v>0.3881215330972995</v>
+        <v>0.3881215945356316</v>
       </c>
       <c r="CJ163" t="n">
-        <v>0.6118784669027004</v>
+        <v>0.6118784054643684</v>
       </c>
       <c r="CK163" t="n">
         <v>0.0009530575409886482</v>
@@ -53026,10 +53026,10 @@
         <v>0.0005953611608845964</v>
       </c>
       <c r="CQ163" t="n">
-        <v>0.001237497809228669</v>
+        <v>0.001237495989081724</v>
       </c>
       <c r="CR163" t="n">
-        <v>0.0007900241823036135</v>
+        <v>0.0007900260024505563</v>
       </c>
       <c r="CS163" t="n">
         <v>0</v>
@@ -53230,7 +53230,7 @@
         <v>-0.2891294910794081</v>
       </c>
       <c r="BE164" t="n">
-        <v>-0.257184322937643</v>
+        <v>-0.2571845280571554</v>
       </c>
       <c r="BF164" t="n">
         <v>-0.2112998292117639</v>
@@ -53324,10 +53324,10 @@
         <v>0.6917687760869444</v>
       </c>
       <c r="CI164" t="n">
-        <v>0.3198257232705095</v>
+        <v>0.3198257818067323</v>
       </c>
       <c r="CJ164" t="n">
-        <v>0.6801742767294905</v>
+        <v>0.6801742181932677</v>
       </c>
       <c r="CK164" t="n">
         <v>0.0009632011498816005</v>
@@ -53348,10 +53348,10 @@
         <v>0.00045074161246993</v>
       </c>
       <c r="CQ164" t="n">
-        <v>0.001233279599308067</v>
+        <v>0.001233277865137827</v>
       </c>
       <c r="CR164" t="n">
-        <v>0.0007942355172252495</v>
+        <v>0.000794237251395491</v>
       </c>
       <c r="CS164" t="n">
         <v>0</v>
@@ -53552,7 +53552,7 @@
         <v>-0.2524978413273924</v>
       </c>
       <c r="BE165" t="n">
-        <v>-0.2246648799424625</v>
+        <v>-0.2246650560352162</v>
       </c>
       <c r="BF165" t="n">
         <v>-0.1598550069550546</v>
@@ -53646,10 +53646,10 @@
         <v>0.7609871476073283</v>
       </c>
       <c r="CI165" t="n">
-        <v>0.2538991353210515</v>
+        <v>0.2538991806403269</v>
       </c>
       <c r="CJ165" t="n">
-        <v>0.7461008646789484</v>
+        <v>0.7461008193596731</v>
       </c>
       <c r="CK165" t="n">
         <v>0.0009466676487555649</v>
@@ -53670,10 +53670,10 @@
         <v>-9.208917605785065e-05</v>
       </c>
       <c r="CQ165" t="n">
-        <v>0.00115887866423322</v>
+        <v>0.001158877321622868</v>
       </c>
       <c r="CR165" t="n">
-        <v>1.816455919882286e-05</v>
+        <v>1.816489485141019e-05</v>
       </c>
       <c r="CS165" t="n">
         <v>0</v>
@@ -53874,7 +53874,7 @@
         <v>-0.2417561887713288</v>
       </c>
       <c r="BE166" t="n">
-        <v>-0.215924060028762</v>
+        <v>-0.2159242226975898</v>
       </c>
       <c r="BF166" t="n">
         <v>-0.1472428376864048</v>
@@ -53968,10 +53968,10 @@
         <v>0.7771123388782695</v>
       </c>
       <c r="CI166" t="n">
-        <v>0.238203397666118</v>
+        <v>0.2382034382460019</v>
       </c>
       <c r="CJ166" t="n">
-        <v>0.761796602333882</v>
+        <v>0.7617965617539981</v>
       </c>
       <c r="CK166" t="n">
         <v>5.035626858193977e-05</v>
@@ -53992,10 +53992,10 @@
         <v>-0.0001214058561869414</v>
       </c>
       <c r="CQ166" t="n">
-        <v>9.808431987941074e-05</v>
+        <v>9.808401932864157e-05</v>
       </c>
       <c r="CR166" t="n">
-        <v>-7.971416552138982e-06</v>
+        <v>-7.971116001370682e-06</v>
       </c>
       <c r="CS166" t="n">
         <v>0</v>
@@ -54196,7 +54196,7 @@
         <v>-0.2303467229080466</v>
       </c>
       <c r="BE167" t="n">
-        <v>-0.2069692704871845</v>
+        <v>-0.2069694172643674</v>
       </c>
       <c r="BF167" t="n">
         <v>-0.1348632695646508</v>
@@ -54290,10 +54290,10 @@
         <v>0.7927677636470571</v>
       </c>
       <c r="CI167" t="n">
-        <v>0.2228012650881624</v>
+        <v>0.2228013004905674</v>
       </c>
       <c r="CJ167" t="n">
-        <v>0.7771987349118377</v>
+        <v>0.7771986995094327</v>
       </c>
       <c r="CK167" t="n">
         <v>8.028401331435691e-05</v>
@@ -54314,10 +54314,10 @@
         <v>0.0002520616325246416</v>
       </c>
       <c r="CQ167" t="n">
-        <v>0.0001220457395922092</v>
+        <v>0.0001220454773879097</v>
       </c>
       <c r="CR167" t="n">
-        <v>0.0007133033221082691</v>
+        <v>0.0007133043709254688</v>
       </c>
       <c r="CS167" t="n">
         <v>0</v>
@@ -54518,7 +54518,7 @@
         <v>-0.1779566791030316</v>
       </c>
       <c r="BE168" t="n">
-        <v>-0.1694735416134705</v>
+        <v>-0.169473603541248</v>
       </c>
       <c r="BF168" t="n">
         <v>-0.08870354766530925</v>
@@ -54612,10 +54612,10 @@
         <v>0.8483314607072582</v>
       </c>
       <c r="CI168" t="n">
-        <v>0.1666673212859991</v>
+        <v>0.1666673340808062</v>
       </c>
       <c r="CJ168" t="n">
-        <v>0.8333326787140009</v>
+        <v>0.8333326659191937</v>
       </c>
       <c r="CK168" t="n">
         <v>0.0008977735457245195</v>
@@ -54636,10 +54636,10 @@
         <v>-0.000123232049734627</v>
       </c>
       <c r="CQ168" t="n">
-        <v>0.0009496979814818656</v>
+        <v>0.0009496976024281354</v>
       </c>
       <c r="CR168" t="n">
-        <v>-1.214510163527558e-05</v>
+        <v>-1.214500687184324e-05</v>
       </c>
       <c r="CS168" t="n">
         <v>0</v>
@@ -54840,7 +54840,7 @@
         <v>-0.1632175713135358</v>
       </c>
       <c r="BE169" t="n">
-        <v>-0.1598201894492566</v>
+        <v>-0.1598202262923586</v>
       </c>
       <c r="BF169" t="n">
         <v>-0.07819565159888697</v>
@@ -54934,10 +54934,10 @@
         <v>0.8606021386795081</v>
       </c>
       <c r="CI169" t="n">
-        <v>0.1539003748521071</v>
+        <v>0.1539003821315233</v>
       </c>
       <c r="CJ169" t="n">
-        <v>0.8460996251478929</v>
+        <v>0.8460996178684766</v>
       </c>
       <c r="CK169" t="n">
         <v>0.0001017306378912695</v>
@@ -54958,10 +54958,10 @@
         <v>0.0003712248341125879</v>
       </c>
       <c r="CQ169" t="n">
-        <v>0.0001067021874390733</v>
+        <v>0.0001067021335248199</v>
       </c>
       <c r="CR169" t="n">
-        <v>0.0009082817660424278</v>
+        <v>0.0009082820356136959</v>
       </c>
       <c r="CS169" t="n">
         <v>0</v>
@@ -55162,7 +55162,7 @@
         <v>-0.08139345710906327</v>
       </c>
       <c r="BE170" t="n">
-        <v>-0.1115093753046704</v>
+        <v>-0.1115092842569521</v>
       </c>
       <c r="BF170" t="n">
         <v>-0.03275980642593598</v>
@@ -55256,10 +55256,10 @@
         <v>0.9104003338647267</v>
       </c>
       <c r="CI170" t="n">
-        <v>0.1005072921957757</v>
+        <v>0.1005072781583226</v>
       </c>
       <c r="CJ170" t="n">
-        <v>0.8994927078042243</v>
+        <v>0.8994927218416774</v>
       </c>
       <c r="CK170" t="n">
         <v>0.00124091645245378</v>
@@ -55280,10 +55280,10 @@
         <v>8.625059526232159e-05</v>
       </c>
       <c r="CQ170" t="n">
-        <v>0.001068970321685289</v>
+        <v>0.001068970841520107</v>
       </c>
       <c r="CR170" t="n">
-        <v>0.0004093954721236213</v>
+        <v>0.0004093950562557673</v>
       </c>
       <c r="CS170" t="n">
         <v>0</v>
@@ -55484,7 +55484,7 @@
         <v>-0.01024667857242626</v>
       </c>
       <c r="BE171" t="n">
-        <v>-0.0747803750506897</v>
+        <v>-0.07478020327640193</v>
       </c>
       <c r="BF171" t="n">
         <v>-0.004817277713112246</v>
@@ -55578,10 +55578,10 @@
         <v>0.9384741441560519</v>
       </c>
       <c r="CI171" t="n">
-        <v>0.06919928521745093</v>
+        <v>0.06919926412115186</v>
       </c>
       <c r="CJ171" t="n">
-        <v>0.9308007147825491</v>
+        <v>0.9308007358788482</v>
       </c>
       <c r="CK171" t="n">
         <v>0.0007529247085610938</v>
@@ -55602,10 +55602,10 @@
         <v>0.0007618976650071788</v>
       </c>
       <c r="CQ171" t="n">
-        <v>0.000518122761785937</v>
+        <v>0.0005181233867762808</v>
       </c>
       <c r="CR171" t="n">
-        <v>0.001216557437216166</v>
+        <v>0.001216556187235478</v>
       </c>
       <c r="CS171" t="n">
         <v>0</v>
@@ -55806,7 +55806,7 @@
         <v>0.1225210807499468</v>
       </c>
       <c r="BE172" t="n">
-        <v>-0.0129413415690963</v>
+        <v>-0.01294111424263016</v>
       </c>
       <c r="BF172" t="n">
         <v>0.03264714845379249</v>
@@ -55900,10 +55900,10 @@
         <v>0.9712205963504627</v>
       </c>
       <c r="CI172" t="n">
-        <v>0.03173476242091901</v>
+        <v>0.03173474535587162</v>
       </c>
       <c r="CJ172" t="n">
-        <v>0.968265237579081</v>
+        <v>0.9682652546441284</v>
       </c>
       <c r="CK172" t="n">
         <v>0.001605782511961384</v>
@@ -55924,10 +55924,10 @@
         <v>0.001608187722544466</v>
       </c>
       <c r="CQ172" t="n">
-        <v>0.001003259879329288</v>
+        <v>0.001003260890453543</v>
       </c>
       <c r="CR172" t="n">
-        <v>0.001958404732537958</v>
+        <v>0.00195840271028945</v>
       </c>
       <c r="CS172" t="n">
         <v>0</v>
@@ -56128,7 +56128,7 @@
         <v>0.2583393063202775</v>
       </c>
       <c r="BE173" t="n">
-        <v>0.05810270686499393</v>
+        <v>0.05810283510671826</v>
       </c>
       <c r="BF173" t="n">
         <v>0.06389238368892529</v>
@@ -56222,10 +56222,10 @@
         <v>0.9921103408556615</v>
       </c>
       <c r="CI173" t="n">
-        <v>0.007936584980744158</v>
+        <v>0.007936581048685873</v>
       </c>
       <c r="CJ173" t="n">
-        <v>0.9920634150192559</v>
+        <v>0.9920634189513141</v>
       </c>
       <c r="CK173" t="n">
         <v>0.001589282677236318</v>
@@ -56240,7 +56240,7 @@
       </c>
       <c r="CP173" t="inlineStr"/>
       <c r="CQ173" t="n">
-        <v>0.0008617356264264202</v>
+        <v>0.0008617360923846344</v>
       </c>
       <c r="CR173" t="inlineStr"/>
       <c r="CS173" t="n">
@@ -56442,7 +56442,7 @@
         <v>-0.4186782259762937</v>
       </c>
       <c r="BE174" t="n">
-        <v>-0.4604949420938761</v>
+        <v>-0.4604948392848836</v>
       </c>
       <c r="BF174" t="n">
         <v>-0.409674369564118</v>
@@ -56536,10 +56536,10 @@
         <v>0.09756401677755155</v>
       </c>
       <c r="CI174" t="n">
-        <v>0.9084270843332254</v>
+        <v>0.9084270728940981</v>
       </c>
       <c r="CJ174" t="n">
-        <v>0.09157291566677461</v>
+        <v>0.09157292710590192</v>
       </c>
       <c r="CK174" t="inlineStr"/>
       <c r="CL174" t="n">
@@ -56555,7 +56555,7 @@
       </c>
       <c r="CQ174" t="inlineStr"/>
       <c r="CR174" t="n">
-        <v>-0.001185952714366236</v>
+        <v>-0.001185953392148067</v>
       </c>
       <c r="CS174" t="n">
         <v>1</v>
@@ -56756,7 +56756,7 @@
         <v>-0.3972628184302505</v>
       </c>
       <c r="BE175" t="n">
-        <v>-0.4243848849434985</v>
+        <v>-0.4243848114168665</v>
       </c>
       <c r="BF175" t="n">
         <v>-0.38891410905261</v>
@@ -56850,10 +56850,10 @@
         <v>0.1158120876047776</v>
       </c>
       <c r="CI175" t="n">
-        <v>0.889701745549802</v>
+        <v>0.8897017349340105</v>
       </c>
       <c r="CJ175" t="n">
-        <v>0.110298254450198</v>
+        <v>0.1102982650659895</v>
       </c>
       <c r="CK175" t="n">
         <v>0.002527472317340879</v>
@@ -56874,10 +56874,10 @@
         <v>-0.0009434403064845828</v>
       </c>
       <c r="CQ175" t="n">
-        <v>0.002295451199516345</v>
+        <v>0.002295451828514553</v>
       </c>
       <c r="CR175" t="n">
-        <v>-0.0002900380259563545</v>
+        <v>-0.0002900392839527716</v>
       </c>
       <c r="CS175" t="n">
         <v>1</v>
@@ -57078,7 +57078,7 @@
         <v>-0.3654964601945969</v>
       </c>
       <c r="BE176" t="n">
-        <v>-0.3691436963299395</v>
+        <v>-0.3691436600689193</v>
       </c>
       <c r="BF176" t="n">
         <v>-0.3582626537008585</v>
@@ -57172,10 +57172,10 @@
         <v>0.1674435140946253</v>
       </c>
       <c r="CI176" t="n">
-        <v>0.835393802790846</v>
+        <v>0.8353937945829083</v>
       </c>
       <c r="CJ176" t="n">
-        <v>0.164606197209154</v>
+        <v>0.1646062054170917</v>
       </c>
       <c r="CK176" t="n">
         <v>0.006823490697069917</v>
@@ -57196,10 +57196,10 @@
         <v>-0.0005682495840185113</v>
       </c>
       <c r="CQ176" t="n">
-        <v>0.006725657794397516</v>
+        <v>0.006725658767057552</v>
       </c>
       <c r="CR176" t="n">
-        <v>-0.000484192392244019</v>
+        <v>-0.0004841926354090297</v>
       </c>
       <c r="CS176" t="n">
         <v>1</v>
@@ -57400,7 +57400,7 @@
         <v>-0.3589014609142551</v>
       </c>
       <c r="BE177" t="n">
-        <v>-0.3576801815093739</v>
+        <v>-0.3576801525839348</v>
       </c>
       <c r="BF177" t="n">
         <v>-0.3518864209882103</v>
@@ -57494,10 +57494,10 @@
         <v>0.1845230032821572</v>
       </c>
       <c r="CI177" t="n">
-        <v>0.817222714513318</v>
+        <v>0.8172227072960087</v>
       </c>
       <c r="CJ177" t="n">
-        <v>0.182777285486682</v>
+        <v>0.1827772927039913</v>
       </c>
       <c r="CK177" t="n">
         <v>0.001013493929168597</v>
@@ -57518,10 +57518,10 @@
         <v>0.002840645431064777</v>
       </c>
       <c r="CQ177" t="n">
-        <v>0.001022521635592417</v>
+        <v>0.001022521849409479</v>
       </c>
       <c r="CR177" t="n">
-        <v>0.003047517122090612</v>
+        <v>0.003047516266822377</v>
       </c>
       <c r="CS177" t="n">
         <v>0</v>
@@ -57722,7 +57722,7 @@
         <v>-0.3325746599461851</v>
       </c>
       <c r="BE178" t="n">
-        <v>-0.3164042798551663</v>
+        <v>-0.3164042808576595</v>
       </c>
       <c r="BF178" t="n">
         <v>-0.3257550281998111</v>
@@ -57816,10 +57816,10 @@
         <v>0.2770137246174391</v>
       </c>
       <c r="CI178" t="n">
-        <v>0.7189865112986353</v>
+        <v>0.718986511643592</v>
       </c>
       <c r="CJ178" t="n">
-        <v>0.2810134887013647</v>
+        <v>0.281013488356408</v>
       </c>
       <c r="CK178" t="n">
         <v>0.007934333918676054</v>
@@ -57840,10 +57840,10 @@
         <v>5.948948301233957e-05</v>
       </c>
       <c r="CQ178" t="n">
-        <v>0.008593705492270995</v>
+        <v>0.008593705451392819</v>
       </c>
       <c r="CR178" t="n">
-        <v>-5.900589491912925e-05</v>
+        <v>-5.900588469958529e-05</v>
       </c>
       <c r="CS178" t="n">
         <v>0</v>
@@ -58044,7 +58044,7 @@
         <v>-0.324760706606735</v>
       </c>
       <c r="BE179" t="n">
-        <v>-0.3064418631782755</v>
+        <v>-0.3064418730644515</v>
       </c>
       <c r="BF179" t="n">
         <v>-0.3176746758904423</v>
@@ -58138,10 +58138,10 @@
         <v>0.3072069328544553</v>
       </c>
       <c r="CI179" t="n">
-        <v>0.6872878698401336</v>
+        <v>0.6872878734526494</v>
       </c>
       <c r="CJ179" t="n">
-        <v>0.3127121301598664</v>
+        <v>0.3127121265473506</v>
       </c>
       <c r="CK179" t="n">
         <v>0.0007997860402344063</v>
@@ -58162,10 +58162,10 @@
         <v>4.957654307058412e-05</v>
       </c>
       <c r="CQ179" t="n">
-        <v>0.0009980969064702118</v>
+        <v>0.0009980967994472935</v>
       </c>
       <c r="CR179" t="n">
-        <v>-0.0001135181849194113</v>
+        <v>-0.0001135180778964913</v>
       </c>
       <c r="CS179" t="n">
         <v>0</v>
@@ -58366,7 +58366,7 @@
         <v>-0.3157515542398232</v>
       </c>
       <c r="BE180" t="n">
-        <v>-0.2962695969762945</v>
+        <v>-0.2962696167132677</v>
       </c>
       <c r="BF180" t="n">
         <v>-0.3082101821610122</v>
@@ -58460,10 +58460,10 @@
         <v>0.3406039153132595</v>
       </c>
       <c r="CI180" t="n">
-        <v>0.6525706230134224</v>
+        <v>0.652570630600084</v>
       </c>
       <c r="CJ180" t="n">
-        <v>0.3474293769865776</v>
+        <v>0.347429369399916</v>
       </c>
       <c r="CK180" t="n">
         <v>0.0009201818795213264</v>
@@ -58484,10 +58484,10 @@
         <v>0.0002344788599573464</v>
       </c>
       <c r="CQ180" t="n">
-        <v>0.001142037166827408</v>
+        <v>0.001142036942068065</v>
       </c>
       <c r="CR180" t="n">
-        <v>3.227051877368291e-05</v>
+        <v>3.227074353302252e-05</v>
       </c>
       <c r="CS180" t="n">
         <v>0</v>
@@ -58688,7 +58688,7 @@
         <v>-0.3050438375201558</v>
       </c>
       <c r="BE181" t="n">
-        <v>-0.2856795656273929</v>
+        <v>-0.285679596308176</v>
       </c>
       <c r="BF181" t="n">
         <v>-0.2968596151779041</v>
@@ -58782,10 +58782,10 @@
         <v>0.37781640403525</v>
       </c>
       <c r="CI181" t="n">
-        <v>0.6143852638651772</v>
+        <v>0.6143852761458602</v>
       </c>
       <c r="CJ181" t="n">
-        <v>0.3856147361348228</v>
+        <v>0.3856147238541398</v>
       </c>
       <c r="CK181" t="n">
         <v>0.0008693656381732161</v>
@@ -58806,10 +58806,10 @@
         <v>0.0004131960497934638</v>
       </c>
       <c r="CQ181" t="n">
-        <v>0.001098993342988693</v>
+        <v>0.001098992979166189</v>
       </c>
       <c r="CR181" t="n">
-        <v>0.0001821658465153073</v>
+        <v>0.0001821662103378089</v>
       </c>
       <c r="CS181" t="n">
         <v>0</v>
@@ -59010,7 +59010,7 @@
         <v>-0.2920175304860678</v>
       </c>
       <c r="BE182" t="n">
-        <v>-0.2744411656132342</v>
+        <v>-0.2744412082407444</v>
       </c>
       <c r="BF182" t="n">
         <v>-0.2830783021401544</v>
@@ -59104,10 +59104,10 @@
         <v>0.4189714272686202</v>
       </c>
       <c r="CI182" t="n">
-        <v>0.5727907687510343</v>
+        <v>0.5727907863195721</v>
       </c>
       <c r="CJ182" t="n">
-        <v>0.4272092312489657</v>
+        <v>0.4272092136804279</v>
       </c>
       <c r="CK182" t="n">
         <v>0.0008354897432005376</v>
@@ -59128,10 +59128,10 @@
         <v>0.001367103833306224</v>
       </c>
       <c r="CQ182" t="n">
-        <v>0.001050095685665314</v>
+        <v>0.001050095165186983</v>
       </c>
       <c r="CR182" t="n">
-        <v>0.001001029106586955</v>
+        <v>0.001001029887304449</v>
       </c>
       <c r="CS182" t="n">
         <v>0</v>
@@ -59332,7 +59332,7 @@
         <v>-0.266465366229465</v>
       </c>
       <c r="BE183" t="n">
-        <v>-0.2558139174431711</v>
+        <v>-0.2558139789759944</v>
       </c>
       <c r="BF183" t="n">
         <v>-0.2567351257249964</v>
@@ -59426,10 +59426,10 @@
         <v>0.487908655983843</v>
       </c>
       <c r="CI183" t="n">
-        <v>0.5045749761732659</v>
+        <v>0.5045750020477169</v>
       </c>
       <c r="CJ183" t="n">
-        <v>0.4954250238267341</v>
+        <v>0.4954249979522831</v>
       </c>
       <c r="CK183" t="n">
         <v>0.00183133489179893</v>
@@ -59450,10 +59450,10 @@
         <v>-0.0001621475434707134</v>
       </c>
       <c r="CQ183" t="n">
-        <v>0.002030370728299331</v>
+        <v>0.002030369578480445</v>
       </c>
       <c r="CR183" t="n">
-        <v>-0.00027348596612853</v>
+        <v>-0.000273485582855568</v>
       </c>
       <c r="CS183" t="n">
         <v>1</v>
@@ -59654,7 +59654,7 @@
         <v>-0.2559083337272565</v>
       </c>
       <c r="BE184" t="n">
-        <v>-0.2490008571498222</v>
+        <v>-0.2490009247635768</v>
       </c>
       <c r="BF184" t="n">
         <v>-0.2462620059343992</v>
@@ -59748,10 +59748,10 @@
         <v>0.5126878078181091</v>
       </c>
       <c r="CI184" t="n">
-        <v>0.4804611291914752</v>
+        <v>0.4804611576148665</v>
       </c>
       <c r="CJ184" t="n">
-        <v>0.5195388708085248</v>
+        <v>0.5195388423851335</v>
       </c>
       <c r="CK184" t="n">
         <v>0.0005876667005647812</v>
@@ -59772,10 +59772,10 @@
         <v>0.0005582945183769464</v>
       </c>
       <c r="CQ184" t="n">
-        <v>0.0006306794594863165</v>
+        <v>0.0006306790384564241</v>
       </c>
       <c r="CR184" t="n">
-        <v>0.0003553277230241431</v>
+        <v>0.0003553285650839313</v>
       </c>
       <c r="CS184" t="n">
         <v>0</v>
@@ -59976,7 +59976,7 @@
         <v>-0.2310404787941818</v>
       </c>
       <c r="BE185" t="n">
-        <v>-0.2342772445560451</v>
+        <v>-0.2342773227524604</v>
       </c>
       <c r="BF185" t="n">
         <v>-0.2227406928348115</v>
@@ -60070,10 +60070,10 @@
         <v>0.5645376275302632</v>
       </c>
       <c r="CI185" t="n">
-        <v>0.4305691368961909</v>
+        <v>0.4305691693725661</v>
       </c>
       <c r="CJ185" t="n">
-        <v>0.5694308631038091</v>
+        <v>0.5694308306274338</v>
       </c>
       <c r="CK185" t="n">
         <v>0.001162577369309499</v>
@@ -60094,10 +60094,10 @@
         <v>0.0004405441737435102</v>
       </c>
       <c r="CQ185" t="n">
-        <v>0.0011227520733676</v>
+        <v>0.001122751111235765</v>
       </c>
       <c r="CR185" t="n">
-        <v>0.000295579174201345</v>
+        <v>0.000295580136333181</v>
       </c>
       <c r="CS185" t="n">
         <v>0</v>
@@ -60298,7 +60298,7 @@
         <v>-0.2004592891249057</v>
       </c>
       <c r="BE186" t="n">
-        <v>-0.2179127253404374</v>
+        <v>-0.2179128101339624</v>
       </c>
       <c r="BF186" t="n">
         <v>-0.1961339712999806</v>
@@ -60392,10 +60392,10 @@
         <v>0.6185885224158827</v>
       </c>
       <c r="CI186" t="n">
-        <v>0.3791438799046393</v>
+        <v>0.3791439141218025</v>
       </c>
       <c r="CJ186" t="n">
-        <v>0.6208561200953606</v>
+        <v>0.6208560858781975</v>
       </c>
       <c r="CK186" t="n">
         <v>0.001436579732480259</v>
@@ -60416,10 +60416,10 @@
         <v>0.0005016418167561494</v>
       </c>
       <c r="CQ186" t="n">
-        <v>0.001227924496159176</v>
+        <v>0.001227923482455468</v>
       </c>
       <c r="CR186" t="n">
-        <v>0.000434462893602626</v>
+        <v>0.0004344639073063303</v>
       </c>
       <c r="CS186" t="n">
         <v>0</v>
@@ -60620,7 +60620,7 @@
         <v>-0.1635765730460408</v>
       </c>
       <c r="BE187" t="n">
-        <v>-0.1997732691489061</v>
+        <v>-0.1997733537832071</v>
       </c>
       <c r="BF187" t="n">
         <v>-0.1673256858122835</v>
@@ -60714,10 +60714,10 @@
         <v>0.6731061646435411</v>
       </c>
       <c r="CI187" t="n">
-        <v>0.327539350746229</v>
+        <v>0.3275393833471925</v>
       </c>
       <c r="CJ187" t="n">
-        <v>0.672460649253771</v>
+        <v>0.6724606166528075</v>
       </c>
       <c r="CK187" t="n">
         <v>0.00150741833410423</v>
@@ -60738,10 +60738,10 @@
         <v>2.281205277650938e-05</v>
       </c>
       <c r="CQ187" t="n">
-        <v>0.001094351820789215</v>
+        <v>0.001094350854966382</v>
       </c>
       <c r="CR187" t="n">
-        <v>3.237394048618593e-05</v>
+        <v>3.237442339760338e-05</v>
       </c>
       <c r="CS187" t="n">
         <v>1</v>
@@ -60942,7 +60942,7 @@
         <v>-0.142737136963949</v>
       </c>
       <c r="BE188" t="n">
-        <v>-0.1900333245749218</v>
+        <v>-0.1900334057615456</v>
       </c>
       <c r="BF188" t="n">
         <v>-0.1524978248760221</v>
@@ -61036,10 +61036,10 @@
         <v>0.6999826212372731</v>
       </c>
       <c r="CI188" t="n">
-        <v>0.3020686147913915</v>
+        <v>0.3020686451322048</v>
       </c>
       <c r="CJ188" t="n">
-        <v>0.6979313852086085</v>
+        <v>0.6979313548677952</v>
       </c>
       <c r="CK188" t="n">
         <v>0.0006067407358891011</v>
@@ -61060,10 +61060,10 @@
         <v>0.007362445666832487</v>
       </c>
       <c r="CQ188" t="n">
-        <v>0.0003449188722687768</v>
+        <v>0.0003449184228365024</v>
       </c>
       <c r="CR188" t="n">
-        <v>0.007575137451073036</v>
+        <v>0.007575140597098962</v>
       </c>
       <c r="CS188" t="n">
         <v>0</v>
@@ -61264,7 +61264,7 @@
         <v>0.03304030237935149</v>
       </c>
       <c r="BE189" t="n">
-        <v>-0.1126395497782608</v>
+        <v>-0.1126395400736617</v>
       </c>
       <c r="BF189" t="n">
         <v>-0.05713552642676062</v>
@@ -61358,10 +61358,10 @@
         <v>0.8595940958201447</v>
       </c>
       <c r="CI189" t="n">
-        <v>0.1466741963146631</v>
+        <v>0.1466741937507718</v>
       </c>
       <c r="CJ189" t="n">
-        <v>0.8533258036853368</v>
+        <v>0.8533258062492282</v>
       </c>
       <c r="CK189" t="n">
         <v>0.01252841207665233</v>
@@ -61376,7 +61376,7 @@
       </c>
       <c r="CP189" t="inlineStr"/>
       <c r="CQ189" t="n">
-        <v>0.008537643167525625</v>
+        <v>0.008537643433374415</v>
       </c>
       <c r="CR189" t="inlineStr"/>
       <c r="CS189" t="n">
